--- a/outputs/fs_res_monthly.xlsx
+++ b/outputs/fs_res_monthly.xlsx
@@ -530,10 +530,10 @@
         <v>34622.17801504005</v>
       </c>
       <c r="D2" t="n">
-        <v>31718.07561176857</v>
+        <v>31631.62237313157</v>
       </c>
       <c r="E2" t="n">
-        <v>37198.5149086505</v>
+        <v>37315.0109088738</v>
       </c>
       <c r="F2" t="n">
         <v>34622.17801504005</v>
@@ -583,10 +583,10 @@
         <v>34811.12572434308</v>
       </c>
       <c r="D3" t="n">
-        <v>29041.95289264946</v>
+        <v>29005.96023906536</v>
       </c>
       <c r="E3" t="n">
-        <v>34615.89357843161</v>
+        <v>34597.83392141239</v>
       </c>
       <c r="F3" t="n">
         <v>34811.12572434308</v>
@@ -636,10 +636,10 @@
         <v>34981.7881714555</v>
       </c>
       <c r="D4" t="n">
-        <v>33946.86246438328</v>
+        <v>33626.74594547784</v>
       </c>
       <c r="E4" t="n">
-        <v>39585.04269412794</v>
+        <v>39278.32193930154</v>
       </c>
       <c r="F4" t="n">
         <v>34981.7881714555</v>
@@ -689,10 +689,10 @@
         <v>35170.73588068062</v>
       </c>
       <c r="D5" t="n">
-        <v>26705.43387444691</v>
+        <v>26785.36886230779</v>
       </c>
       <c r="E5" t="n">
-        <v>32244.2928757125</v>
+        <v>32079.43113823554</v>
       </c>
       <c r="F5" t="n">
         <v>35170.73588068062</v>
@@ -742,10 +742,10 @@
         <v>35353.58850251137</v>
       </c>
       <c r="D6" t="n">
-        <v>28682.36578480564</v>
+        <v>28705.34824475762</v>
       </c>
       <c r="E6" t="n">
-        <v>34430.10671559494</v>
+        <v>34117.31496203864</v>
       </c>
       <c r="F6" t="n">
         <v>35353.58850251137</v>
@@ -795,10 +795,10 @@
         <v>35542.53621187156</v>
       </c>
       <c r="D7" t="n">
-        <v>32006.63315669938</v>
+        <v>31875.46753462048</v>
       </c>
       <c r="E7" t="n">
-        <v>37427.40229967137</v>
+        <v>37642.81327958273</v>
       </c>
       <c r="F7" t="n">
         <v>35542.53621187156</v>
@@ -848,10 +848,10 @@
         <v>35725.38883366027</v>
       </c>
       <c r="D8" t="n">
-        <v>31754.52535641735</v>
+        <v>31864.8986757569</v>
       </c>
       <c r="E8" t="n">
-        <v>37349.76579831551</v>
+        <v>37415.84778309082</v>
       </c>
       <c r="F8" t="n">
         <v>35725.38883366027</v>
@@ -901,10 +901,10 @@
         <v>35914.33654284194</v>
       </c>
       <c r="D9" t="n">
-        <v>34356.06893899608</v>
+        <v>34261.33056459705</v>
       </c>
       <c r="E9" t="n">
-        <v>39883.31513494661</v>
+        <v>39964.35393015591</v>
       </c>
       <c r="F9" t="n">
         <v>35914.33654284194</v>
@@ -954,10 +954,10 @@
         <v>36103.28425203042</v>
       </c>
       <c r="D10" t="n">
-        <v>33452.84875464835</v>
+        <v>33607.568248283</v>
       </c>
       <c r="E10" t="n">
-        <v>38817.66005236594</v>
+        <v>39183.98390410076</v>
       </c>
       <c r="F10" t="n">
         <v>36103.28425203042</v>
@@ -1007,10 +1007,10 @@
         <v>36286.13687382572</v>
       </c>
       <c r="D11" t="n">
-        <v>35365.64252224093</v>
+        <v>35282.38575485742</v>
       </c>
       <c r="E11" t="n">
-        <v>40912.44855428715</v>
+        <v>40936.12352278584</v>
       </c>
       <c r="F11" t="n">
         <v>36286.13687382572</v>
@@ -1060,10 +1060,10 @@
         <v>36475.08458281016</v>
       </c>
       <c r="D12" t="n">
-        <v>32975.63053702175</v>
+        <v>33266.31783018735</v>
       </c>
       <c r="E12" t="n">
-        <v>38547.69710601104</v>
+        <v>38637.46842908279</v>
       </c>
       <c r="F12" t="n">
         <v>36475.08458281016</v>
@@ -1113,10 +1113,10 @@
         <v>36657.93720440802</v>
       </c>
       <c r="D13" t="n">
-        <v>35402.5362376091</v>
+        <v>35541.01070740579</v>
       </c>
       <c r="E13" t="n">
-        <v>40892.21409912733</v>
+        <v>41016.17558516884</v>
       </c>
       <c r="F13" t="n">
         <v>36657.93720440802</v>
@@ -1166,10 +1166,10 @@
         <v>36846.8849131715</v>
       </c>
       <c r="D14" t="n">
-        <v>36654.67248663458</v>
+        <v>36640.9674606328</v>
       </c>
       <c r="E14" t="n">
-        <v>42095.44179359661</v>
+        <v>42078.57821954157</v>
       </c>
       <c r="F14" t="n">
         <v>36846.8849131715</v>
@@ -1219,10 +1219,10 @@
         <v>37035.83262217163</v>
       </c>
       <c r="D15" t="n">
-        <v>32036.78200016357</v>
+        <v>31841.60879803495</v>
       </c>
       <c r="E15" t="n">
-        <v>37486.39889811825</v>
+        <v>37270.74450423538</v>
       </c>
       <c r="F15" t="n">
         <v>37035.83262217163</v>
@@ -1272,10 +1272,10 @@
         <v>37206.49506901046</v>
       </c>
       <c r="D16" t="n">
-        <v>33867.96659721937</v>
+        <v>33793.44833596995</v>
       </c>
       <c r="E16" t="n">
-        <v>39539.77566215024</v>
+        <v>39427.75035569493</v>
       </c>
       <c r="F16" t="n">
         <v>37206.49506901046</v>
@@ -1325,10 +1325,10 @@
         <v>37395.44277815871</v>
       </c>
       <c r="D17" t="n">
-        <v>30557.09625847533</v>
+        <v>30382.71384004024</v>
       </c>
       <c r="E17" t="n">
-        <v>36257.95106500532</v>
+        <v>35834.7676124682</v>
       </c>
       <c r="F17" t="n">
         <v>37395.44277815871</v>
@@ -1378,10 +1378,10 @@
         <v>37578.29539991507</v>
       </c>
       <c r="D18" t="n">
-        <v>30683.76880614906</v>
+        <v>30772.24434653512</v>
       </c>
       <c r="E18" t="n">
-        <v>35968.146449268</v>
+        <v>36036.27922542845</v>
       </c>
       <c r="F18" t="n">
         <v>37578.29539991507</v>
@@ -1431,10 +1431,10 @@
         <v>37767.24310899017</v>
       </c>
       <c r="D19" t="n">
-        <v>31584.50767031766</v>
+        <v>31687.48893525871</v>
       </c>
       <c r="E19" t="n">
-        <v>37288.03254522313</v>
+        <v>37095.66525459284</v>
       </c>
       <c r="F19" t="n">
         <v>37767.24310899017</v>
@@ -1484,10 +1484,10 @@
         <v>37950.09573067574</v>
       </c>
       <c r="D20" t="n">
-        <v>37366.3040875478</v>
+        <v>37359.58550504405</v>
       </c>
       <c r="E20" t="n">
-        <v>42784.81245292402</v>
+        <v>42724.92703830395</v>
       </c>
       <c r="F20" t="n">
         <v>37950.09573067574</v>
@@ -1537,10 +1537,10 @@
         <v>38139.04343941584</v>
       </c>
       <c r="D21" t="n">
-        <v>36917.73373538964</v>
+        <v>37008.35610572548</v>
       </c>
       <c r="E21" t="n">
-        <v>42527.2268910343</v>
+        <v>42346.41680901512</v>
       </c>
       <c r="F21" t="n">
         <v>38139.04343941584</v>
@@ -1590,10 +1590,10 @@
         <v>38327.99114801716</v>
       </c>
       <c r="D22" t="n">
-        <v>34533.4927979868</v>
+        <v>34481.5959009677</v>
       </c>
       <c r="E22" t="n">
-        <v>40016.80387240874</v>
+        <v>40134.03476864092</v>
       </c>
       <c r="F22" t="n">
         <v>38327.99114801716</v>
@@ -1643,10 +1643,10 @@
         <v>38510.84376924425</v>
       </c>
       <c r="D23" t="n">
-        <v>38000.33883865292</v>
+        <v>37850.5129500893</v>
       </c>
       <c r="E23" t="n">
-        <v>43353.81533417555</v>
+        <v>43446.92101798507</v>
       </c>
       <c r="F23" t="n">
         <v>38510.84376924425</v>
@@ -1696,10 +1696,10 @@
         <v>38699.79147749425</v>
       </c>
       <c r="D24" t="n">
-        <v>34628.37951521477</v>
+        <v>34374.78673227828</v>
       </c>
       <c r="E24" t="n">
-        <v>40060.38624821306</v>
+        <v>40249.10770111874</v>
       </c>
       <c r="F24" t="n">
         <v>38699.79147749425</v>
@@ -1749,10 +1749,10 @@
         <v>38882.64409838134</v>
       </c>
       <c r="D25" t="n">
-        <v>36502.03593476304</v>
+        <v>36529.19149516857</v>
       </c>
       <c r="E25" t="n">
-        <v>41946.95852887932</v>
+        <v>41925.37951919621</v>
       </c>
       <c r="F25" t="n">
         <v>38882.64409838134</v>
@@ -1802,10 +1802,10 @@
         <v>39071.5918062772</v>
       </c>
       <c r="D26" t="n">
-        <v>41581.14192517614</v>
+        <v>41390.50339836258</v>
       </c>
       <c r="E26" t="n">
-        <v>47223.49506223677</v>
+        <v>46877.25100185552</v>
       </c>
       <c r="F26" t="n">
         <v>39071.5918062772</v>
@@ -1855,10 +1855,10 @@
         <v>39260.53951417307</v>
       </c>
       <c r="D27" t="n">
-        <v>34689.94597347254</v>
+        <v>34747.15790108224</v>
       </c>
       <c r="E27" t="n">
-        <v>40352.29140123128</v>
+        <v>39953.20978707675</v>
       </c>
       <c r="F27" t="n">
         <v>39260.53951417307</v>
@@ -1908,10 +1908,10 @@
         <v>39431.2019430388</v>
       </c>
       <c r="D28" t="n">
-        <v>33473.57478798395</v>
+        <v>33714.11647105622</v>
       </c>
       <c r="E28" t="n">
-        <v>39386.86336276556</v>
+        <v>39636.0695010347</v>
       </c>
       <c r="F28" t="n">
         <v>39431.2019430388</v>
@@ -1961,10 +1961,10 @@
         <v>39620.00299155107</v>
       </c>
       <c r="D29" t="n">
-        <v>34021.46699859521</v>
+        <v>34103.61971377341</v>
       </c>
       <c r="E29" t="n">
-        <v>39776.50738080748</v>
+        <v>39746.23377747285</v>
       </c>
       <c r="F29" t="n">
         <v>39620.00299155107</v>
@@ -2014,10 +2014,10 @@
         <v>39802.71368365971</v>
       </c>
       <c r="D30" t="n">
-        <v>32201.45053804651</v>
+        <v>32205.64519656977</v>
       </c>
       <c r="E30" t="n">
-        <v>37821.83267194514</v>
+        <v>37802.95717672419</v>
       </c>
       <c r="F30" t="n">
         <v>39802.71368365971</v>
@@ -2067,10 +2067,10 @@
         <v>39991.48397684904</v>
       </c>
       <c r="D31" t="n">
-        <v>31391.33139492318</v>
+        <v>31156.57361968605</v>
       </c>
       <c r="E31" t="n">
-        <v>36848.86484269865</v>
+        <v>36726.21874604477</v>
       </c>
       <c r="F31" t="n">
         <v>39991.48397684904</v>
@@ -2120,10 +2120,10 @@
         <v>40174.16490574195</v>
       </c>
       <c r="D32" t="n">
-        <v>42886.27331719666</v>
+        <v>42698.42599604253</v>
       </c>
       <c r="E32" t="n">
-        <v>48454.82003952433</v>
+        <v>48337.44377351646</v>
       </c>
       <c r="F32" t="n">
         <v>40174.16490574195</v>
@@ -2173,10 +2173,10 @@
         <v>40362.43575977576</v>
       </c>
       <c r="D33" t="n">
-        <v>39589.80623933912</v>
+        <v>39525.87757470283</v>
       </c>
       <c r="E33" t="n">
-        <v>45132.40909043364</v>
+        <v>45194.63779473329</v>
       </c>
       <c r="F33" t="n">
         <v>40362.43575977576</v>
@@ -2226,10 +2226,10 @@
         <v>40550.70661380957</v>
       </c>
       <c r="D34" t="n">
-        <v>35075.26200429829</v>
+        <v>35232.43824162846</v>
       </c>
       <c r="E34" t="n">
-        <v>41047.34216167009</v>
+        <v>40889.97269897679</v>
       </c>
       <c r="F34" t="n">
         <v>40550.70661380957</v>
@@ -2279,10 +2279,10 @@
         <v>40732.4964687744</v>
       </c>
       <c r="D35" t="n">
-        <v>40200.55337250561</v>
+        <v>40127.34604455547</v>
       </c>
       <c r="E35" t="n">
-        <v>45799.57116958986</v>
+        <v>45890.38001376448</v>
       </c>
       <c r="F35" t="n">
         <v>40732.4964687744</v>
@@ -2332,10 +2332,10 @@
         <v>40825.03019365421</v>
       </c>
       <c r="D36" t="n">
-        <v>35680.44426359711</v>
+        <v>35692.03131540152</v>
       </c>
       <c r="E36" t="n">
-        <v>41458.90425028854</v>
+        <v>41286.63019998721</v>
       </c>
       <c r="F36" t="n">
         <v>40825.03019365421</v>
@@ -2385,10 +2385,10 @@
         <v>40914.57895966692</v>
       </c>
       <c r="D37" t="n">
-        <v>37459.92316742291</v>
+        <v>37581.07668964699</v>
       </c>
       <c r="E37" t="n">
-        <v>43058.3342361383</v>
+        <v>43197.05363053009</v>
       </c>
       <c r="F37" t="n">
         <v>40914.57895966692</v>
@@ -2438,10 +2438,10 @@
         <v>41007.0902795933</v>
       </c>
       <c r="D38" t="n">
-        <v>46122.72554671606</v>
+        <v>46114.65075094903</v>
       </c>
       <c r="E38" t="n">
-        <v>51750.62488491462</v>
+        <v>51624.66816465381</v>
       </c>
       <c r="F38" t="n">
         <v>41007.0902795933</v>
@@ -2491,10 +2491,10 @@
         <v>41099.60159951969</v>
       </c>
       <c r="D39" t="n">
-        <v>37058.31615223308</v>
+        <v>37014.55782686628</v>
       </c>
       <c r="E39" t="n">
-        <v>42615.9127183245</v>
+        <v>42653.06010576674</v>
       </c>
       <c r="F39" t="n">
         <v>41099.60159951969</v>
@@ -2544,10 +2544,10 @@
         <v>41185.83883208923</v>
       </c>
       <c r="D40" t="n">
-        <v>42053.28878234787</v>
+        <v>42196.95753696333</v>
       </c>
       <c r="E40" t="n">
-        <v>47747.1647615913</v>
+        <v>47624.69618955984</v>
       </c>
       <c r="F40" t="n">
         <v>41185.83883208923</v>
@@ -2597,10 +2597,10 @@
         <v>41278.02346000841</v>
       </c>
       <c r="D41" t="n">
-        <v>31251.14074485581</v>
+        <v>31306.44480857781</v>
       </c>
       <c r="E41" t="n">
-        <v>36912.54653286232</v>
+        <v>36812.6301998499</v>
       </c>
       <c r="F41" t="n">
         <v>41278.02346000841</v>
@@ -2650,10 +2650,10 @@
         <v>41367.23439025277</v>
       </c>
       <c r="D42" t="n">
-        <v>35409.29620471517</v>
+        <v>35255.06043986989</v>
       </c>
       <c r="E42" t="n">
-        <v>40756.35262135665</v>
+        <v>40820.97657429997</v>
       </c>
       <c r="F42" t="n">
         <v>41367.23439025277</v>
@@ -2703,10 +2703,10 @@
         <v>41459.41901817194</v>
       </c>
       <c r="D43" t="n">
-        <v>40400.1881683298</v>
+        <v>40271.9625391448</v>
       </c>
       <c r="E43" t="n">
-        <v>45865.68510621722</v>
+        <v>45942.32143192046</v>
       </c>
       <c r="F43" t="n">
         <v>41459.41901817194</v>
@@ -2756,10 +2756,10 @@
         <v>41548.6299484163</v>
       </c>
       <c r="D44" t="n">
-        <v>34318.07581547969</v>
+        <v>34056.6555152422</v>
       </c>
       <c r="E44" t="n">
-        <v>39827.43118364026</v>
+        <v>39822.96985471323</v>
       </c>
       <c r="F44" t="n">
         <v>41548.6299484163</v>
@@ -2809,10 +2809,10 @@
         <v>41640.81457633548</v>
       </c>
       <c r="D45" t="n">
-        <v>39322.81681017021</v>
+        <v>39504.08196953253</v>
       </c>
       <c r="E45" t="n">
-        <v>44868.79985958821</v>
+        <v>45082.20127968172</v>
       </c>
       <c r="F45" t="n">
         <v>41640.81457633548</v>
@@ -2862,10 +2862,10 @@
         <v>41732.99920425465</v>
       </c>
       <c r="D46" t="n">
-        <v>40325.0003991657</v>
+        <v>40443.28281280407</v>
       </c>
       <c r="E46" t="n">
-        <v>45958.54393513707</v>
+        <v>46030.84869020718</v>
       </c>
       <c r="F46" t="n">
         <v>41732.99920425465</v>
@@ -2915,10 +2915,10 @@
         <v>41822.21013449902</v>
       </c>
       <c r="D47" t="n">
-        <v>40798.31603469764</v>
+        <v>40453.95511611045</v>
       </c>
       <c r="E47" t="n">
-        <v>46120.73742839642</v>
+        <v>46106.82158030505</v>
       </c>
       <c r="F47" t="n">
         <v>41822.21013449902</v>
@@ -2968,10 +2968,10 @@
         <v>41914.39476241819</v>
       </c>
       <c r="D48" t="n">
-        <v>39290.22843334052</v>
+        <v>39387.56057479444</v>
       </c>
       <c r="E48" t="n">
-        <v>45002.07110064982</v>
+        <v>44886.33868455907</v>
       </c>
       <c r="F48" t="n">
         <v>41914.39476241819</v>
@@ -3021,10 +3021,10 @@
         <v>42003.54996980305</v>
       </c>
       <c r="D49" t="n">
-        <v>42149.6054602588</v>
+        <v>41960.61742523209</v>
       </c>
       <c r="E49" t="n">
-        <v>47410.17846266443</v>
+        <v>47411.16659357904</v>
       </c>
       <c r="F49" t="n">
         <v>42003.54996980305</v>
@@ -3074,10 +3074,10 @@
         <v>42095.67255782826</v>
       </c>
       <c r="D50" t="n">
-        <v>39091.27746792799</v>
+        <v>39168.98111783595</v>
       </c>
       <c r="E50" t="n">
-        <v>44818.04385400612</v>
+        <v>44898.17546375749</v>
       </c>
       <c r="F50" t="n">
         <v>42095.67255782826</v>
@@ -3127,10 +3127,10 @@
         <v>42187.79514585347</v>
       </c>
       <c r="D51" t="n">
-        <v>36439.43127075561</v>
+        <v>36255.67987636366</v>
       </c>
       <c r="E51" t="n">
-        <v>41790.03824681533</v>
+        <v>41783.47670621443</v>
       </c>
       <c r="F51" t="n">
         <v>42187.79514585347</v>
@@ -3180,10 +3180,10 @@
         <v>42271.00264453602</v>
       </c>
       <c r="D52" t="n">
-        <v>41253.8802470009</v>
+        <v>41080.57486568865</v>
       </c>
       <c r="E52" t="n">
-        <v>46739.08486169689</v>
+        <v>46380.11747080943</v>
       </c>
       <c r="F52" t="n">
         <v>42271.00264453602</v>
@@ -3233,10 +3233,10 @@
         <v>42363.12523236313</v>
       </c>
       <c r="D53" t="n">
-        <v>33756.67846133083</v>
+        <v>33909.49842117801</v>
       </c>
       <c r="E53" t="n">
-        <v>39420.54124411431</v>
+        <v>39448.81846720265</v>
       </c>
       <c r="F53" t="n">
         <v>42363.12523236313</v>
@@ -3286,10 +3286,10 @@
         <v>42452.27612398888</v>
       </c>
       <c r="D54" t="n">
-        <v>35929.7934847529</v>
+        <v>35912.3741216152</v>
       </c>
       <c r="E54" t="n">
-        <v>41405.64146199236</v>
+        <v>41253.61341714098</v>
       </c>
       <c r="F54" t="n">
         <v>42452.27612398888</v>
@@ -3339,10 +3339,10 @@
         <v>42544.39871200216</v>
       </c>
       <c r="D55" t="n">
-        <v>39074.5525744636</v>
+        <v>38767.47407906964</v>
       </c>
       <c r="E55" t="n">
-        <v>44361.28533051167</v>
+        <v>44611.78234532346</v>
       </c>
       <c r="F55" t="n">
         <v>42544.39871200216</v>
@@ -3392,10 +3392,10 @@
         <v>42633.54960362791</v>
       </c>
       <c r="D56" t="n">
-        <v>38556.42668229328</v>
+        <v>38799.80620138842</v>
       </c>
       <c r="E56" t="n">
-        <v>44377.96438847478</v>
+        <v>44230.03696151629</v>
       </c>
       <c r="F56" t="n">
         <v>42633.54960362791</v>
@@ -3445,10 +3445,10 @@
         <v>42725.67219164118</v>
       </c>
       <c r="D57" t="n">
-        <v>41224.59728896419</v>
+        <v>41165.47957425328</v>
       </c>
       <c r="E57" t="n">
-        <v>46672.23776306582</v>
+        <v>46543.42880470921</v>
       </c>
       <c r="F57" t="n">
         <v>42725.67219164118</v>
@@ -3498,10 +3498,10 @@
         <v>42817.79477965446</v>
       </c>
       <c r="D58" t="n">
-        <v>40313.75126129475</v>
+        <v>40385.42513589242</v>
       </c>
       <c r="E58" t="n">
-        <v>45893.49336238234</v>
+        <v>45684.37352672261</v>
       </c>
       <c r="F58" t="n">
         <v>42817.79477965446</v>
@@ -3551,10 +3551,10 @@
         <v>42906.94567128021</v>
       </c>
       <c r="D59" t="n">
-        <v>41849.27340489638</v>
+        <v>41981.14990558389</v>
       </c>
       <c r="E59" t="n">
-        <v>47429.15772517945</v>
+        <v>47398.93317313177</v>
       </c>
       <c r="F59" t="n">
         <v>42906.94567128021</v>
@@ -3604,10 +3604,10 @@
         <v>42999.06825929349</v>
       </c>
       <c r="D60" t="n">
-        <v>39651.92525266914</v>
+        <v>39619.31209235418</v>
       </c>
       <c r="E60" t="n">
-        <v>45284.529172984</v>
+        <v>45113.85053671771</v>
       </c>
       <c r="F60" t="n">
         <v>42999.06825929349</v>
@@ -3657,10 +3657,10 @@
         <v>43088.21915091924</v>
       </c>
       <c r="D61" t="n">
-        <v>41594.88032696033</v>
+        <v>41695.01184341444</v>
       </c>
       <c r="E61" t="n">
-        <v>47327.01833444661</v>
+        <v>47385.12385462051</v>
       </c>
       <c r="F61" t="n">
         <v>43088.21915091924</v>
@@ -3710,10 +3710,10 @@
         <v>43180.34173893252</v>
       </c>
       <c r="D62" t="n">
-        <v>42778.503150317</v>
+        <v>42803.42470918022</v>
       </c>
       <c r="E62" t="n">
-        <v>48563.7753413797</v>
+        <v>48442.14010221767</v>
       </c>
       <c r="F62" t="n">
         <v>43180.34173893252</v>
@@ -3763,10 +3763,10 @@
         <v>43272.4643269458</v>
       </c>
       <c r="D63" t="n">
-        <v>38055.2501602893</v>
+        <v>38047.60629970217</v>
       </c>
       <c r="E63" t="n">
-        <v>43735.66977948317</v>
+        <v>43520.23701999271</v>
       </c>
       <c r="F63" t="n">
         <v>43272.4643269458</v>
@@ -3816,10 +3816,10 @@
         <v>43355.6718257965</v>
       </c>
       <c r="D64" t="n">
-        <v>39986.43879557038</v>
+        <v>39898.40371504927</v>
       </c>
       <c r="E64" t="n">
-        <v>45468.30576647276</v>
+        <v>45447.63088853249</v>
       </c>
       <c r="F64" t="n">
         <v>43355.6718257965</v>
@@ -3869,10 +3869,10 @@
         <v>43447.79441380977</v>
       </c>
       <c r="D65" t="n">
-        <v>36614.81527548278</v>
+        <v>36486.20253026607</v>
       </c>
       <c r="E65" t="n">
-        <v>42047.7853826257</v>
+        <v>42345.07585420267</v>
       </c>
       <c r="F65" t="n">
         <v>43447.79441380977</v>
@@ -3922,16 +3922,16 @@
         <v>43536.94530543552</v>
       </c>
       <c r="D66" t="n">
-        <v>36436.22332418879</v>
+        <v>36604.36741669708</v>
       </c>
       <c r="E66" t="n">
-        <v>42041.44340716886</v>
+        <v>42038.59067692637</v>
       </c>
       <c r="F66" t="n">
-        <v>43536.08889629929</v>
+        <v>43536.17578925654</v>
       </c>
       <c r="G66" t="n">
-        <v>43537.55607822149</v>
+        <v>43538.02608304882</v>
       </c>
       <c r="H66" t="n">
         <v>-4240.822203761254</v>
@@ -3975,16 +3975,16 @@
         <v>43629.0678934488</v>
       </c>
       <c r="D67" t="n">
-        <v>37421.40167431389</v>
+        <v>37417.55080868187</v>
       </c>
       <c r="E67" t="n">
-        <v>42804.79019796392</v>
+        <v>43085.087621652</v>
       </c>
       <c r="F67" t="n">
-        <v>43624.17854472737</v>
+        <v>43624.49984946408</v>
       </c>
       <c r="G67" t="n">
-        <v>43633.40844957686</v>
+        <v>43633.62628422316</v>
       </c>
       <c r="H67" t="n">
         <v>-3419.766077338587</v>
@@ -4028,16 +4028,16 @@
         <v>43718.21878507455</v>
       </c>
       <c r="D68" t="n">
-        <v>43047.13482985359</v>
+        <v>43048.06129252799</v>
       </c>
       <c r="E68" t="n">
-        <v>48516.48796866213</v>
+        <v>48519.77178748726</v>
       </c>
       <c r="F68" t="n">
-        <v>43707.19350504527</v>
+        <v>43708.87306407372</v>
       </c>
       <c r="G68" t="n">
-        <v>43727.83325200857</v>
+        <v>43728.56677061271</v>
       </c>
       <c r="H68" t="n">
         <v>2124.880922772506</v>
@@ -4081,16 +4081,16 @@
         <v>43810.34137308782</v>
       </c>
       <c r="D69" t="n">
-        <v>42621.10774555385</v>
+        <v>42787.88919231224</v>
       </c>
       <c r="E69" t="n">
-        <v>48131.65756215514</v>
+        <v>48061.33877770359</v>
       </c>
       <c r="F69" t="n">
-        <v>43792.50205839022</v>
+        <v>43794.28176888254</v>
       </c>
       <c r="G69" t="n">
-        <v>43826.46429127951</v>
+        <v>43827.67810127741</v>
       </c>
       <c r="H69" t="n">
         <v>1578.575893446341</v>
@@ -4134,16 +4134,16 @@
         <v>43902.4639611011</v>
       </c>
       <c r="D70" t="n">
-        <v>40106.36403651737</v>
+        <v>39921.97468348635</v>
       </c>
       <c r="E70" t="n">
-        <v>45584.72659112576</v>
+        <v>45773.97151938188</v>
       </c>
       <c r="F70" t="n">
-        <v>43876.91884169076</v>
+        <v>43879.2009221438</v>
       </c>
       <c r="G70" t="n">
-        <v>43927.316018511</v>
+        <v>43927.04879828999</v>
       </c>
       <c r="H70" t="n">
         <v>-1122.337872373191</v>
@@ -4187,16 +4187,16 @@
         <v>43991.61485272685</v>
       </c>
       <c r="D71" t="n">
-        <v>43336.10077402651</v>
+        <v>43312.26456090697</v>
       </c>
       <c r="E71" t="n">
-        <v>48539.15592070948</v>
+        <v>48893.64968457824</v>
       </c>
       <c r="F71" t="n">
-        <v>43956.75166640571</v>
+        <v>43960.29281238429</v>
       </c>
       <c r="G71" t="n">
-        <v>44027.51694415303</v>
+        <v>44022.98620542254</v>
       </c>
       <c r="H71" t="n">
         <v>2056.283849590891</v>
@@ -4240,16 +4240,16 @@
         <v>44083.73744074013</v>
       </c>
       <c r="D72" t="n">
-        <v>39803.42576442566</v>
+        <v>39839.10021329387</v>
       </c>
       <c r="E72" t="n">
-        <v>45251.58147754007</v>
+        <v>45416.37928553632</v>
       </c>
       <c r="F72" t="n">
-        <v>44038.08053790296</v>
+        <v>44044.25107340622</v>
       </c>
       <c r="G72" t="n">
-        <v>44131.24717674414</v>
+        <v>44124.50730883389</v>
       </c>
       <c r="H72" t="n">
         <v>-1449.211963041512</v>
@@ -4293,16 +4293,16 @@
         <v>44172.88833236588</v>
       </c>
       <c r="D73" t="n">
-        <v>41785.63928510912</v>
+        <v>41764.14706693426</v>
       </c>
       <c r="E73" t="n">
-        <v>47308.56959078438</v>
+        <v>47180.01213865652</v>
       </c>
       <c r="F73" t="n">
-        <v>44116.12996691111</v>
+        <v>44125.48610455867</v>
       </c>
       <c r="G73" t="n">
-        <v>44229.74678410403</v>
+        <v>44221.78406073881</v>
       </c>
       <c r="H73" t="n">
         <v>355.2249270289452</v>
@@ -4346,16 +4346,16 @@
         <v>44265.01092037916</v>
       </c>
       <c r="D74" t="n">
-        <v>46609.42632796575</v>
+        <v>46689.37856411573</v>
       </c>
       <c r="E74" t="n">
-        <v>52340.66231959684</v>
+        <v>52007.48055750481</v>
       </c>
       <c r="F74" t="n">
-        <v>44196.56085798239</v>
+        <v>44207.50866679061</v>
       </c>
       <c r="G74" t="n">
-        <v>44331.58101422382</v>
+        <v>44326.14188766359</v>
       </c>
       <c r="H74" t="n">
         <v>5227.403955557661</v>
@@ -4399,16 +4399,16 @@
         <v>44357.13350839243</v>
       </c>
       <c r="D75" t="n">
-        <v>39786.24300142995</v>
+        <v>39690.31228449007</v>
       </c>
       <c r="E75" t="n">
-        <v>45072.27125297658</v>
+        <v>45423.1588266258</v>
       </c>
       <c r="F75" t="n">
-        <v>44273.42191523702</v>
+        <v>44286.20037895687</v>
       </c>
       <c r="G75" t="n">
-        <v>44433.92322168378</v>
+        <v>44428.71844948243</v>
       </c>
       <c r="H75" t="n">
         <v>-1810.927809374718</v>
@@ -4452,16 +4452,16 @@
         <v>44440.34100724313</v>
       </c>
       <c r="D76" t="n">
-        <v>38845.85549004104</v>
+        <v>38885.33182397507</v>
       </c>
       <c r="E76" t="n">
-        <v>44381.24754687587</v>
+        <v>44441.60791453104</v>
       </c>
       <c r="F76" t="n">
-        <v>44344.79821687181</v>
+        <v>44358.56489155638</v>
       </c>
       <c r="G76" t="n">
-        <v>44528.0239353064</v>
+        <v>44522.22168825722</v>
       </c>
       <c r="H76" t="n">
         <v>-2861.156373657976</v>
@@ -4505,16 +4505,16 @@
         <v>44532.46359525641</v>
       </c>
       <c r="D77" t="n">
-        <v>38986.53031992046</v>
+        <v>38978.26325102157</v>
       </c>
       <c r="E77" t="n">
-        <v>44426.36509701148</v>
+        <v>44696.70772097803</v>
       </c>
       <c r="F77" t="n">
-        <v>44423.83709506237</v>
+        <v>44437.25136445194</v>
       </c>
       <c r="G77" t="n">
-        <v>44630.90700587173</v>
+        <v>44627.64271776515</v>
       </c>
       <c r="H77" t="n">
         <v>-2675.026213871307</v>
@@ -4558,16 +4558,16 @@
         <v>44621.61448688216</v>
       </c>
       <c r="D78" t="n">
-        <v>37033.17807880149</v>
+        <v>37146.7226293682</v>
       </c>
       <c r="E78" t="n">
-        <v>42707.35443643352</v>
+        <v>42463.02026025905</v>
       </c>
       <c r="F78" t="n">
-        <v>44497.70656817434</v>
+        <v>44513.98439713924</v>
       </c>
       <c r="G78" t="n">
-        <v>44731.58753075564</v>
+        <v>44729.86252432976</v>
       </c>
       <c r="H78" t="n">
         <v>-4717.724447429683</v>
@@ -4611,16 +4611,16 @@
         <v>44713.73707489543</v>
       </c>
       <c r="D79" t="n">
-        <v>35788.44907848362</v>
+        <v>35928.79295572825</v>
       </c>
       <c r="E79" t="n">
-        <v>41526.74211961297</v>
+        <v>41490.74039939852</v>
       </c>
       <c r="F79" t="n">
-        <v>44577.22555423279</v>
+        <v>44592.9442618398</v>
       </c>
       <c r="G79" t="n">
-        <v>44836.36449906813</v>
+        <v>44835.46790289642</v>
       </c>
       <c r="H79" t="n">
         <v>-5914.036515272073</v>
@@ -4664,16 +4664,16 @@
         <v>44802.88796652119</v>
       </c>
       <c r="D80" t="n">
-        <v>47500.53096408831</v>
+        <v>47350.21146970496</v>
       </c>
       <c r="E80" t="n">
-        <v>52953.14061622577</v>
+        <v>52908.10885735693</v>
       </c>
       <c r="F80" t="n">
-        <v>44656.49835202655</v>
+        <v>44667.9732732453</v>
       </c>
       <c r="G80" t="n">
-        <v>44938.45520695553</v>
+        <v>44935.87856509507</v>
       </c>
       <c r="H80" t="n">
         <v>5483.571437254037</v>
@@ -4717,16 +4717,16 @@
         <v>44895.01055453446</v>
       </c>
       <c r="D81" t="n">
-        <v>44183.49555196294</v>
+        <v>43774.67072762555</v>
       </c>
       <c r="E81" t="n">
-        <v>49692.88337254953</v>
+        <v>49567.43049433561</v>
       </c>
       <c r="F81" t="n">
-        <v>44735.15728618579</v>
+        <v>44745.28762509541</v>
       </c>
       <c r="G81" t="n">
-        <v>45045.93941676414</v>
+        <v>45042.79900842847</v>
       </c>
       <c r="H81" t="n">
         <v>1952.691645385843</v>
@@ -4770,16 +4770,16 @@
         <v>44987.13314254773</v>
       </c>
       <c r="D82" t="n">
-        <v>39698.05691382171</v>
+        <v>39753.90439668682</v>
       </c>
       <c r="E82" t="n">
-        <v>45405.50385148475</v>
+        <v>45357.53665666368</v>
       </c>
       <c r="F82" t="n">
-        <v>44813.12522778045</v>
+        <v>44823.31189052339</v>
       </c>
       <c r="G82" t="n">
-        <v>45149.80093269962</v>
+        <v>45149.50391062588</v>
       </c>
       <c r="H82" t="n">
         <v>-2451.705055521577</v>

--- a/outputs/fs_res_monthly.xlsx
+++ b/outputs/fs_res_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42736</v>
+        <v>42887</v>
       </c>
       <c r="C2" t="n">
-        <v>34622.17801504005</v>
+        <v>32913.43537797867</v>
       </c>
       <c r="D2" t="n">
-        <v>31631.62237313157</v>
+        <v>19554.01249459535</v>
       </c>
       <c r="E2" t="n">
-        <v>37315.0109088738</v>
+        <v>28391.74027148538</v>
       </c>
       <c r="F2" t="n">
-        <v>34622.17801504005</v>
+        <v>32913.43537797867</v>
       </c>
       <c r="G2" t="n">
-        <v>34622.17801504005</v>
+        <v>32913.43537797867</v>
       </c>
       <c r="H2" t="n">
-        <v>-162.3203966089025</v>
+        <v>-8799.601281629548</v>
       </c>
       <c r="I2" t="n">
-        <v>-162.3203966089025</v>
+        <v>-8799.601281629548</v>
       </c>
       <c r="J2" t="n">
-        <v>-162.3203966089025</v>
+        <v>-8799.601281629548</v>
       </c>
       <c r="K2" t="n">
-        <v>-162.3203966089025</v>
+        <v>-8799.601281629548</v>
       </c>
       <c r="L2" t="n">
-        <v>-162.3203966089025</v>
+        <v>-8799.601281629548</v>
       </c>
       <c r="M2" t="n">
-        <v>-162.3203966089025</v>
+        <v>-8799.601281629548</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>34459.85761843115</v>
+        <v>24113.83409634912</v>
       </c>
     </row>
     <row r="3">
@@ -577,40 +577,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42767</v>
+        <v>42917</v>
       </c>
       <c r="C3" t="n">
-        <v>34811.12572434308</v>
+        <v>33184.59042238387</v>
       </c>
       <c r="D3" t="n">
-        <v>29005.96023906536</v>
+        <v>31870.69767342323</v>
       </c>
       <c r="E3" t="n">
-        <v>34597.83392141239</v>
+        <v>40502.8722813028</v>
       </c>
       <c r="F3" t="n">
-        <v>34811.12572434308</v>
+        <v>33184.59042238387</v>
       </c>
       <c r="G3" t="n">
-        <v>34811.12572434308</v>
+        <v>33184.59042238387</v>
       </c>
       <c r="H3" t="n">
-        <v>-3032.705718751744</v>
+        <v>3048.511484639221</v>
       </c>
       <c r="I3" t="n">
-        <v>-3032.705718751744</v>
+        <v>3048.511484639221</v>
       </c>
       <c r="J3" t="n">
-        <v>-3032.705718751744</v>
+        <v>3048.511484639221</v>
       </c>
       <c r="K3" t="n">
-        <v>-3032.705718751744</v>
+        <v>3048.511484639221</v>
       </c>
       <c r="L3" t="n">
-        <v>-3032.705718751744</v>
+        <v>3048.511484639221</v>
       </c>
       <c r="M3" t="n">
-        <v>-3032.705718751744</v>
+        <v>3048.511484639221</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31778.42000559134</v>
+        <v>36233.1019070231</v>
       </c>
     </row>
     <row r="4">
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42795</v>
+        <v>42948</v>
       </c>
       <c r="C4" t="n">
-        <v>34981.7881714555</v>
+        <v>33464.78396826925</v>
       </c>
       <c r="D4" t="n">
-        <v>33626.74594547784</v>
+        <v>31101.18256924743</v>
       </c>
       <c r="E4" t="n">
-        <v>39278.32193930154</v>
+        <v>40378.83557221911</v>
       </c>
       <c r="F4" t="n">
-        <v>34981.7881714555</v>
+        <v>33464.78396826925</v>
       </c>
       <c r="G4" t="n">
-        <v>34981.7881714555</v>
+        <v>33464.78396826925</v>
       </c>
       <c r="H4" t="n">
-        <v>1560.937349112964</v>
+        <v>2196.598069324536</v>
       </c>
       <c r="I4" t="n">
-        <v>1560.937349112964</v>
+        <v>2196.598069324536</v>
       </c>
       <c r="J4" t="n">
-        <v>1560.937349112964</v>
+        <v>2196.598069324536</v>
       </c>
       <c r="K4" t="n">
-        <v>1560.937349112964</v>
+        <v>2196.598069324536</v>
       </c>
       <c r="L4" t="n">
-        <v>1560.937349112964</v>
+        <v>2196.598069324536</v>
       </c>
       <c r="M4" t="n">
-        <v>1560.937349112964</v>
+        <v>2196.598069324536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>36542.72552056846</v>
+        <v>35661.38203759379</v>
       </c>
     </row>
     <row r="5">
@@ -683,40 +683,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42826</v>
+        <v>42979</v>
       </c>
       <c r="C5" t="n">
-        <v>35170.73588068062</v>
+        <v>33744.97751478499</v>
       </c>
       <c r="D5" t="n">
-        <v>26785.36886230779</v>
+        <v>29576.80769858966</v>
       </c>
       <c r="E5" t="n">
-        <v>32079.43113823554</v>
+        <v>38128.81502712494</v>
       </c>
       <c r="F5" t="n">
-        <v>35170.73588068062</v>
+        <v>33744.97751478499</v>
       </c>
       <c r="G5" t="n">
-        <v>35170.73588068062</v>
+        <v>33744.97751478499</v>
       </c>
       <c r="H5" t="n">
-        <v>-5694.092443177034</v>
+        <v>410.7613042139643</v>
       </c>
       <c r="I5" t="n">
-        <v>-5694.092443177034</v>
+        <v>410.7613042139643</v>
       </c>
       <c r="J5" t="n">
-        <v>-5694.092443177034</v>
+        <v>410.7613042139643</v>
       </c>
       <c r="K5" t="n">
-        <v>-5694.092443177034</v>
+        <v>410.7613042139643</v>
       </c>
       <c r="L5" t="n">
-        <v>-5694.092443177034</v>
+        <v>410.7613042139643</v>
       </c>
       <c r="M5" t="n">
-        <v>-5694.092443177034</v>
+        <v>410.7613042139643</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>29476.64343750358</v>
+        <v>34155.73881899896</v>
       </c>
     </row>
     <row r="6">
@@ -736,40 +736,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42856</v>
+        <v>43009</v>
       </c>
       <c r="C6" t="n">
-        <v>35353.58850251137</v>
+        <v>34016.13255980022</v>
       </c>
       <c r="D6" t="n">
-        <v>28705.34824475762</v>
+        <v>30901.53056014764</v>
       </c>
       <c r="E6" t="n">
-        <v>34117.31496203864</v>
+        <v>39706.77079286514</v>
       </c>
       <c r="F6" t="n">
-        <v>35353.58850251137</v>
+        <v>34016.13255980022</v>
       </c>
       <c r="G6" t="n">
-        <v>35353.58850251137</v>
+        <v>34016.13255980022</v>
       </c>
       <c r="H6" t="n">
-        <v>-3793.280797317392</v>
+        <v>1165.7093210695</v>
       </c>
       <c r="I6" t="n">
-        <v>-3793.280797317392</v>
+        <v>1165.7093210695</v>
       </c>
       <c r="J6" t="n">
-        <v>-3793.280797317392</v>
+        <v>1165.7093210695</v>
       </c>
       <c r="K6" t="n">
-        <v>-3793.280797317392</v>
+        <v>1165.7093210695</v>
       </c>
       <c r="L6" t="n">
-        <v>-3793.280797317392</v>
+        <v>1165.7093210695</v>
       </c>
       <c r="M6" t="n">
-        <v>-3793.280797317392</v>
+        <v>1165.7093210695</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31560.30770519398</v>
+        <v>35181.84188086972</v>
       </c>
     </row>
     <row r="7">
@@ -789,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42887</v>
+        <v>43040</v>
       </c>
       <c r="C7" t="n">
-        <v>35542.53621187156</v>
+        <v>34296.32610675659</v>
       </c>
       <c r="D7" t="n">
-        <v>31875.46753462048</v>
+        <v>29222.24547725853</v>
       </c>
       <c r="E7" t="n">
-        <v>37642.81327958273</v>
+        <v>37816.52666820688</v>
       </c>
       <c r="F7" t="n">
-        <v>35542.53621187156</v>
+        <v>34296.32610675659</v>
       </c>
       <c r="G7" t="n">
-        <v>35542.53621187156</v>
+        <v>34296.32610675659</v>
       </c>
       <c r="H7" t="n">
-        <v>-874.7978840025091</v>
+        <v>-493.2805461140345</v>
       </c>
       <c r="I7" t="n">
-        <v>-874.7978840025091</v>
+        <v>-493.2805461140345</v>
       </c>
       <c r="J7" t="n">
-        <v>-874.7978840025091</v>
+        <v>-493.2805461140345</v>
       </c>
       <c r="K7" t="n">
-        <v>-874.7978840025091</v>
+        <v>-493.2805461140345</v>
       </c>
       <c r="L7" t="n">
-        <v>-874.7978840025091</v>
+        <v>-493.2805461140345</v>
       </c>
       <c r="M7" t="n">
-        <v>-874.7978840025091</v>
+        <v>-493.2805461140345</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>34667.73832786905</v>
+        <v>33803.04556064255</v>
       </c>
     </row>
     <row r="8">
@@ -842,40 +842,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42917</v>
+        <v>43070</v>
       </c>
       <c r="C8" t="n">
-        <v>35725.38883366027</v>
+        <v>34567.48115219824</v>
       </c>
       <c r="D8" t="n">
-        <v>31864.8986757569</v>
+        <v>31425.20095970439</v>
       </c>
       <c r="E8" t="n">
-        <v>37415.84778309082</v>
+        <v>40558.16948312509</v>
       </c>
       <c r="F8" t="n">
-        <v>35725.38883366027</v>
+        <v>34567.48115219824</v>
       </c>
       <c r="G8" t="n">
-        <v>35725.38883366027</v>
+        <v>34567.48115219824</v>
       </c>
       <c r="H8" t="n">
-        <v>-1202.993025138881</v>
+        <v>1525.732470191613</v>
       </c>
       <c r="I8" t="n">
-        <v>-1202.993025138881</v>
+        <v>1525.732470191613</v>
       </c>
       <c r="J8" t="n">
-        <v>-1202.993025138881</v>
+        <v>1525.732470191613</v>
       </c>
       <c r="K8" t="n">
-        <v>-1202.993025138881</v>
+        <v>1525.732470191613</v>
       </c>
       <c r="L8" t="n">
-        <v>-1202.993025138881</v>
+        <v>1525.732470191613</v>
       </c>
       <c r="M8" t="n">
-        <v>-1202.993025138881</v>
+        <v>1525.732470191613</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>34522.39580852139</v>
+        <v>36093.21362238986</v>
       </c>
     </row>
     <row r="9">
@@ -895,40 +895,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42948</v>
+        <v>43101</v>
       </c>
       <c r="C9" t="n">
-        <v>35914.33654284194</v>
+        <v>34847.67469756969</v>
       </c>
       <c r="D9" t="n">
-        <v>34261.33056459705</v>
+        <v>34167.45304610986</v>
       </c>
       <c r="E9" t="n">
-        <v>39964.35393015591</v>
+        <v>43316.65995990255</v>
       </c>
       <c r="F9" t="n">
-        <v>35914.33654284194</v>
+        <v>34847.67469756969</v>
       </c>
       <c r="G9" t="n">
-        <v>35914.33654284194</v>
+        <v>34847.67469756969</v>
       </c>
       <c r="H9" t="n">
-        <v>1146.201906442887</v>
+        <v>3877.13124871274</v>
       </c>
       <c r="I9" t="n">
-        <v>1146.201906442887</v>
+        <v>3877.13124871274</v>
       </c>
       <c r="J9" t="n">
-        <v>1146.201906442887</v>
+        <v>3877.13124871274</v>
       </c>
       <c r="K9" t="n">
-        <v>1146.201906442887</v>
+        <v>3877.13124871274</v>
       </c>
       <c r="L9" t="n">
-        <v>1146.201906442887</v>
+        <v>3877.13124871274</v>
       </c>
       <c r="M9" t="n">
-        <v>1146.201906442887</v>
+        <v>3877.13124871274</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>37060.53844928483</v>
+        <v>38724.80594628243</v>
       </c>
     </row>
     <row r="10">
@@ -948,40 +948,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42979</v>
+        <v>43132</v>
       </c>
       <c r="C10" t="n">
-        <v>36103.28425203042</v>
+        <v>35127.86824294113</v>
       </c>
       <c r="D10" t="n">
-        <v>33607.568248283</v>
+        <v>28814.68789523229</v>
       </c>
       <c r="E10" t="n">
-        <v>39183.98390410076</v>
+        <v>37683.52726567107</v>
       </c>
       <c r="F10" t="n">
-        <v>36103.28425203042</v>
+        <v>35127.86824294113</v>
       </c>
       <c r="G10" t="n">
-        <v>36103.28425203042</v>
+        <v>35127.86824294113</v>
       </c>
       <c r="H10" t="n">
-        <v>185.3321082356089</v>
+        <v>-1973.744131081181</v>
       </c>
       <c r="I10" t="n">
-        <v>185.3321082356089</v>
+        <v>-1973.744131081181</v>
       </c>
       <c r="J10" t="n">
-        <v>185.3321082356089</v>
+        <v>-1973.744131081181</v>
       </c>
       <c r="K10" t="n">
-        <v>185.3321082356089</v>
+        <v>-1973.744131081181</v>
       </c>
       <c r="L10" t="n">
-        <v>185.3321082356089</v>
+        <v>-1973.744131081181</v>
       </c>
       <c r="M10" t="n">
-        <v>185.3321082356089</v>
+        <v>-1973.744131081181</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>36288.61636026603</v>
+        <v>33154.12411185994</v>
       </c>
     </row>
     <row r="11">
@@ -1001,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43009</v>
+        <v>43160</v>
       </c>
       <c r="C11" t="n">
-        <v>36286.13687382572</v>
+        <v>35380.94628389022</v>
       </c>
       <c r="D11" t="n">
-        <v>35282.38575485742</v>
+        <v>30560.07449055243</v>
       </c>
       <c r="E11" t="n">
-        <v>40936.12352278584</v>
+        <v>38989.23446108493</v>
       </c>
       <c r="F11" t="n">
-        <v>36286.13687382572</v>
+        <v>35380.94628389022</v>
       </c>
       <c r="G11" t="n">
-        <v>36286.13687382572</v>
+        <v>35380.94628389022</v>
       </c>
       <c r="H11" t="n">
-        <v>1839.632972847658</v>
+        <v>-650.5079001734332</v>
       </c>
       <c r="I11" t="n">
-        <v>1839.632972847658</v>
+        <v>-650.5079001734332</v>
       </c>
       <c r="J11" t="n">
-        <v>1839.632972847658</v>
+        <v>-650.5079001734332</v>
       </c>
       <c r="K11" t="n">
-        <v>1839.632972847658</v>
+        <v>-650.5079001734332</v>
       </c>
       <c r="L11" t="n">
-        <v>1839.632972847658</v>
+        <v>-650.5079001734332</v>
       </c>
       <c r="M11" t="n">
-        <v>1839.632972847658</v>
+        <v>-650.5079001734332</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>38125.76984667337</v>
+        <v>34730.43838371678</v>
       </c>
     </row>
     <row r="12">
@@ -1054,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43040</v>
+        <v>43191</v>
       </c>
       <c r="C12" t="n">
-        <v>36475.08458281016</v>
+        <v>35661.01691940747</v>
       </c>
       <c r="D12" t="n">
-        <v>33266.31783018735</v>
+        <v>26643.14254080382</v>
       </c>
       <c r="E12" t="n">
-        <v>38637.46842908279</v>
+        <v>35661.90896658562</v>
       </c>
       <c r="F12" t="n">
-        <v>36475.08458281016</v>
+        <v>35661.01691940747</v>
       </c>
       <c r="G12" t="n">
-        <v>36475.08458281016</v>
+        <v>35661.01691940747</v>
       </c>
       <c r="H12" t="n">
-        <v>-626.0081630689406</v>
+        <v>-4574.039547897926</v>
       </c>
       <c r="I12" t="n">
-        <v>-626.0081630689406</v>
+        <v>-4574.039547897926</v>
       </c>
       <c r="J12" t="n">
-        <v>-626.0081630689406</v>
+        <v>-4574.039547897926</v>
       </c>
       <c r="K12" t="n">
-        <v>-626.0081630689406</v>
+        <v>-4574.039547897926</v>
       </c>
       <c r="L12" t="n">
-        <v>-626.0081630689406</v>
+        <v>-4574.039547897926</v>
       </c>
       <c r="M12" t="n">
-        <v>-626.0081630689406</v>
+        <v>-4574.039547897926</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>35849.07641974122</v>
+        <v>31086.97737150954</v>
       </c>
     </row>
     <row r="13">
@@ -1107,40 +1107,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43070</v>
+        <v>43221</v>
       </c>
       <c r="C13" t="n">
-        <v>36657.93720440802</v>
+        <v>35932.05301829513</v>
       </c>
       <c r="D13" t="n">
-        <v>35541.01070740579</v>
+        <v>27081.67097865045</v>
       </c>
       <c r="E13" t="n">
-        <v>41016.17558516884</v>
+        <v>36252.32518221989</v>
       </c>
       <c r="F13" t="n">
-        <v>36657.93720440802</v>
+        <v>35932.05301829513</v>
       </c>
       <c r="G13" t="n">
-        <v>36657.93720440802</v>
+        <v>35932.05301829513</v>
       </c>
       <c r="H13" t="n">
-        <v>1498.35602802152</v>
+        <v>-4123.586721616314</v>
       </c>
       <c r="I13" t="n">
-        <v>1498.35602802152</v>
+        <v>-4123.586721616314</v>
       </c>
       <c r="J13" t="n">
-        <v>1498.35602802152</v>
+        <v>-4123.586721616314</v>
       </c>
       <c r="K13" t="n">
-        <v>1498.35602802152</v>
+        <v>-4123.586721616314</v>
       </c>
       <c r="L13" t="n">
-        <v>1498.35602802152</v>
+        <v>-4123.586721616314</v>
       </c>
       <c r="M13" t="n">
-        <v>1498.35602802152</v>
+        <v>-4123.586721616314</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38156.29323242953</v>
+        <v>31808.46629667882</v>
       </c>
     </row>
     <row r="14">
@@ -1160,40 +1160,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43101</v>
+        <v>43252</v>
       </c>
       <c r="C14" t="n">
-        <v>36846.8849131715</v>
+        <v>36212.12363274954</v>
       </c>
       <c r="D14" t="n">
-        <v>36640.9674606328</v>
+        <v>24067.71197316052</v>
       </c>
       <c r="E14" t="n">
-        <v>42078.57821954157</v>
+        <v>32918.2286035779</v>
       </c>
       <c r="F14" t="n">
-        <v>36846.8849131715</v>
+        <v>36212.12363274954</v>
       </c>
       <c r="G14" t="n">
-        <v>36846.8849131715</v>
+        <v>36212.12363274954</v>
       </c>
       <c r="H14" t="n">
-        <v>2521.662855194001</v>
+        <v>-7793.840279918002</v>
       </c>
       <c r="I14" t="n">
-        <v>2521.662855194001</v>
+        <v>-7793.840279918002</v>
       </c>
       <c r="J14" t="n">
-        <v>2521.662855194001</v>
+        <v>-7793.840279918002</v>
       </c>
       <c r="K14" t="n">
-        <v>2521.662855194001</v>
+        <v>-7793.840279918002</v>
       </c>
       <c r="L14" t="n">
-        <v>2521.662855194001</v>
+        <v>-7793.840279918002</v>
       </c>
       <c r="M14" t="n">
-        <v>2521.662855194001</v>
+        <v>-7793.840279918002</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>39368.5477683655</v>
+        <v>28418.28335283154</v>
       </c>
     </row>
     <row r="15">
@@ -1213,40 +1213,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43132</v>
+        <v>43282</v>
       </c>
       <c r="C15" t="n">
-        <v>37035.83262217163</v>
+        <v>36483.1597112538</v>
       </c>
       <c r="D15" t="n">
-        <v>31841.60879803495</v>
+        <v>34648.15923494627</v>
       </c>
       <c r="E15" t="n">
-        <v>37270.74450423538</v>
+        <v>43309.56758896371</v>
       </c>
       <c r="F15" t="n">
-        <v>37035.83262217163</v>
+        <v>36483.1597112538</v>
       </c>
       <c r="G15" t="n">
-        <v>37035.83262217163</v>
+        <v>36483.1597112538</v>
       </c>
       <c r="H15" t="n">
-        <v>-2395.261519142187</v>
+        <v>2306.208574754657</v>
       </c>
       <c r="I15" t="n">
-        <v>-2395.261519142187</v>
+        <v>2306.208574754657</v>
       </c>
       <c r="J15" t="n">
-        <v>-2395.261519142187</v>
+        <v>2306.208574754657</v>
       </c>
       <c r="K15" t="n">
-        <v>-2395.261519142187</v>
+        <v>2306.208574754657</v>
       </c>
       <c r="L15" t="n">
-        <v>-2395.261519142187</v>
+        <v>2306.208574754657</v>
       </c>
       <c r="M15" t="n">
-        <v>-2395.261519142187</v>
+        <v>2306.208574754657</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>34640.57110302945</v>
+        <v>38789.36828600846</v>
       </c>
     </row>
     <row r="16">
@@ -1266,40 +1266,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43160</v>
+        <v>43313</v>
       </c>
       <c r="C16" t="n">
-        <v>37206.49506901046</v>
+        <v>36763.2303250867</v>
       </c>
       <c r="D16" t="n">
-        <v>33793.44833596995</v>
+        <v>34513.25682687575</v>
       </c>
       <c r="E16" t="n">
-        <v>39427.75035569493</v>
+        <v>43361.37587975126</v>
       </c>
       <c r="F16" t="n">
-        <v>37206.49506901046</v>
+        <v>36763.2303250867</v>
       </c>
       <c r="G16" t="n">
-        <v>37206.49506901046</v>
+        <v>36763.2303250867</v>
       </c>
       <c r="H16" t="n">
-        <v>-652.2758107629168</v>
+        <v>1843.986752686592</v>
       </c>
       <c r="I16" t="n">
-        <v>-652.2758107629168</v>
+        <v>1843.986752686592</v>
       </c>
       <c r="J16" t="n">
-        <v>-652.2758107629168</v>
+        <v>1843.986752686592</v>
       </c>
       <c r="K16" t="n">
-        <v>-652.2758107629168</v>
+        <v>1843.986752686592</v>
       </c>
       <c r="L16" t="n">
-        <v>-652.2758107629168</v>
+        <v>1843.986752686592</v>
       </c>
       <c r="M16" t="n">
-        <v>-652.2758107629168</v>
+        <v>1843.986752686592</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>36554.21925824754</v>
+        <v>38607.2170777733</v>
       </c>
     </row>
     <row r="17">
@@ -1319,40 +1319,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43191</v>
+        <v>43344</v>
       </c>
       <c r="C17" t="n">
-        <v>37395.44277815871</v>
+        <v>37043.30093891961</v>
       </c>
       <c r="D17" t="n">
-        <v>30382.71384004024</v>
+        <v>31860.83763086581</v>
       </c>
       <c r="E17" t="n">
-        <v>35834.7676124682</v>
+        <v>40553.45212705306</v>
       </c>
       <c r="F17" t="n">
-        <v>37395.44277815871</v>
+        <v>37043.30093891961</v>
       </c>
       <c r="G17" t="n">
-        <v>37395.44277815871</v>
+        <v>37043.30093891961</v>
       </c>
       <c r="H17" t="n">
-        <v>-4192.570151394543</v>
+        <v>-776.1842972629152</v>
       </c>
       <c r="I17" t="n">
-        <v>-4192.570151394543</v>
+        <v>-776.1842972629152</v>
       </c>
       <c r="J17" t="n">
-        <v>-4192.570151394543</v>
+        <v>-776.1842972629152</v>
       </c>
       <c r="K17" t="n">
-        <v>-4192.570151394543</v>
+        <v>-776.1842972629152</v>
       </c>
       <c r="L17" t="n">
-        <v>-4192.570151394543</v>
+        <v>-776.1842972629152</v>
       </c>
       <c r="M17" t="n">
-        <v>-4192.570151394543</v>
+        <v>-776.1842972629152</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>33202.87262676416</v>
+        <v>36267.11664165669</v>
       </c>
     </row>
     <row r="18">
@@ -1372,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43221</v>
+        <v>43374</v>
       </c>
       <c r="C18" t="n">
-        <v>37578.29539991507</v>
+        <v>37314.33690028026</v>
       </c>
       <c r="D18" t="n">
-        <v>30772.24434653512</v>
+        <v>34821.06066115213</v>
       </c>
       <c r="E18" t="n">
-        <v>36036.27922542845</v>
+        <v>43921.93596466473</v>
       </c>
       <c r="F18" t="n">
-        <v>37578.29539991507</v>
+        <v>37314.33690028026</v>
       </c>
       <c r="G18" t="n">
-        <v>37578.29539991507</v>
+        <v>37314.33690028026</v>
       </c>
       <c r="H18" t="n">
-        <v>-4240.822203772216</v>
+        <v>2073.318748698025</v>
       </c>
       <c r="I18" t="n">
-        <v>-4240.822203772216</v>
+        <v>2073.318748698025</v>
       </c>
       <c r="J18" t="n">
-        <v>-4240.822203772216</v>
+        <v>2073.318748698025</v>
       </c>
       <c r="K18" t="n">
-        <v>-4240.822203772216</v>
+        <v>2073.318748698025</v>
       </c>
       <c r="L18" t="n">
-        <v>-4240.822203772216</v>
+        <v>2073.318748698025</v>
       </c>
       <c r="M18" t="n">
-        <v>-4240.822203772216</v>
+        <v>2073.318748698025</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>33337.47319614286</v>
+        <v>39387.65564897829</v>
       </c>
     </row>
     <row r="19">
@@ -1425,40 +1425,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43252</v>
+        <v>43405</v>
       </c>
       <c r="C19" t="n">
-        <v>37767.24310899017</v>
+        <v>37594.40739368628</v>
       </c>
       <c r="D19" t="n">
-        <v>31687.48893525871</v>
+        <v>32643.05647734468</v>
       </c>
       <c r="E19" t="n">
-        <v>37095.66525459284</v>
+        <v>41733.19098104513</v>
       </c>
       <c r="F19" t="n">
-        <v>37767.24310899017</v>
+        <v>37594.40739368628</v>
       </c>
       <c r="G19" t="n">
-        <v>37767.24310899017</v>
+        <v>37594.40739368628</v>
       </c>
       <c r="H19" t="n">
-        <v>-3419.766077353432</v>
+        <v>-462.0751586094813</v>
       </c>
       <c r="I19" t="n">
-        <v>-3419.766077353432</v>
+        <v>-462.0751586094813</v>
       </c>
       <c r="J19" t="n">
-        <v>-3419.766077353432</v>
+        <v>-462.0751586094813</v>
       </c>
       <c r="K19" t="n">
-        <v>-3419.766077353432</v>
+        <v>-462.0751586094813</v>
       </c>
       <c r="L19" t="n">
-        <v>-3419.766077353432</v>
+        <v>-462.0751586094813</v>
       </c>
       <c r="M19" t="n">
-        <v>-3419.766077353432</v>
+        <v>-462.0751586094813</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34347.47703163674</v>
+        <v>37132.33223507679</v>
       </c>
     </row>
     <row r="20">
@@ -1478,40 +1478,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43282</v>
+        <v>43435</v>
       </c>
       <c r="C20" t="n">
-        <v>37950.09573067574</v>
+        <v>37865.4397859075</v>
       </c>
       <c r="D20" t="n">
-        <v>37359.58550504405</v>
+        <v>34615.78422261951</v>
       </c>
       <c r="E20" t="n">
-        <v>42724.92703830395</v>
+        <v>43588.66910352003</v>
       </c>
       <c r="F20" t="n">
-        <v>37950.09573067574</v>
+        <v>37865.4397859075</v>
       </c>
       <c r="G20" t="n">
-        <v>37950.09573067574</v>
+        <v>37865.4397859075</v>
       </c>
       <c r="H20" t="n">
-        <v>2124.88092278486</v>
+        <v>1191.858048326493</v>
       </c>
       <c r="I20" t="n">
-        <v>2124.88092278486</v>
+        <v>1191.858048326493</v>
       </c>
       <c r="J20" t="n">
-        <v>2124.88092278486</v>
+        <v>1191.858048326493</v>
       </c>
       <c r="K20" t="n">
-        <v>2124.88092278486</v>
+        <v>1191.858048326493</v>
       </c>
       <c r="L20" t="n">
-        <v>2124.88092278486</v>
+        <v>1191.858048326493</v>
       </c>
       <c r="M20" t="n">
-        <v>2124.88092278486</v>
+        <v>1191.858048326493</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>40074.9766534606</v>
+        <v>39057.297834234</v>
       </c>
     </row>
     <row r="21">
@@ -1531,40 +1531,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43313</v>
+        <v>43466</v>
       </c>
       <c r="C21" t="n">
-        <v>38139.04343941584</v>
+        <v>38145.50659120277</v>
       </c>
       <c r="D21" t="n">
-        <v>37008.35610572548</v>
+        <v>39125.41601561391</v>
       </c>
       <c r="E21" t="n">
-        <v>42346.41680901512</v>
+        <v>48341.10921362932</v>
       </c>
       <c r="F21" t="n">
-        <v>38139.04343941584</v>
+        <v>38145.50659120277</v>
       </c>
       <c r="G21" t="n">
-        <v>38139.04343941584</v>
+        <v>38145.50659120277</v>
       </c>
       <c r="H21" t="n">
-        <v>1578.57589344151</v>
+        <v>5592.877166073502</v>
       </c>
       <c r="I21" t="n">
-        <v>1578.57589344151</v>
+        <v>5592.877166073502</v>
       </c>
       <c r="J21" t="n">
-        <v>1578.57589344151</v>
+        <v>5592.877166073502</v>
       </c>
       <c r="K21" t="n">
-        <v>1578.57589344151</v>
+        <v>5592.877166073502</v>
       </c>
       <c r="L21" t="n">
-        <v>1578.57589344151</v>
+        <v>5592.877166073502</v>
       </c>
       <c r="M21" t="n">
-        <v>1578.57589344151</v>
+        <v>5592.877166073502</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>39717.61933285735</v>
+        <v>43738.38375727627</v>
       </c>
     </row>
     <row r="22">
@@ -1584,40 +1584,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43344</v>
+        <v>43497</v>
       </c>
       <c r="C22" t="n">
-        <v>38327.99114801716</v>
+        <v>38425.56550241461</v>
       </c>
       <c r="D22" t="n">
-        <v>34481.5959009677</v>
+        <v>32156.21369997812</v>
       </c>
       <c r="E22" t="n">
-        <v>40134.03476864092</v>
+        <v>41070.7591610988</v>
       </c>
       <c r="F22" t="n">
-        <v>38327.99114801716</v>
+        <v>38425.56550241461</v>
       </c>
       <c r="G22" t="n">
-        <v>38327.99114801716</v>
+        <v>38425.56550241461</v>
       </c>
       <c r="H22" t="n">
-        <v>-1122.33787236115</v>
+        <v>-2002.842976140612</v>
       </c>
       <c r="I22" t="n">
-        <v>-1122.33787236115</v>
+        <v>-2002.842976140612</v>
       </c>
       <c r="J22" t="n">
-        <v>-1122.33787236115</v>
+        <v>-2002.842976140612</v>
       </c>
       <c r="K22" t="n">
-        <v>-1122.33787236115</v>
+        <v>-2002.842976140612</v>
       </c>
       <c r="L22" t="n">
-        <v>-1122.33787236115</v>
+        <v>-2002.842976140612</v>
       </c>
       <c r="M22" t="n">
-        <v>-1122.33787236115</v>
+        <v>-2002.842976140612</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37205.65327565601</v>
+        <v>36422.722526274</v>
       </c>
     </row>
     <row r="23">
@@ -1637,40 +1637,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43374</v>
+        <v>43525</v>
       </c>
       <c r="C23" t="n">
-        <v>38510.84376924425</v>
+        <v>38678.52193834788</v>
       </c>
       <c r="D23" t="n">
-        <v>37850.5129500893</v>
+        <v>31259.97380263331</v>
       </c>
       <c r="E23" t="n">
-        <v>43446.92101798507</v>
+        <v>40238.84927026415</v>
       </c>
       <c r="F23" t="n">
-        <v>38510.84376924425</v>
+        <v>38678.52193834788</v>
       </c>
       <c r="G23" t="n">
-        <v>38510.84376924425</v>
+        <v>38678.52193834788</v>
       </c>
       <c r="H23" t="n">
-        <v>2056.283849609462</v>
+        <v>-3026.665452232791</v>
       </c>
       <c r="I23" t="n">
-        <v>2056.283849609462</v>
+        <v>-3026.665452232791</v>
       </c>
       <c r="J23" t="n">
-        <v>2056.283849609462</v>
+        <v>-3026.665452232791</v>
       </c>
       <c r="K23" t="n">
-        <v>2056.283849609462</v>
+        <v>-3026.665452232791</v>
       </c>
       <c r="L23" t="n">
-        <v>2056.283849609462</v>
+        <v>-3026.665452232791</v>
       </c>
       <c r="M23" t="n">
-        <v>2056.283849609462</v>
+        <v>-3026.665452232791</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>40567.12761885372</v>
+        <v>35651.8564861151</v>
       </c>
     </row>
     <row r="24">
@@ -1690,40 +1690,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43405</v>
+        <v>43556</v>
       </c>
       <c r="C24" t="n">
-        <v>38699.79147749425</v>
+        <v>38958.31625034331</v>
       </c>
       <c r="D24" t="n">
-        <v>34374.78673227828</v>
+        <v>30493.79133137271</v>
       </c>
       <c r="E24" t="n">
-        <v>40249.10770111874</v>
+        <v>39603.927539684</v>
       </c>
       <c r="F24" t="n">
-        <v>38699.79147749425</v>
+        <v>38958.31625034331</v>
       </c>
       <c r="G24" t="n">
-        <v>38699.79147749425</v>
+        <v>38958.31625034331</v>
       </c>
       <c r="H24" t="n">
-        <v>-1449.211963039586</v>
+        <v>-3923.466590726328</v>
       </c>
       <c r="I24" t="n">
-        <v>-1449.211963039586</v>
+        <v>-3923.466590726328</v>
       </c>
       <c r="J24" t="n">
-        <v>-1449.211963039586</v>
+        <v>-3923.466590726328</v>
       </c>
       <c r="K24" t="n">
-        <v>-1449.211963039586</v>
+        <v>-3923.466590726328</v>
       </c>
       <c r="L24" t="n">
-        <v>-1449.211963039586</v>
+        <v>-3923.466590726328</v>
       </c>
       <c r="M24" t="n">
-        <v>-1449.211963039586</v>
+        <v>-3923.466590726328</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>37250.57951445466</v>
+        <v>35034.84965961698</v>
       </c>
     </row>
     <row r="25">
@@ -1743,40 +1743,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43435</v>
+        <v>43586</v>
       </c>
       <c r="C25" t="n">
-        <v>38882.64409838134</v>
+        <v>39229.08493937113</v>
       </c>
       <c r="D25" t="n">
-        <v>36529.19149516857</v>
+        <v>32209.39133305661</v>
       </c>
       <c r="E25" t="n">
-        <v>41925.37951919621</v>
+        <v>40532.68415684508</v>
       </c>
       <c r="F25" t="n">
-        <v>38882.64409838134</v>
+        <v>39229.08493937113</v>
       </c>
       <c r="G25" t="n">
-        <v>38882.64409838134</v>
+        <v>39229.08493937113</v>
       </c>
       <c r="H25" t="n">
-        <v>355.2249270180573</v>
+        <v>-3012.837841109334</v>
       </c>
       <c r="I25" t="n">
-        <v>355.2249270180573</v>
+        <v>-3012.837841109334</v>
       </c>
       <c r="J25" t="n">
-        <v>355.2249270180573</v>
+        <v>-3012.837841109334</v>
       </c>
       <c r="K25" t="n">
-        <v>355.2249270180573</v>
+        <v>-3012.837841109334</v>
       </c>
       <c r="L25" t="n">
-        <v>355.2249270180573</v>
+        <v>-3012.837841109334</v>
       </c>
       <c r="M25" t="n">
-        <v>355.2249270180573</v>
+        <v>-3012.837841109334</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>39237.8690253994</v>
+        <v>36216.24709826179</v>
       </c>
     </row>
     <row r="26">
@@ -1796,40 +1796,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43466</v>
+        <v>43617</v>
       </c>
       <c r="C26" t="n">
-        <v>39071.5918062772</v>
+        <v>39508.14656454391</v>
       </c>
       <c r="D26" t="n">
-        <v>41390.50339836258</v>
+        <v>27899.47396063406</v>
       </c>
       <c r="E26" t="n">
-        <v>46877.25100185552</v>
+        <v>37022.93911342058</v>
       </c>
       <c r="F26" t="n">
-        <v>39071.5918062772</v>
+        <v>39508.14656454391</v>
       </c>
       <c r="G26" t="n">
-        <v>39071.5918062772</v>
+        <v>39508.14656454391</v>
       </c>
       <c r="H26" t="n">
-        <v>5227.403955552131</v>
+        <v>-6813.685767214152</v>
       </c>
       <c r="I26" t="n">
-        <v>5227.403955552131</v>
+        <v>-6813.685767214152</v>
       </c>
       <c r="J26" t="n">
-        <v>5227.403955552131</v>
+        <v>-6813.685767214152</v>
       </c>
       <c r="K26" t="n">
-        <v>5227.403955552131</v>
+        <v>-6813.685767214152</v>
       </c>
       <c r="L26" t="n">
-        <v>5227.403955552131</v>
+        <v>-6813.685767214152</v>
       </c>
       <c r="M26" t="n">
-        <v>5227.403955552131</v>
+        <v>-6813.685767214152</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>44298.99576182933</v>
+        <v>32694.46079732976</v>
       </c>
     </row>
     <row r="27">
@@ -1849,40 +1849,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43497</v>
+        <v>43647</v>
       </c>
       <c r="C27" t="n">
-        <v>39260.53951417307</v>
+        <v>39777.93369411411</v>
       </c>
       <c r="D27" t="n">
-        <v>34747.15790108224</v>
+        <v>36698.40889598886</v>
       </c>
       <c r="E27" t="n">
-        <v>39953.20978707675</v>
+        <v>45853.57283722515</v>
       </c>
       <c r="F27" t="n">
-        <v>39260.53951417307</v>
+        <v>39777.93369411411</v>
       </c>
       <c r="G27" t="n">
-        <v>39260.53951417307</v>
+        <v>39777.93369411411</v>
       </c>
       <c r="H27" t="n">
-        <v>-1810.927809371241</v>
+        <v>1531.870714891623</v>
       </c>
       <c r="I27" t="n">
-        <v>-1810.927809371241</v>
+        <v>1531.870714891623</v>
       </c>
       <c r="J27" t="n">
-        <v>-1810.927809371241</v>
+        <v>1531.870714891623</v>
       </c>
       <c r="K27" t="n">
-        <v>-1810.927809371241</v>
+        <v>1531.870714891623</v>
       </c>
       <c r="L27" t="n">
-        <v>-1810.927809371241</v>
+        <v>1531.870714891623</v>
       </c>
       <c r="M27" t="n">
-        <v>-1810.927809371241</v>
+        <v>1531.870714891623</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>37449.61170480183</v>
+        <v>41309.80440900573</v>
       </c>
     </row>
     <row r="28">
@@ -1902,40 +1902,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43525</v>
+        <v>43678</v>
       </c>
       <c r="C28" t="n">
-        <v>39431.2019430388</v>
+        <v>40056.71372800331</v>
       </c>
       <c r="D28" t="n">
-        <v>33714.11647105622</v>
+        <v>36978.64031939102</v>
       </c>
       <c r="E28" t="n">
-        <v>39636.0695010347</v>
+        <v>46007.09221095882</v>
       </c>
       <c r="F28" t="n">
-        <v>39431.2019430388</v>
+        <v>40056.71372800331</v>
       </c>
       <c r="G28" t="n">
-        <v>39431.2019430388</v>
+        <v>40056.71372800331</v>
       </c>
       <c r="H28" t="n">
-        <v>-2861.156373651599</v>
+        <v>1480.722396737498</v>
       </c>
       <c r="I28" t="n">
-        <v>-2861.156373651599</v>
+        <v>1480.722396737498</v>
       </c>
       <c r="J28" t="n">
-        <v>-2861.156373651599</v>
+        <v>1480.722396737498</v>
       </c>
       <c r="K28" t="n">
-        <v>-2861.156373651599</v>
+        <v>1480.722396737498</v>
       </c>
       <c r="L28" t="n">
-        <v>-2861.156373651599</v>
+        <v>1480.722396737498</v>
       </c>
       <c r="M28" t="n">
-        <v>-2861.156373651599</v>
+        <v>1480.722396737498</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36570.04556938721</v>
+        <v>41537.43612474081</v>
       </c>
     </row>
     <row r="29">
@@ -1955,40 +1955,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43556</v>
+        <v>43709</v>
       </c>
       <c r="C29" t="n">
-        <v>39620.00299155107</v>
+        <v>40201.1900889559</v>
       </c>
       <c r="D29" t="n">
-        <v>34103.61971377341</v>
+        <v>33625.97757184761</v>
       </c>
       <c r="E29" t="n">
-        <v>39746.23377747285</v>
+        <v>42518.80107238044</v>
       </c>
       <c r="F29" t="n">
-        <v>39620.00299155107</v>
+        <v>40201.1900889559</v>
       </c>
       <c r="G29" t="n">
-        <v>39620.00299155107</v>
+        <v>40201.1900889559</v>
       </c>
       <c r="H29" t="n">
-        <v>-2675.026213882643</v>
+        <v>-1943.275543279378</v>
       </c>
       <c r="I29" t="n">
-        <v>-2675.026213882643</v>
+        <v>-1943.275543279378</v>
       </c>
       <c r="J29" t="n">
-        <v>-2675.026213882643</v>
+        <v>-1943.275543279378</v>
       </c>
       <c r="K29" t="n">
-        <v>-2675.026213882643</v>
+        <v>-1943.275543279378</v>
       </c>
       <c r="L29" t="n">
-        <v>-2675.026213882643</v>
+        <v>-1943.275543279378</v>
       </c>
       <c r="M29" t="n">
-        <v>-2675.026213882643</v>
+        <v>-1943.275543279378</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>36944.97677766842</v>
+        <v>38257.91454567653</v>
       </c>
     </row>
     <row r="30">
@@ -2008,40 +2008,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43586</v>
+        <v>43739</v>
       </c>
       <c r="C30" t="n">
-        <v>39802.71368365971</v>
+        <v>40341.00592213583</v>
       </c>
       <c r="D30" t="n">
-        <v>32205.64519656977</v>
+        <v>38630.17207995662</v>
       </c>
       <c r="E30" t="n">
-        <v>37802.95717672419</v>
+        <v>47475.96036074663</v>
       </c>
       <c r="F30" t="n">
-        <v>39802.71368365971</v>
+        <v>40341.00592213583</v>
       </c>
       <c r="G30" t="n">
-        <v>39802.71368365971</v>
+        <v>40341.00592213583</v>
       </c>
       <c r="H30" t="n">
-        <v>-4717.724447426628</v>
+        <v>3001.435875358839</v>
       </c>
       <c r="I30" t="n">
-        <v>-4717.724447426628</v>
+        <v>3001.435875358839</v>
       </c>
       <c r="J30" t="n">
-        <v>-4717.724447426628</v>
+        <v>3001.435875358839</v>
       </c>
       <c r="K30" t="n">
-        <v>-4717.724447426628</v>
+        <v>3001.435875358839</v>
       </c>
       <c r="L30" t="n">
-        <v>-4717.724447426628</v>
+        <v>3001.435875358839</v>
       </c>
       <c r="M30" t="n">
-        <v>-4717.724447426628</v>
+        <v>3001.435875358839</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>35084.98923623309</v>
+        <v>43342.44179749467</v>
       </c>
     </row>
     <row r="31">
@@ -2061,40 +2061,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43617</v>
+        <v>43770</v>
       </c>
       <c r="C31" t="n">
-        <v>39991.48397684904</v>
+        <v>40484.76907534535</v>
       </c>
       <c r="D31" t="n">
-        <v>31156.57361968605</v>
+        <v>35729.76342323636</v>
       </c>
       <c r="E31" t="n">
-        <v>36726.21874604477</v>
+        <v>44550.74104890107</v>
       </c>
       <c r="F31" t="n">
-        <v>39991.48397684904</v>
+        <v>40484.76907534535</v>
       </c>
       <c r="G31" t="n">
-        <v>39991.48397684904</v>
+        <v>40484.76907534535</v>
       </c>
       <c r="H31" t="n">
-        <v>-5914.036515283056</v>
+        <v>-433.1442413677823</v>
       </c>
       <c r="I31" t="n">
-        <v>-5914.036515283056</v>
+        <v>-433.1442413677823</v>
       </c>
       <c r="J31" t="n">
-        <v>-5914.036515283056</v>
+        <v>-433.1442413677823</v>
       </c>
       <c r="K31" t="n">
-        <v>-5914.036515283056</v>
+        <v>-433.1442413677823</v>
       </c>
       <c r="L31" t="n">
-        <v>-5914.036515283056</v>
+        <v>-433.1442413677823</v>
       </c>
       <c r="M31" t="n">
-        <v>-5914.036515283056</v>
+        <v>-433.1442413677823</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>34077.44746156599</v>
+        <v>40051.62483397757</v>
       </c>
     </row>
     <row r="32">
@@ -2114,40 +2114,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43647</v>
+        <v>43800</v>
       </c>
       <c r="C32" t="n">
-        <v>40174.16490574195</v>
+        <v>40623.8947074836</v>
       </c>
       <c r="D32" t="n">
-        <v>42698.42599604253</v>
+        <v>37248.13081141139</v>
       </c>
       <c r="E32" t="n">
-        <v>48337.44377351646</v>
+        <v>45983.7170219043</v>
       </c>
       <c r="F32" t="n">
-        <v>40174.16490574195</v>
+        <v>40623.8947074836</v>
       </c>
       <c r="G32" t="n">
-        <v>40174.16490574195</v>
+        <v>40623.8947074836</v>
       </c>
       <c r="H32" t="n">
-        <v>5483.571437243296</v>
+        <v>874.7724860703112</v>
       </c>
       <c r="I32" t="n">
-        <v>5483.571437243296</v>
+        <v>874.7724860703112</v>
       </c>
       <c r="J32" t="n">
-        <v>5483.571437243296</v>
+        <v>874.7724860703112</v>
       </c>
       <c r="K32" t="n">
-        <v>5483.571437243296</v>
+        <v>874.7724860703112</v>
       </c>
       <c r="L32" t="n">
-        <v>5483.571437243296</v>
+        <v>874.7724860703112</v>
       </c>
       <c r="M32" t="n">
-        <v>5483.571437243296</v>
+        <v>874.7724860703112</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>45657.73634298524</v>
+        <v>41498.66719355391</v>
       </c>
     </row>
     <row r="33">
@@ -2167,40 +2167,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43678</v>
+        <v>43831</v>
       </c>
       <c r="C33" t="n">
-        <v>40362.43575977576</v>
+        <v>40767.00219914072</v>
       </c>
       <c r="D33" t="n">
-        <v>39525.87757470283</v>
+        <v>43825.196625381</v>
       </c>
       <c r="E33" t="n">
-        <v>45194.63779473329</v>
+        <v>52880.11927989458</v>
       </c>
       <c r="F33" t="n">
-        <v>40362.43575977576</v>
+        <v>40767.00219914072</v>
       </c>
       <c r="G33" t="n">
-        <v>40362.43575977576</v>
+        <v>40767.00219914072</v>
       </c>
       <c r="H33" t="n">
-        <v>1952.691645381006</v>
+        <v>7296.042300601345</v>
       </c>
       <c r="I33" t="n">
-        <v>1952.691645381006</v>
+        <v>7296.042300601345</v>
       </c>
       <c r="J33" t="n">
-        <v>1952.691645381006</v>
+        <v>7296.042300601345</v>
       </c>
       <c r="K33" t="n">
-        <v>1952.691645381006</v>
+        <v>7296.042300601345</v>
       </c>
       <c r="L33" t="n">
-        <v>1952.691645381006</v>
+        <v>7296.042300601345</v>
       </c>
       <c r="M33" t="n">
-        <v>1952.691645381006</v>
+        <v>7296.042300601345</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>42315.12740515677</v>
+        <v>48063.04449974206</v>
       </c>
     </row>
     <row r="34">
@@ -2220,40 +2220,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43709</v>
+        <v>43862</v>
       </c>
       <c r="C34" t="n">
-        <v>40550.70661380957</v>
+        <v>40910.10969079783</v>
       </c>
       <c r="D34" t="n">
-        <v>35232.43824162846</v>
+        <v>34237.23730538387</v>
       </c>
       <c r="E34" t="n">
-        <v>40889.97269897679</v>
+        <v>43249.13486973077</v>
       </c>
       <c r="F34" t="n">
-        <v>40550.70661380957</v>
+        <v>40910.10969079783</v>
       </c>
       <c r="G34" t="n">
-        <v>40550.70661380957</v>
+        <v>40910.10969079783</v>
       </c>
       <c r="H34" t="n">
-        <v>-2451.705055535889</v>
+        <v>-2084.797910568559</v>
       </c>
       <c r="I34" t="n">
-        <v>-2451.705055535889</v>
+        <v>-2084.797910568559</v>
       </c>
       <c r="J34" t="n">
-        <v>-2451.705055535889</v>
+        <v>-2084.797910568559</v>
       </c>
       <c r="K34" t="n">
-        <v>-2451.705055535889</v>
+        <v>-2084.797910568559</v>
       </c>
       <c r="L34" t="n">
-        <v>-2451.705055535889</v>
+        <v>-2084.797910568559</v>
       </c>
       <c r="M34" t="n">
-        <v>-2451.705055535889</v>
+        <v>-2084.797910568559</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38099.00155827368</v>
+        <v>38825.31178022927</v>
       </c>
     </row>
     <row r="35">
@@ -2273,40 +2273,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43739</v>
+        <v>43891</v>
       </c>
       <c r="C35" t="n">
-        <v>40732.4964687744</v>
+        <v>41043.71581165269</v>
       </c>
       <c r="D35" t="n">
-        <v>40127.34604455547</v>
+        <v>40709.27863034531</v>
       </c>
       <c r="E35" t="n">
-        <v>45890.38001376448</v>
+        <v>49504.04052733823</v>
       </c>
       <c r="F35" t="n">
-        <v>40732.4964687744</v>
+        <v>41043.71581165269</v>
       </c>
       <c r="G35" t="n">
-        <v>40732.4964687744</v>
+        <v>41043.71581165269</v>
       </c>
       <c r="H35" t="n">
-        <v>2271.259607892844</v>
+        <v>4151.723982301818</v>
       </c>
       <c r="I35" t="n">
-        <v>2271.259607892844</v>
+        <v>4151.723982301818</v>
       </c>
       <c r="J35" t="n">
-        <v>2271.259607892844</v>
+        <v>4151.723982301818</v>
       </c>
       <c r="K35" t="n">
-        <v>2271.259607892844</v>
+        <v>4151.723982301818</v>
       </c>
       <c r="L35" t="n">
-        <v>2271.259607892844</v>
+        <v>4151.723982301818</v>
       </c>
       <c r="M35" t="n">
-        <v>2271.259607892844</v>
+        <v>4151.723982301818</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>43003.75607666725</v>
+        <v>45195.43979395451</v>
       </c>
     </row>
     <row r="36">
@@ -2326,40 +2326,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43770</v>
+        <v>43922</v>
       </c>
       <c r="C36" t="n">
-        <v>40825.03019365421</v>
+        <v>41186.53614773892</v>
       </c>
       <c r="D36" t="n">
-        <v>35692.03131540152</v>
+        <v>31226.31355034015</v>
       </c>
       <c r="E36" t="n">
-        <v>41286.63019998721</v>
+        <v>39722.23147381243</v>
       </c>
       <c r="F36" t="n">
-        <v>40825.03019365421</v>
+        <v>41186.53614773892</v>
       </c>
       <c r="G36" t="n">
-        <v>40825.03019365421</v>
+        <v>41186.53614773892</v>
       </c>
       <c r="H36" t="n">
-        <v>-2273.202072661084</v>
+        <v>-5705.430806707765</v>
       </c>
       <c r="I36" t="n">
-        <v>-2273.202072661084</v>
+        <v>-5705.430806707765</v>
       </c>
       <c r="J36" t="n">
-        <v>-2273.202072661084</v>
+        <v>-5705.430806707765</v>
       </c>
       <c r="K36" t="n">
-        <v>-2273.202072661084</v>
+        <v>-5705.430806707765</v>
       </c>
       <c r="L36" t="n">
-        <v>-2273.202072661084</v>
+        <v>-5705.430806707765</v>
       </c>
       <c r="M36" t="n">
-        <v>-2273.202072661084</v>
+        <v>-5705.430806707765</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>38551.82812099312</v>
+        <v>35481.10534103115</v>
       </c>
     </row>
     <row r="37">
@@ -2379,40 +2379,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43800</v>
+        <v>43952</v>
       </c>
       <c r="C37" t="n">
-        <v>40914.57895966692</v>
+        <v>41324.74748200346</v>
       </c>
       <c r="D37" t="n">
-        <v>37581.07668964699</v>
+        <v>30689.47666912844</v>
       </c>
       <c r="E37" t="n">
-        <v>43197.05363053009</v>
+        <v>39548.98338025319</v>
       </c>
       <c r="F37" t="n">
-        <v>40914.57895966692</v>
+        <v>41324.74748200346</v>
       </c>
       <c r="G37" t="n">
-        <v>40914.57895966692</v>
+        <v>41324.74748200346</v>
       </c>
       <c r="H37" t="n">
-        <v>-734.1998641255981</v>
+        <v>-6309.005540395756</v>
       </c>
       <c r="I37" t="n">
-        <v>-734.1998641255981</v>
+        <v>-6309.005540395756</v>
       </c>
       <c r="J37" t="n">
-        <v>-734.1998641255981</v>
+        <v>-6309.005540395756</v>
       </c>
       <c r="K37" t="n">
-        <v>-734.1998641255981</v>
+        <v>-6309.005540395756</v>
       </c>
       <c r="L37" t="n">
-        <v>-734.1998641255981</v>
+        <v>-6309.005540395756</v>
       </c>
       <c r="M37" t="n">
-        <v>-734.1998641255981</v>
+        <v>-6309.005540395756</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40180.37909554132</v>
+        <v>35015.7419416077</v>
       </c>
     </row>
     <row r="38">
@@ -2432,40 +2432,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43831</v>
+        <v>43983</v>
       </c>
       <c r="C38" t="n">
-        <v>41007.0902795933</v>
+        <v>41467.56586074349</v>
       </c>
       <c r="D38" t="n">
-        <v>46114.65075094903</v>
+        <v>27227.98556435573</v>
       </c>
       <c r="E38" t="n">
-        <v>51624.66816465381</v>
+        <v>36194.5808713093</v>
       </c>
       <c r="F38" t="n">
-        <v>41007.0902795933</v>
+        <v>41467.56586074349</v>
       </c>
       <c r="G38" t="n">
-        <v>41007.0902795933</v>
+        <v>41467.56586074349</v>
       </c>
       <c r="H38" t="n">
-        <v>7951.903077408679</v>
+        <v>-9829.49627877196</v>
       </c>
       <c r="I38" t="n">
-        <v>7951.903077408679</v>
+        <v>-9829.49627877196</v>
       </c>
       <c r="J38" t="n">
-        <v>7951.903077408679</v>
+        <v>-9829.49627877196</v>
       </c>
       <c r="K38" t="n">
-        <v>7951.903077408679</v>
+        <v>-9829.49627877196</v>
       </c>
       <c r="L38" t="n">
-        <v>7951.903077408679</v>
+        <v>-9829.49627877196</v>
       </c>
       <c r="M38" t="n">
-        <v>7951.903077408679</v>
+        <v>-9829.49627877196</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>48958.99335700198</v>
+        <v>31638.06958197153</v>
       </c>
     </row>
     <row r="39">
@@ -2485,40 +2485,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="C39" t="n">
-        <v>41099.60159951969</v>
+        <v>41605.69672902854</v>
       </c>
       <c r="D39" t="n">
-        <v>37014.55782686628</v>
+        <v>40999.97235522358</v>
       </c>
       <c r="E39" t="n">
-        <v>42653.06010576674</v>
+        <v>49658.60417569629</v>
       </c>
       <c r="F39" t="n">
-        <v>41099.60159951969</v>
+        <v>41605.69672902854</v>
       </c>
       <c r="G39" t="n">
-        <v>41099.60159951969</v>
+        <v>41605.69672902854</v>
       </c>
       <c r="H39" t="n">
-        <v>-1280.742652517913</v>
+        <v>3758.10624778883</v>
       </c>
       <c r="I39" t="n">
-        <v>-1280.742652517913</v>
+        <v>3758.10624778883</v>
       </c>
       <c r="J39" t="n">
-        <v>-1280.742652517913</v>
+        <v>3758.10624778883</v>
       </c>
       <c r="K39" t="n">
-        <v>-1280.742652517913</v>
+        <v>3758.10624778883</v>
       </c>
       <c r="L39" t="n">
-        <v>-1280.742652517913</v>
+        <v>3758.10624778883</v>
       </c>
       <c r="M39" t="n">
-        <v>-1280.742652517913</v>
+        <v>3758.10624778883</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>39818.85894700178</v>
+        <v>45363.80297681737</v>
       </c>
     </row>
     <row r="40">
@@ -2538,40 +2538,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43891</v>
+        <v>44044</v>
       </c>
       <c r="C40" t="n">
-        <v>41185.83883208923</v>
+        <v>41748.43195958975</v>
       </c>
       <c r="D40" t="n">
-        <v>42196.95753696333</v>
+        <v>39857.97440350004</v>
       </c>
       <c r="E40" t="n">
-        <v>47624.69618955984</v>
+        <v>48785.95734058335</v>
       </c>
       <c r="F40" t="n">
-        <v>41185.83883208923</v>
+        <v>41748.43195958975</v>
       </c>
       <c r="G40" t="n">
-        <v>41185.83883208923</v>
+        <v>41748.43195958975</v>
       </c>
       <c r="H40" t="n">
-        <v>3776.29088192205</v>
+        <v>2537.550835020545</v>
       </c>
       <c r="I40" t="n">
-        <v>3776.29088192205</v>
+        <v>2537.550835020545</v>
       </c>
       <c r="J40" t="n">
-        <v>3776.29088192205</v>
+        <v>2537.550835020545</v>
       </c>
       <c r="K40" t="n">
-        <v>3776.29088192205</v>
+        <v>2537.550835020545</v>
       </c>
       <c r="L40" t="n">
-        <v>3776.29088192205</v>
+        <v>2537.550835020545</v>
       </c>
       <c r="M40" t="n">
-        <v>3776.29088192205</v>
+        <v>2537.550835020545</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>44962.12971401128</v>
+        <v>44285.9827946103</v>
       </c>
     </row>
     <row r="41">
@@ -2591,40 +2591,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43922</v>
+        <v>44075</v>
       </c>
       <c r="C41" t="n">
-        <v>41278.02346000841</v>
+        <v>41891.16718195387</v>
       </c>
       <c r="D41" t="n">
-        <v>31306.44480857781</v>
+        <v>38935.1739528584</v>
       </c>
       <c r="E41" t="n">
-        <v>36812.6301998499</v>
+        <v>47768.26895919998</v>
       </c>
       <c r="F41" t="n">
-        <v>41278.02346000841</v>
+        <v>41891.16718195387</v>
       </c>
       <c r="G41" t="n">
-        <v>41278.02346000841</v>
+        <v>41891.16718195387</v>
       </c>
       <c r="H41" t="n">
-        <v>-7178.729298004244</v>
+        <v>1616.193612606897</v>
       </c>
       <c r="I41" t="n">
-        <v>-7178.729298004244</v>
+        <v>1616.193612606897</v>
       </c>
       <c r="J41" t="n">
-        <v>-7178.729298004244</v>
+        <v>1616.193612606897</v>
       </c>
       <c r="K41" t="n">
-        <v>-7178.729298004244</v>
+        <v>1616.193612606897</v>
       </c>
       <c r="L41" t="n">
-        <v>-7178.729298004244</v>
+        <v>1616.193612606897</v>
       </c>
       <c r="M41" t="n">
-        <v>-7178.729298004244</v>
+        <v>1616.193612606897</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>34099.29416200417</v>
+        <v>43507.36079456077</v>
       </c>
     </row>
     <row r="42">
@@ -2644,40 +2644,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43952</v>
+        <v>44105</v>
       </c>
       <c r="C42" t="n">
-        <v>41367.23439025277</v>
+        <v>42029.29782357116</v>
       </c>
       <c r="D42" t="n">
-        <v>35255.06043986989</v>
+        <v>37642.89549585453</v>
       </c>
       <c r="E42" t="n">
-        <v>40820.97657429997</v>
+        <v>46563.28690587959</v>
       </c>
       <c r="F42" t="n">
-        <v>41367.23439025277</v>
+        <v>42029.29782357116</v>
       </c>
       <c r="G42" t="n">
-        <v>41367.23439025277</v>
+        <v>42029.29782357116</v>
       </c>
       <c r="H42" t="n">
-        <v>-3375.957055696732</v>
+        <v>279.3546235848791</v>
       </c>
       <c r="I42" t="n">
-        <v>-3375.957055696732</v>
+        <v>279.3546235848791</v>
       </c>
       <c r="J42" t="n">
-        <v>-3375.957055696732</v>
+        <v>279.3546235848791</v>
       </c>
       <c r="K42" t="n">
-        <v>-3375.957055696732</v>
+        <v>279.3546235848791</v>
       </c>
       <c r="L42" t="n">
-        <v>-3375.957055696732</v>
+        <v>279.3546235848791</v>
       </c>
       <c r="M42" t="n">
-        <v>-3375.957055696732</v>
+        <v>279.3546235848791</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>37991.27733455604</v>
+        <v>42308.65244715603</v>
       </c>
     </row>
     <row r="43">
@@ -2697,40 +2697,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C43" t="n">
-        <v>41459.41901817194</v>
+        <v>42172.03281990903</v>
       </c>
       <c r="D43" t="n">
-        <v>40271.9625391448</v>
+        <v>37012.69891632014</v>
       </c>
       <c r="E43" t="n">
-        <v>45942.32143192046</v>
+        <v>46181.7446046913</v>
       </c>
       <c r="F43" t="n">
-        <v>41459.41901817194</v>
+        <v>42172.03281990903</v>
       </c>
       <c r="G43" t="n">
-        <v>41459.41901817194</v>
+        <v>42172.03281990903</v>
       </c>
       <c r="H43" t="n">
-        <v>1718.696873869583</v>
+        <v>-526.5045050696364</v>
       </c>
       <c r="I43" t="n">
-        <v>1718.696873869583</v>
+        <v>-526.5045050696364</v>
       </c>
       <c r="J43" t="n">
-        <v>1718.696873869583</v>
+        <v>-526.5045050696364</v>
       </c>
       <c r="K43" t="n">
-        <v>1718.696873869583</v>
+        <v>-526.5045050696364</v>
       </c>
       <c r="L43" t="n">
-        <v>1718.696873869583</v>
+        <v>-526.5045050696364</v>
       </c>
       <c r="M43" t="n">
-        <v>1718.696873869583</v>
+        <v>-526.5045050696364</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>43178.11589204152</v>
+        <v>41645.52831483939</v>
       </c>
     </row>
     <row r="44">
@@ -2750,40 +2750,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44013</v>
+        <v>44166</v>
       </c>
       <c r="C44" t="n">
-        <v>41548.6299484163</v>
+        <v>42310.16346133199</v>
       </c>
       <c r="D44" t="n">
-        <v>34056.6555152422</v>
+        <v>39835.11807862898</v>
       </c>
       <c r="E44" t="n">
-        <v>39822.96985471323</v>
+        <v>48820.43235727572</v>
       </c>
       <c r="F44" t="n">
-        <v>41548.6299484163</v>
+        <v>42310.16346133199</v>
       </c>
       <c r="G44" t="n">
-        <v>41548.6299484163</v>
+        <v>42310.16346133199</v>
       </c>
       <c r="H44" t="n">
-        <v>-4496.59087823512</v>
+        <v>1876.631997661443</v>
       </c>
       <c r="I44" t="n">
-        <v>-4496.59087823512</v>
+        <v>1876.631997661443</v>
       </c>
       <c r="J44" t="n">
-        <v>-4496.59087823512</v>
+        <v>1876.631997661443</v>
       </c>
       <c r="K44" t="n">
-        <v>-4496.59087823512</v>
+        <v>1876.631997661443</v>
       </c>
       <c r="L44" t="n">
-        <v>-4496.59087823512</v>
+        <v>1876.631997661443</v>
       </c>
       <c r="M44" t="n">
-        <v>-4496.59087823512</v>
+        <v>1876.631997661443</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>37052.03907018118</v>
+        <v>44186.79545899344</v>
       </c>
     </row>
     <row r="45">
@@ -2803,40 +2803,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44044</v>
+        <v>44197</v>
       </c>
       <c r="C45" t="n">
-        <v>41640.81457633548</v>
+        <v>42452.89845746905</v>
       </c>
       <c r="D45" t="n">
-        <v>39504.08196953253</v>
+        <v>40192.02926329806</v>
       </c>
       <c r="E45" t="n">
-        <v>45082.20127968172</v>
+        <v>49108.01581649779</v>
       </c>
       <c r="F45" t="n">
-        <v>41640.81457633548</v>
+        <v>42452.89845746905</v>
       </c>
       <c r="G45" t="n">
-        <v>41640.81457633548</v>
+        <v>42452.89845746905</v>
       </c>
       <c r="H45" t="n">
-        <v>656.6702628509252</v>
+        <v>2150.671035841026</v>
       </c>
       <c r="I45" t="n">
-        <v>656.6702628509252</v>
+        <v>2150.671035841026</v>
       </c>
       <c r="J45" t="n">
-        <v>656.6702628509252</v>
+        <v>2150.671035841026</v>
       </c>
       <c r="K45" t="n">
-        <v>656.6702628509252</v>
+        <v>2150.671035841026</v>
       </c>
       <c r="L45" t="n">
-        <v>656.6702628509252</v>
+        <v>2150.671035841026</v>
       </c>
       <c r="M45" t="n">
-        <v>656.6702628509252</v>
+        <v>2150.671035841026</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>42297.4848391864</v>
+        <v>44603.56949331008</v>
       </c>
     </row>
     <row r="46">
@@ -2856,40 +2856,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44075</v>
+        <v>44228</v>
       </c>
       <c r="C46" t="n">
-        <v>41732.99920425465</v>
+        <v>42595.63345333966</v>
       </c>
       <c r="D46" t="n">
-        <v>40443.28281280407</v>
+        <v>36286.09454682796</v>
       </c>
       <c r="E46" t="n">
-        <v>46030.84869020718</v>
+        <v>44989.4091799639</v>
       </c>
       <c r="F46" t="n">
-        <v>41732.99920425465</v>
+        <v>42595.63345333966</v>
       </c>
       <c r="G46" t="n">
-        <v>41732.99920425465</v>
+        <v>42595.63345333966</v>
       </c>
       <c r="H46" t="n">
-        <v>1470.020837413246</v>
+        <v>-1997.652903798572</v>
       </c>
       <c r="I46" t="n">
-        <v>1470.020837413246</v>
+        <v>-1997.652903798572</v>
       </c>
       <c r="J46" t="n">
-        <v>1470.020837413246</v>
+        <v>-1997.652903798572</v>
       </c>
       <c r="K46" t="n">
-        <v>1470.020837413246</v>
+        <v>-1997.652903798572</v>
       </c>
       <c r="L46" t="n">
-        <v>1470.020837413246</v>
+        <v>-1997.652903798572</v>
       </c>
       <c r="M46" t="n">
-        <v>1470.020837413246</v>
+        <v>-1997.652903798572</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>43203.0200416679</v>
+        <v>40597.98054954108</v>
       </c>
     </row>
     <row r="47">
@@ -2909,40 +2909,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44105</v>
+        <v>44256</v>
       </c>
       <c r="C47" t="n">
-        <v>41822.21013449902</v>
+        <v>42724.55538509375</v>
       </c>
       <c r="D47" t="n">
-        <v>40453.95511611045</v>
+        <v>40068.53663052846</v>
       </c>
       <c r="E47" t="n">
-        <v>46106.82158030505</v>
+        <v>49146.19847963446</v>
       </c>
       <c r="F47" t="n">
-        <v>41822.21013449902</v>
+        <v>42724.55538509375</v>
       </c>
       <c r="G47" t="n">
-        <v>41822.21013449902</v>
+        <v>42724.55538509375</v>
       </c>
       <c r="H47" t="n">
-        <v>1620.842689140508</v>
+        <v>1743.229426786808</v>
       </c>
       <c r="I47" t="n">
-        <v>1620.842689140508</v>
+        <v>1743.229426786808</v>
       </c>
       <c r="J47" t="n">
-        <v>1620.842689140508</v>
+        <v>1743.229426786808</v>
       </c>
       <c r="K47" t="n">
-        <v>1620.842689140508</v>
+        <v>1743.229426786808</v>
       </c>
       <c r="L47" t="n">
-        <v>1620.842689140508</v>
+        <v>1743.229426786808</v>
       </c>
       <c r="M47" t="n">
-        <v>1620.842689140508</v>
+        <v>1743.229426786808</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>43443.05282363953</v>
+        <v>44467.78481188056</v>
       </c>
     </row>
     <row r="48">
@@ -2962,40 +2962,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44136</v>
+        <v>44287</v>
       </c>
       <c r="C48" t="n">
-        <v>41914.39476241819</v>
+        <v>42867.29038170962</v>
       </c>
       <c r="D48" t="n">
-        <v>39387.56057479444</v>
+        <v>33168.89612234166</v>
       </c>
       <c r="E48" t="n">
-        <v>44886.33868455907</v>
+        <v>42062.31476702512</v>
       </c>
       <c r="F48" t="n">
-        <v>41914.39476241819</v>
+        <v>42867.29038170962</v>
       </c>
       <c r="G48" t="n">
-        <v>41914.39476241819</v>
+        <v>42867.29038170962</v>
       </c>
       <c r="H48" t="n">
-        <v>195.1059237371724</v>
+        <v>-5168.107737385113</v>
       </c>
       <c r="I48" t="n">
-        <v>195.1059237371724</v>
+        <v>-5168.107737385113</v>
       </c>
       <c r="J48" t="n">
-        <v>195.1059237371724</v>
+        <v>-5168.107737385113</v>
       </c>
       <c r="K48" t="n">
-        <v>195.1059237371724</v>
+        <v>-5168.107737385113</v>
       </c>
       <c r="L48" t="n">
-        <v>195.1059237371724</v>
+        <v>-5168.107737385113</v>
       </c>
       <c r="M48" t="n">
-        <v>195.1059237371724</v>
+        <v>-5168.107737385113</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>42109.50068615536</v>
+        <v>37699.18264432451</v>
       </c>
     </row>
     <row r="49">
@@ -3015,40 +3015,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44166</v>
+        <v>44317</v>
       </c>
       <c r="C49" t="n">
-        <v>42003.54996980305</v>
+        <v>43005.42102359595</v>
       </c>
       <c r="D49" t="n">
-        <v>41960.61742523209</v>
+        <v>33183.6912073614</v>
       </c>
       <c r="E49" t="n">
-        <v>47411.16659357904</v>
+        <v>42149.51482362949</v>
       </c>
       <c r="F49" t="n">
-        <v>42003.54996980305</v>
+        <v>43005.42102359595</v>
       </c>
       <c r="G49" t="n">
-        <v>42003.54996980305</v>
+        <v>43005.42102359595</v>
       </c>
       <c r="H49" t="n">
-        <v>2694.489451978555</v>
+        <v>-5222.90302553878</v>
       </c>
       <c r="I49" t="n">
-        <v>2694.489451978555</v>
+        <v>-5222.90302553878</v>
       </c>
       <c r="J49" t="n">
-        <v>2694.489451978555</v>
+        <v>-5222.90302553878</v>
       </c>
       <c r="K49" t="n">
-        <v>2694.489451978555</v>
+        <v>-5222.90302553878</v>
       </c>
       <c r="L49" t="n">
-        <v>2694.489451978555</v>
+        <v>-5222.90302553878</v>
       </c>
       <c r="M49" t="n">
-        <v>2694.489451978555</v>
+        <v>-5222.90302553878</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>44698.03942178161</v>
+        <v>37782.51799805717</v>
       </c>
     </row>
     <row r="50">
@@ -3068,40 +3068,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44197</v>
+        <v>44348</v>
       </c>
       <c r="C50" t="n">
-        <v>42095.67255782826</v>
+        <v>43148.15602086005</v>
       </c>
       <c r="D50" t="n">
-        <v>39168.98111783595</v>
+        <v>30322.10270677646</v>
       </c>
       <c r="E50" t="n">
-        <v>44898.17546375749</v>
+        <v>38885.58763486571</v>
       </c>
       <c r="F50" t="n">
-        <v>42095.67255782826</v>
+        <v>43148.15602086005</v>
       </c>
       <c r="G50" t="n">
-        <v>42095.67255782826</v>
+        <v>43148.15602086005</v>
       </c>
       <c r="H50" t="n">
-        <v>-162.3203966174148</v>
+        <v>-8799.601281643549</v>
       </c>
       <c r="I50" t="n">
-        <v>-162.3203966174148</v>
+        <v>-8799.601281643549</v>
       </c>
       <c r="J50" t="n">
-        <v>-162.3203966174148</v>
+        <v>-8799.601281643549</v>
       </c>
       <c r="K50" t="n">
-        <v>-162.3203966174148</v>
+        <v>-8799.601281643549</v>
       </c>
       <c r="L50" t="n">
-        <v>-162.3203966174148</v>
+        <v>-8799.601281643549</v>
       </c>
       <c r="M50" t="n">
-        <v>-162.3203966174148</v>
+        <v>-8799.601281643549</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>41933.35216121085</v>
+        <v>34348.5547392165</v>
       </c>
     </row>
     <row r="51">
@@ -3121,40 +3121,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44228</v>
+        <v>44378</v>
       </c>
       <c r="C51" t="n">
-        <v>42187.79514585347</v>
+        <v>43286.28666337369</v>
       </c>
       <c r="D51" t="n">
-        <v>36255.67987636366</v>
+        <v>41698.82452708705</v>
       </c>
       <c r="E51" t="n">
-        <v>41783.47670621443</v>
+        <v>50498.46874295477</v>
       </c>
       <c r="F51" t="n">
-        <v>42187.79514585347</v>
+        <v>43286.28666337369</v>
       </c>
       <c r="G51" t="n">
-        <v>42187.79514585347</v>
+        <v>43286.28666337369</v>
       </c>
       <c r="H51" t="n">
-        <v>-3032.705718749474</v>
+        <v>3048.511484641016</v>
       </c>
       <c r="I51" t="n">
-        <v>-3032.705718749474</v>
+        <v>3048.511484641016</v>
       </c>
       <c r="J51" t="n">
-        <v>-3032.705718749474</v>
+        <v>3048.511484641016</v>
       </c>
       <c r="K51" t="n">
-        <v>-3032.705718749474</v>
+        <v>3048.511484641016</v>
       </c>
       <c r="L51" t="n">
-        <v>-3032.705718749474</v>
+        <v>3048.511484641016</v>
       </c>
       <c r="M51" t="n">
-        <v>-3032.705718749474</v>
+        <v>3048.511484641016</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>39155.08942710399</v>
+        <v>46334.79814801471</v>
       </c>
     </row>
     <row r="52">
@@ -3174,40 +3174,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44256</v>
+        <v>44409</v>
       </c>
       <c r="C52" t="n">
-        <v>42271.00264453602</v>
+        <v>43429.02166063779</v>
       </c>
       <c r="D52" t="n">
-        <v>41080.57486568865</v>
+        <v>41219.14273861425</v>
       </c>
       <c r="E52" t="n">
-        <v>46380.11747080943</v>
+        <v>50258.32029282583</v>
       </c>
       <c r="F52" t="n">
-        <v>42271.00264453602</v>
+        <v>43429.02166063779</v>
       </c>
       <c r="G52" t="n">
-        <v>42271.00264453602</v>
+        <v>43429.02166063779</v>
       </c>
       <c r="H52" t="n">
-        <v>1560.937349126076</v>
+        <v>2196.598069324007</v>
       </c>
       <c r="I52" t="n">
-        <v>1560.937349126076</v>
+        <v>2196.598069324007</v>
       </c>
       <c r="J52" t="n">
-        <v>1560.937349126076</v>
+        <v>2196.598069324007</v>
       </c>
       <c r="K52" t="n">
-        <v>1560.937349126076</v>
+        <v>2196.598069324007</v>
       </c>
       <c r="L52" t="n">
-        <v>1560.937349126076</v>
+        <v>2196.598069324007</v>
       </c>
       <c r="M52" t="n">
-        <v>1560.937349126076</v>
+        <v>2196.598069324007</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>43831.9399936621</v>
+        <v>45625.61972996179</v>
       </c>
     </row>
     <row r="53">
@@ -3227,40 +3227,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44287</v>
+        <v>44440</v>
       </c>
       <c r="C53" t="n">
-        <v>42363.12523236313</v>
+        <v>43571.75665790188</v>
       </c>
       <c r="D53" t="n">
-        <v>33909.49842117801</v>
+        <v>39536.82493543405</v>
       </c>
       <c r="E53" t="n">
-        <v>39448.81846720265</v>
+        <v>48473.47244182939</v>
       </c>
       <c r="F53" t="n">
-        <v>42363.12523236313</v>
+        <v>43571.75665790188</v>
       </c>
       <c r="G53" t="n">
-        <v>42363.12523236313</v>
+        <v>43571.75665790188</v>
       </c>
       <c r="H53" t="n">
-        <v>-5694.092443182677</v>
+        <v>410.7613042050643</v>
       </c>
       <c r="I53" t="n">
-        <v>-5694.092443182677</v>
+        <v>410.7613042050643</v>
       </c>
       <c r="J53" t="n">
-        <v>-5694.092443182677</v>
+        <v>410.7613042050643</v>
       </c>
       <c r="K53" t="n">
-        <v>-5694.092443182677</v>
+        <v>410.7613042050643</v>
       </c>
       <c r="L53" t="n">
-        <v>-5694.092443182677</v>
+        <v>410.7613042050643</v>
       </c>
       <c r="M53" t="n">
-        <v>-5694.092443182677</v>
+        <v>410.7613042050643</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>36669.03278918046</v>
+        <v>43982.51796210695</v>
       </c>
     </row>
     <row r="54">
@@ -3280,40 +3280,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44317</v>
+        <v>44470</v>
       </c>
       <c r="C54" t="n">
-        <v>42452.27612398888</v>
+        <v>43709.88730041552</v>
       </c>
       <c r="D54" t="n">
-        <v>35912.3741216152</v>
+        <v>40568.17480952631</v>
       </c>
       <c r="E54" t="n">
-        <v>41253.61341714098</v>
+        <v>49317.68182721447</v>
       </c>
       <c r="F54" t="n">
-        <v>42452.27612398888</v>
+        <v>43709.88730041552</v>
       </c>
       <c r="G54" t="n">
-        <v>42452.27612398888</v>
+        <v>43709.88730041552</v>
       </c>
       <c r="H54" t="n">
-        <v>-3793.280797318827</v>
+        <v>1165.709321066118</v>
       </c>
       <c r="I54" t="n">
-        <v>-3793.280797318827</v>
+        <v>1165.709321066118</v>
       </c>
       <c r="J54" t="n">
-        <v>-3793.280797318827</v>
+        <v>1165.709321066118</v>
       </c>
       <c r="K54" t="n">
-        <v>-3793.280797318827</v>
+        <v>1165.709321066118</v>
       </c>
       <c r="L54" t="n">
-        <v>-3793.280797318827</v>
+        <v>1165.709321066118</v>
       </c>
       <c r="M54" t="n">
-        <v>-3793.280797318827</v>
+        <v>1165.709321066118</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>38658.99532667005</v>
+        <v>44875.59662148164</v>
       </c>
     </row>
     <row r="55">
@@ -3333,40 +3333,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44348</v>
+        <v>44501</v>
       </c>
       <c r="C55" t="n">
-        <v>42544.39871200216</v>
+        <v>43852.62229767963</v>
       </c>
       <c r="D55" t="n">
-        <v>38767.47407906964</v>
+        <v>38867.85252328311</v>
       </c>
       <c r="E55" t="n">
-        <v>44611.78234532346</v>
+        <v>47978.8567407736</v>
       </c>
       <c r="F55" t="n">
-        <v>42544.39871200216</v>
+        <v>43852.62229767963</v>
       </c>
       <c r="G55" t="n">
-        <v>42544.39871200216</v>
+        <v>43852.62229767963</v>
       </c>
       <c r="H55" t="n">
-        <v>-874.7978840166975</v>
+        <v>-493.28054611314</v>
       </c>
       <c r="I55" t="n">
-        <v>-874.7978840166975</v>
+        <v>-493.28054611314</v>
       </c>
       <c r="J55" t="n">
-        <v>-874.7978840166975</v>
+        <v>-493.28054611314</v>
       </c>
       <c r="K55" t="n">
-        <v>-874.7978840166975</v>
+        <v>-493.28054611314</v>
       </c>
       <c r="L55" t="n">
-        <v>-874.7978840166975</v>
+        <v>-493.28054611314</v>
       </c>
       <c r="M55" t="n">
-        <v>-874.7978840166975</v>
+        <v>-493.28054611314</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>41669.60082798546</v>
+        <v>43359.34175156648</v>
       </c>
     </row>
     <row r="56">
@@ -3386,40 +3386,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44378</v>
+        <v>44531</v>
       </c>
       <c r="C56" t="n">
-        <v>42633.54960362791</v>
+        <v>43990.75294019327</v>
       </c>
       <c r="D56" t="n">
-        <v>38799.80620138842</v>
+        <v>41440.13897473003</v>
       </c>
       <c r="E56" t="n">
-        <v>44230.03696151629</v>
+        <v>50353.02915209002</v>
       </c>
       <c r="F56" t="n">
-        <v>42633.54960362791</v>
+        <v>43990.75294019327</v>
       </c>
       <c r="G56" t="n">
-        <v>42633.54960362791</v>
+        <v>43990.75294019327</v>
       </c>
       <c r="H56" t="n">
-        <v>-1202.993025140799</v>
+        <v>1525.732470196116</v>
       </c>
       <c r="I56" t="n">
-        <v>-1202.993025140799</v>
+        <v>1525.732470196116</v>
       </c>
       <c r="J56" t="n">
-        <v>-1202.993025140799</v>
+        <v>1525.732470196116</v>
       </c>
       <c r="K56" t="n">
-        <v>-1202.993025140799</v>
+        <v>1525.732470196116</v>
       </c>
       <c r="L56" t="n">
-        <v>-1202.993025140799</v>
+        <v>1525.732470196116</v>
       </c>
       <c r="M56" t="n">
-        <v>-1202.993025140799</v>
+        <v>1525.732470196116</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>41430.55657848711</v>
+        <v>45516.48541038939</v>
       </c>
     </row>
     <row r="57">
@@ -3439,40 +3439,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44409</v>
+        <v>44562</v>
       </c>
       <c r="C57" t="n">
-        <v>42725.67219164118</v>
+        <v>44133.48793745737</v>
       </c>
       <c r="D57" t="n">
-        <v>41165.47957425328</v>
+        <v>43760.35005202516</v>
       </c>
       <c r="E57" t="n">
-        <v>46543.42880470921</v>
+        <v>52309.30205140333</v>
       </c>
       <c r="F57" t="n">
-        <v>42725.67219164118</v>
+        <v>44133.48793745737</v>
       </c>
       <c r="G57" t="n">
-        <v>42725.67219164118</v>
+        <v>44133.48793745737</v>
       </c>
       <c r="H57" t="n">
-        <v>1146.201906444178</v>
+        <v>3877.131248714124</v>
       </c>
       <c r="I57" t="n">
-        <v>1146.201906444178</v>
+        <v>3877.131248714124</v>
       </c>
       <c r="J57" t="n">
-        <v>1146.201906444178</v>
+        <v>3877.131248714124</v>
       </c>
       <c r="K57" t="n">
-        <v>1146.201906444178</v>
+        <v>3877.131248714124</v>
       </c>
       <c r="L57" t="n">
-        <v>1146.201906444178</v>
+        <v>3877.131248714124</v>
       </c>
       <c r="M57" t="n">
-        <v>1146.201906444178</v>
+        <v>3877.131248714124</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>43871.87409808536</v>
+        <v>48010.6191861715</v>
       </c>
     </row>
     <row r="58">
@@ -3492,40 +3492,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44440</v>
+        <v>44593</v>
       </c>
       <c r="C58" t="n">
-        <v>42817.79477965446</v>
+        <v>44276.22293472147</v>
       </c>
       <c r="D58" t="n">
-        <v>40385.42513589242</v>
+        <v>38053.12636337039</v>
       </c>
       <c r="E58" t="n">
-        <v>45684.37352672261</v>
+        <v>46989.77998367472</v>
       </c>
       <c r="F58" t="n">
-        <v>42817.79477965446</v>
+        <v>44276.22293472147</v>
       </c>
       <c r="G58" t="n">
-        <v>42817.79477965446</v>
+        <v>44276.22293472147</v>
       </c>
       <c r="H58" t="n">
-        <v>185.3321082238898</v>
+        <v>-1973.744131070669</v>
       </c>
       <c r="I58" t="n">
-        <v>185.3321082238898</v>
+        <v>-1973.744131070669</v>
       </c>
       <c r="J58" t="n">
-        <v>185.3321082238898</v>
+        <v>-1973.744131070669</v>
       </c>
       <c r="K58" t="n">
-        <v>185.3321082238898</v>
+        <v>-1973.744131070669</v>
       </c>
       <c r="L58" t="n">
-        <v>185.3321082238898</v>
+        <v>-1973.744131070669</v>
       </c>
       <c r="M58" t="n">
-        <v>185.3321082238898</v>
+        <v>-1973.744131070669</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>43003.12688787835</v>
+        <v>42302.4788036508</v>
       </c>
     </row>
     <row r="59">
@@ -3545,40 +3545,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44470</v>
+        <v>44621</v>
       </c>
       <c r="C59" t="n">
-        <v>42906.94567128021</v>
+        <v>44405.1448677342</v>
       </c>
       <c r="D59" t="n">
-        <v>41981.14990558389</v>
+        <v>38940.00366900529</v>
       </c>
       <c r="E59" t="n">
-        <v>47398.93317313177</v>
+        <v>48141.24821040736</v>
       </c>
       <c r="F59" t="n">
-        <v>42906.94567128021</v>
+        <v>44405.1448677342</v>
       </c>
       <c r="G59" t="n">
-        <v>42906.94567128021</v>
+        <v>44405.1448677342</v>
       </c>
       <c r="H59" t="n">
-        <v>1839.632972838026</v>
+        <v>-650.5079001689463</v>
       </c>
       <c r="I59" t="n">
-        <v>1839.632972838026</v>
+        <v>-650.5079001689463</v>
       </c>
       <c r="J59" t="n">
-        <v>1839.632972838026</v>
+        <v>-650.5079001689463</v>
       </c>
       <c r="K59" t="n">
-        <v>1839.632972838026</v>
+        <v>-650.5079001689463</v>
       </c>
       <c r="L59" t="n">
-        <v>1839.632972838026</v>
+        <v>-650.5079001689463</v>
       </c>
       <c r="M59" t="n">
-        <v>1839.632972838026</v>
+        <v>-650.5079001689463</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>44746.57864411824</v>
+        <v>43754.63696756525</v>
       </c>
     </row>
     <row r="60">
@@ -3598,40 +3598,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44501</v>
+        <v>44652</v>
       </c>
       <c r="C60" t="n">
-        <v>42999.06825929349</v>
+        <v>44547.8798649983</v>
       </c>
       <c r="D60" t="n">
-        <v>39619.31209235418</v>
+        <v>35779.38360994506</v>
       </c>
       <c r="E60" t="n">
-        <v>45113.85053671771</v>
+        <v>44538.42752165562</v>
       </c>
       <c r="F60" t="n">
-        <v>42999.06825929349</v>
+        <v>44547.8798649983</v>
       </c>
       <c r="G60" t="n">
-        <v>42999.06825929349</v>
+        <v>44547.8798649983</v>
       </c>
       <c r="H60" t="n">
-        <v>-626.0081630749146</v>
+        <v>-4574.039547902887</v>
       </c>
       <c r="I60" t="n">
-        <v>-626.0081630749146</v>
+        <v>-4574.039547902887</v>
       </c>
       <c r="J60" t="n">
-        <v>-626.0081630749146</v>
+        <v>-4574.039547902887</v>
       </c>
       <c r="K60" t="n">
-        <v>-626.0081630749146</v>
+        <v>-4574.039547902887</v>
       </c>
       <c r="L60" t="n">
-        <v>-626.0081630749146</v>
+        <v>-4574.039547902887</v>
       </c>
       <c r="M60" t="n">
-        <v>-626.0081630749146</v>
+        <v>-4574.039547902887</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>42373.06009621858</v>
+        <v>39973.84031709541</v>
       </c>
     </row>
     <row r="61">
@@ -3651,40 +3651,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44531</v>
+        <v>44682</v>
       </c>
       <c r="C61" t="n">
-        <v>43088.21915091924</v>
+        <v>44686.01050751194</v>
       </c>
       <c r="D61" t="n">
-        <v>41695.01184341444</v>
+        <v>36185.29769268525</v>
       </c>
       <c r="E61" t="n">
-        <v>47385.12385462051</v>
+        <v>44843.83427732957</v>
       </c>
       <c r="F61" t="n">
-        <v>43088.21915091924</v>
+        <v>44686.01050751194</v>
       </c>
       <c r="G61" t="n">
-        <v>43088.21915091924</v>
+        <v>44686.01050751194</v>
       </c>
       <c r="H61" t="n">
-        <v>1498.356028039625</v>
+        <v>-4123.586721620265</v>
       </c>
       <c r="I61" t="n">
-        <v>1498.356028039625</v>
+        <v>-4123.586721620265</v>
       </c>
       <c r="J61" t="n">
-        <v>1498.356028039625</v>
+        <v>-4123.586721620265</v>
       </c>
       <c r="K61" t="n">
-        <v>1498.356028039625</v>
+        <v>-4123.586721620265</v>
       </c>
       <c r="L61" t="n">
-        <v>1498.356028039625</v>
+        <v>-4123.586721620265</v>
       </c>
       <c r="M61" t="n">
-        <v>1498.356028039625</v>
+        <v>-4123.586721620265</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>44586.57517895887</v>
+        <v>40562.42378589167</v>
       </c>
     </row>
     <row r="62">
@@ -3704,40 +3704,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44562</v>
+        <v>44713</v>
       </c>
       <c r="C62" t="n">
-        <v>43180.34173893252</v>
+        <v>44828.74550477604</v>
       </c>
       <c r="D62" t="n">
-        <v>42803.42470918022</v>
+        <v>32633.06442514744</v>
       </c>
       <c r="E62" t="n">
-        <v>48442.14010221767</v>
+        <v>41524.83697077874</v>
       </c>
       <c r="F62" t="n">
-        <v>43180.34173893252</v>
+        <v>44827.48841036861</v>
       </c>
       <c r="G62" t="n">
-        <v>43180.34173893252</v>
+        <v>44830.23757383389</v>
       </c>
       <c r="H62" t="n">
-        <v>2521.662855207764</v>
+        <v>-7793.840279919728</v>
       </c>
       <c r="I62" t="n">
-        <v>2521.662855207764</v>
+        <v>-7793.840279919728</v>
       </c>
       <c r="J62" t="n">
-        <v>2521.662855207764</v>
+        <v>-7793.840279919728</v>
       </c>
       <c r="K62" t="n">
-        <v>2521.662855207764</v>
+        <v>-7793.840279919728</v>
       </c>
       <c r="L62" t="n">
-        <v>2521.662855207764</v>
+        <v>-7793.840279919728</v>
       </c>
       <c r="M62" t="n">
-        <v>2521.662855207764</v>
+        <v>-7793.840279919728</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>45702.00459414028</v>
+        <v>37034.90522485631</v>
       </c>
     </row>
     <row r="63">
@@ -3757,40 +3757,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44593</v>
+        <v>44743</v>
       </c>
       <c r="C63" t="n">
-        <v>43272.4643269458</v>
+        <v>44966.87614728969</v>
       </c>
       <c r="D63" t="n">
-        <v>38047.60629970217</v>
+        <v>42870.63655662574</v>
       </c>
       <c r="E63" t="n">
-        <v>43520.23701999271</v>
+        <v>51263.00357452888</v>
       </c>
       <c r="F63" t="n">
-        <v>43272.4643269458</v>
+        <v>44960.02584452985</v>
       </c>
       <c r="G63" t="n">
-        <v>43272.4643269458</v>
+        <v>44974.19198990599</v>
       </c>
       <c r="H63" t="n">
-        <v>-2395.261519152865</v>
+        <v>2306.208574750836</v>
       </c>
       <c r="I63" t="n">
-        <v>-2395.261519152865</v>
+        <v>2306.208574750836</v>
       </c>
       <c r="J63" t="n">
-        <v>-2395.261519152865</v>
+        <v>2306.208574750836</v>
       </c>
       <c r="K63" t="n">
-        <v>-2395.261519152865</v>
+        <v>2306.208574750836</v>
       </c>
       <c r="L63" t="n">
-        <v>-2395.261519152865</v>
+        <v>2306.208574750836</v>
       </c>
       <c r="M63" t="n">
-        <v>-2395.261519152865</v>
+        <v>2306.208574750836</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>40877.20280779293</v>
+        <v>47273.08472204053</v>
       </c>
     </row>
     <row r="64">
@@ -3810,40 +3810,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44621</v>
+        <v>44774</v>
       </c>
       <c r="C64" t="n">
-        <v>43355.6718257965</v>
+        <v>45109.61114455378</v>
       </c>
       <c r="D64" t="n">
-        <v>39898.40371504927</v>
+        <v>42339.74117663708</v>
       </c>
       <c r="E64" t="n">
-        <v>45447.63088853249</v>
+        <v>51370.18900880491</v>
       </c>
       <c r="F64" t="n">
-        <v>43355.6718257965</v>
+        <v>45095.78772078965</v>
       </c>
       <c r="G64" t="n">
-        <v>43355.6718257965</v>
+        <v>45124.20553636689</v>
       </c>
       <c r="H64" t="n">
-        <v>-652.2758107579621</v>
+        <v>1843.98675268228</v>
       </c>
       <c r="I64" t="n">
-        <v>-652.2758107579621</v>
+        <v>1843.98675268228</v>
       </c>
       <c r="J64" t="n">
-        <v>-652.2758107579621</v>
+        <v>1843.98675268228</v>
       </c>
       <c r="K64" t="n">
-        <v>-652.2758107579621</v>
+        <v>1843.98675268228</v>
       </c>
       <c r="L64" t="n">
-        <v>-652.2758107579621</v>
+        <v>1843.98675268228</v>
       </c>
       <c r="M64" t="n">
-        <v>-652.2758107579621</v>
+        <v>1843.98675268228</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>42703.39601503853</v>
+        <v>46953.59789723605</v>
       </c>
     </row>
     <row r="65">
@@ -3863,40 +3863,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44652</v>
+        <v>44805</v>
       </c>
       <c r="C65" t="n">
-        <v>43447.79441380977</v>
+        <v>45252.34614181788</v>
       </c>
       <c r="D65" t="n">
-        <v>36486.20253026607</v>
+        <v>40104.82340834734</v>
       </c>
       <c r="E65" t="n">
-        <v>42345.07585420267</v>
+        <v>49090.51891088304</v>
       </c>
       <c r="F65" t="n">
-        <v>43447.79441380977</v>
+        <v>45230.2570651316</v>
       </c>
       <c r="G65" t="n">
-        <v>43447.79441380977</v>
+        <v>45276.99265713171</v>
       </c>
       <c r="H65" t="n">
-        <v>-4192.57015139562</v>
+        <v>-776.1842972701767</v>
       </c>
       <c r="I65" t="n">
-        <v>-4192.57015139562</v>
+        <v>-776.1842972701767</v>
       </c>
       <c r="J65" t="n">
-        <v>-4192.57015139562</v>
+        <v>-776.1842972701767</v>
       </c>
       <c r="K65" t="n">
-        <v>-4192.57015139562</v>
+        <v>-776.1842972701767</v>
       </c>
       <c r="L65" t="n">
-        <v>-4192.57015139562</v>
+        <v>-776.1842972701767</v>
       </c>
       <c r="M65" t="n">
-        <v>-4192.57015139562</v>
+        <v>-776.1842972701767</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>39255.22426241414</v>
+        <v>44476.1618445477</v>
       </c>
     </row>
     <row r="66">
@@ -3916,40 +3916,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44682</v>
+        <v>44835</v>
       </c>
       <c r="C66" t="n">
-        <v>43536.94530543552</v>
+        <v>45390.47678433152</v>
       </c>
       <c r="D66" t="n">
-        <v>36604.36741669708</v>
+        <v>43024.60962021497</v>
       </c>
       <c r="E66" t="n">
-        <v>42038.59067692637</v>
+        <v>52158.98224631815</v>
       </c>
       <c r="F66" t="n">
-        <v>43536.17578925654</v>
+        <v>45358.13565889306</v>
       </c>
       <c r="G66" t="n">
-        <v>43538.02608304882</v>
+        <v>45426.38646450063</v>
       </c>
       <c r="H66" t="n">
-        <v>-4240.822203761254</v>
+        <v>2073.318748692578</v>
       </c>
       <c r="I66" t="n">
-        <v>-4240.822203761254</v>
+        <v>2073.318748692578</v>
       </c>
       <c r="J66" t="n">
-        <v>-4240.822203761254</v>
+        <v>2073.318748692578</v>
       </c>
       <c r="K66" t="n">
-        <v>-4240.822203761254</v>
+        <v>2073.318748692578</v>
       </c>
       <c r="L66" t="n">
-        <v>-4240.822203761254</v>
+        <v>2073.318748692578</v>
       </c>
       <c r="M66" t="n">
-        <v>-4240.822203761254</v>
+        <v>2073.318748692578</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>39296.12310167427</v>
+        <v>47463.79553302409</v>
       </c>
     </row>
     <row r="67">
@@ -3969,40 +3969,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44713</v>
+        <v>44866</v>
       </c>
       <c r="C67" t="n">
-        <v>43629.0678934488</v>
+        <v>45533.21178159562</v>
       </c>
       <c r="D67" t="n">
-        <v>37417.55080868187</v>
+        <v>40831.66038855862</v>
       </c>
       <c r="E67" t="n">
-        <v>43085.087621652</v>
+        <v>49379.26634782449</v>
       </c>
       <c r="F67" t="n">
-        <v>43624.49984946408</v>
+        <v>45486.49108224369</v>
       </c>
       <c r="G67" t="n">
-        <v>43633.62628422316</v>
+        <v>45580.57151245701</v>
       </c>
       <c r="H67" t="n">
-        <v>-3419.766077338587</v>
+        <v>-462.0751586136469</v>
       </c>
       <c r="I67" t="n">
-        <v>-3419.766077338587</v>
+        <v>-462.0751586136469</v>
       </c>
       <c r="J67" t="n">
-        <v>-3419.766077338587</v>
+        <v>-462.0751586136469</v>
       </c>
       <c r="K67" t="n">
-        <v>-3419.766077338587</v>
+        <v>-462.0751586136469</v>
       </c>
       <c r="L67" t="n">
-        <v>-3419.766077338587</v>
+        <v>-462.0751586136469</v>
       </c>
       <c r="M67" t="n">
-        <v>-3419.766077338587</v>
+        <v>-462.0751586136469</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>40209.30181611021</v>
+        <v>45071.13662298198</v>
       </c>
     </row>
     <row r="68">
@@ -4022,40 +4022,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44743</v>
+        <v>44896</v>
       </c>
       <c r="C68" t="n">
-        <v>43718.21878507455</v>
+        <v>45671.34242410926</v>
       </c>
       <c r="D68" t="n">
-        <v>43048.06129252799</v>
+        <v>42367.98194432977</v>
       </c>
       <c r="E68" t="n">
-        <v>48519.77178748726</v>
+        <v>51236.08897460188</v>
       </c>
       <c r="F68" t="n">
-        <v>43708.87306407372</v>
+        <v>45611.36029452654</v>
       </c>
       <c r="G68" t="n">
-        <v>43728.56677061271</v>
+        <v>45733.71556999731</v>
       </c>
       <c r="H68" t="n">
-        <v>2124.880922772506</v>
+        <v>1191.858048330285</v>
       </c>
       <c r="I68" t="n">
-        <v>2124.880922772506</v>
+        <v>1191.858048330285</v>
       </c>
       <c r="J68" t="n">
-        <v>2124.880922772506</v>
+        <v>1191.858048330285</v>
       </c>
       <c r="K68" t="n">
-        <v>2124.880922772506</v>
+        <v>1191.858048330285</v>
       </c>
       <c r="L68" t="n">
-        <v>2124.880922772506</v>
+        <v>1191.858048330285</v>
       </c>
       <c r="M68" t="n">
-        <v>2124.880922772506</v>
+        <v>1191.858048330285</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>45843.09970784705</v>
+        <v>46863.20047243954</v>
       </c>
     </row>
     <row r="69">
@@ -4075,40 +4075,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44774</v>
+        <v>44927</v>
       </c>
       <c r="C69" t="n">
-        <v>43810.34137308782</v>
+        <v>45814.07742137336</v>
       </c>
       <c r="D69" t="n">
-        <v>42787.88919231224</v>
+        <v>46772.53180645704</v>
       </c>
       <c r="E69" t="n">
-        <v>48061.33877770359</v>
+        <v>55702.40221853409</v>
       </c>
       <c r="F69" t="n">
-        <v>43794.28176888254</v>
+        <v>45739.67706104865</v>
       </c>
       <c r="G69" t="n">
-        <v>43827.67810127741</v>
+        <v>45894.19522220329</v>
       </c>
       <c r="H69" t="n">
-        <v>1578.575893446341</v>
+        <v>5592.877166071641</v>
       </c>
       <c r="I69" t="n">
-        <v>1578.575893446341</v>
+        <v>5592.877166071641</v>
       </c>
       <c r="J69" t="n">
-        <v>1578.575893446341</v>
+        <v>5592.877166071641</v>
       </c>
       <c r="K69" t="n">
-        <v>1578.575893446341</v>
+        <v>5592.877166071641</v>
       </c>
       <c r="L69" t="n">
-        <v>1578.575893446341</v>
+        <v>5592.877166071641</v>
       </c>
       <c r="M69" t="n">
-        <v>1578.575893446341</v>
+        <v>5592.877166071641</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>45388.91726653416</v>
+        <v>51406.954587445</v>
       </c>
     </row>
     <row r="70">
@@ -4128,40 +4128,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44805</v>
+        <v>44958</v>
       </c>
       <c r="C70" t="n">
-        <v>43902.4639611011</v>
+        <v>45956.81241863746</v>
       </c>
       <c r="D70" t="n">
-        <v>39921.97468348635</v>
+        <v>39570.78213521015</v>
       </c>
       <c r="E70" t="n">
-        <v>45773.97151938188</v>
+        <v>48333.02116527173</v>
       </c>
       <c r="F70" t="n">
-        <v>43879.2009221438</v>
+        <v>45868.37386707741</v>
       </c>
       <c r="G70" t="n">
-        <v>43927.04879828999</v>
+        <v>46051.95220757242</v>
       </c>
       <c r="H70" t="n">
-        <v>-1122.337872373191</v>
+        <v>-2002.842976137978</v>
       </c>
       <c r="I70" t="n">
-        <v>-1122.337872373191</v>
+        <v>-2002.842976137978</v>
       </c>
       <c r="J70" t="n">
-        <v>-1122.337872373191</v>
+        <v>-2002.842976137978</v>
       </c>
       <c r="K70" t="n">
-        <v>-1122.337872373191</v>
+        <v>-2002.842976137978</v>
       </c>
       <c r="L70" t="n">
-        <v>-1122.337872373191</v>
+        <v>-2002.842976137978</v>
       </c>
       <c r="M70" t="n">
-        <v>-1122.337872373191</v>
+        <v>-2002.842976137978</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>42780.12608872791</v>
+        <v>43953.96944249947</v>
       </c>
     </row>
     <row r="71">
@@ -4181,40 +4181,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44835</v>
+        <v>44986</v>
       </c>
       <c r="C71" t="n">
-        <v>43991.61485272685</v>
+        <v>46085.73435165019</v>
       </c>
       <c r="D71" t="n">
-        <v>43312.26456090697</v>
+        <v>38882.95255703512</v>
       </c>
       <c r="E71" t="n">
-        <v>48893.64968457824</v>
+        <v>47601.8248025493</v>
       </c>
       <c r="F71" t="n">
-        <v>43960.29281238429</v>
+        <v>45980.16044105226</v>
       </c>
       <c r="G71" t="n">
-        <v>44022.98620542254</v>
+        <v>46195.82915426156</v>
       </c>
       <c r="H71" t="n">
-        <v>2056.283849590891</v>
+        <v>-3026.665452229515</v>
       </c>
       <c r="I71" t="n">
-        <v>2056.283849590891</v>
+        <v>-3026.665452229515</v>
       </c>
       <c r="J71" t="n">
-        <v>2056.283849590891</v>
+        <v>-3026.665452229515</v>
       </c>
       <c r="K71" t="n">
-        <v>2056.283849590891</v>
+        <v>-3026.665452229515</v>
       </c>
       <c r="L71" t="n">
-        <v>2056.283849590891</v>
+        <v>-3026.665452229515</v>
       </c>
       <c r="M71" t="n">
-        <v>2056.283849590891</v>
+        <v>-3026.665452229515</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>46047.89870231775</v>
+        <v>43059.06889942068</v>
       </c>
     </row>
     <row r="72">
@@ -4234,40 +4234,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44866</v>
+        <v>45017</v>
       </c>
       <c r="C72" t="n">
-        <v>44083.73744074013</v>
+        <v>46228.46934891429</v>
       </c>
       <c r="D72" t="n">
-        <v>39839.10021329387</v>
+        <v>37707.88883798372</v>
       </c>
       <c r="E72" t="n">
-        <v>45416.37928553632</v>
+        <v>46640.67372947829</v>
       </c>
       <c r="F72" t="n">
-        <v>44044.25107340622</v>
+        <v>46106.32005701812</v>
       </c>
       <c r="G72" t="n">
-        <v>44124.50730883389</v>
+        <v>46356.34692230335</v>
       </c>
       <c r="H72" t="n">
-        <v>-1449.211963041512</v>
+        <v>-3923.466590721038</v>
       </c>
       <c r="I72" t="n">
-        <v>-1449.211963041512</v>
+        <v>-3923.466590721038</v>
       </c>
       <c r="J72" t="n">
-        <v>-1449.211963041512</v>
+        <v>-3923.466590721038</v>
       </c>
       <c r="K72" t="n">
-        <v>-1449.211963041512</v>
+        <v>-3923.466590721038</v>
       </c>
       <c r="L72" t="n">
-        <v>-1449.211963041512</v>
+        <v>-3923.466590721038</v>
       </c>
       <c r="M72" t="n">
-        <v>-1449.211963041512</v>
+        <v>-3923.466590721038</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>42634.52547769862</v>
+        <v>42305.00275819325</v>
       </c>
     </row>
     <row r="73">
@@ -4287,40 +4287,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44896</v>
+        <v>45047</v>
       </c>
       <c r="C73" t="n">
-        <v>44172.88833236588</v>
+        <v>46366.59999142794</v>
       </c>
       <c r="D73" t="n">
-        <v>41764.14706693426</v>
+        <v>38920.41176943646</v>
       </c>
       <c r="E73" t="n">
-        <v>47180.01213865652</v>
+        <v>47924.80011644556</v>
       </c>
       <c r="F73" t="n">
-        <v>44125.48610455867</v>
+        <v>46227.24769894504</v>
       </c>
       <c r="G73" t="n">
-        <v>44221.78406073881</v>
+        <v>46514.83474299488</v>
       </c>
       <c r="H73" t="n">
-        <v>355.2249270289452</v>
+        <v>-3012.837841117009</v>
       </c>
       <c r="I73" t="n">
-        <v>355.2249270289452</v>
+        <v>-3012.837841117009</v>
       </c>
       <c r="J73" t="n">
-        <v>355.2249270289452</v>
+        <v>-3012.837841117009</v>
       </c>
       <c r="K73" t="n">
-        <v>355.2249270289452</v>
+        <v>-3012.837841117009</v>
       </c>
       <c r="L73" t="n">
-        <v>355.2249270289452</v>
+        <v>-3012.837841117009</v>
       </c>
       <c r="M73" t="n">
-        <v>355.2249270289452</v>
+        <v>-3012.837841117009</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>44528.11325939483</v>
+        <v>43353.76215031093</v>
       </c>
     </row>
     <row r="74">
@@ -4340,40 +4340,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44927</v>
+        <v>45078</v>
       </c>
       <c r="C74" t="n">
-        <v>44265.01092037916</v>
+        <v>46509.33498869203</v>
       </c>
       <c r="D74" t="n">
-        <v>46689.37856411573</v>
+        <v>35461.80858863618</v>
       </c>
       <c r="E74" t="n">
-        <v>52007.48055750481</v>
+        <v>43733.99142004517</v>
       </c>
       <c r="F74" t="n">
-        <v>44207.50866679061</v>
+        <v>46351.55012402348</v>
       </c>
       <c r="G74" t="n">
-        <v>44326.14188766359</v>
+        <v>46677.66396716235</v>
       </c>
       <c r="H74" t="n">
-        <v>5227.403955557661</v>
+        <v>-6813.685767201307</v>
       </c>
       <c r="I74" t="n">
-        <v>5227.403955557661</v>
+        <v>-6813.685767201307</v>
       </c>
       <c r="J74" t="n">
-        <v>5227.403955557661</v>
+        <v>-6813.685767201307</v>
       </c>
       <c r="K74" t="n">
-        <v>5227.403955557661</v>
+        <v>-6813.685767201307</v>
       </c>
       <c r="L74" t="n">
-        <v>5227.403955557661</v>
+        <v>-6813.685767201307</v>
       </c>
       <c r="M74" t="n">
-        <v>5227.403955557661</v>
+        <v>-6813.685767201307</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>49492.41487593682</v>
+        <v>39695.64922149072</v>
       </c>
     </row>
     <row r="75">
@@ -4393,40 +4393,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44958</v>
+        <v>45108</v>
       </c>
       <c r="C75" t="n">
-        <v>44357.13350839243</v>
+        <v>46647.46563120568</v>
       </c>
       <c r="D75" t="n">
-        <v>39690.31228449007</v>
+        <v>43677.05611659732</v>
       </c>
       <c r="E75" t="n">
-        <v>45423.1588266258</v>
+        <v>52739.00717702071</v>
       </c>
       <c r="F75" t="n">
-        <v>44286.20037895687</v>
+        <v>46473.08043031244</v>
       </c>
       <c r="G75" t="n">
-        <v>44428.71844948243</v>
+        <v>46833.25079544824</v>
       </c>
       <c r="H75" t="n">
-        <v>-1810.927809374718</v>
+        <v>1531.870714891959</v>
       </c>
       <c r="I75" t="n">
-        <v>-1810.927809374718</v>
+        <v>1531.870714891959</v>
       </c>
       <c r="J75" t="n">
-        <v>-1810.927809374718</v>
+        <v>1531.870714891959</v>
       </c>
       <c r="K75" t="n">
-        <v>-1810.927809374718</v>
+        <v>1531.870714891959</v>
       </c>
       <c r="L75" t="n">
-        <v>-1810.927809374718</v>
+        <v>1531.870714891959</v>
       </c>
       <c r="M75" t="n">
-        <v>-1810.927809374718</v>
+        <v>1531.870714891959</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>42546.20569901771</v>
+        <v>48179.33634609763</v>
       </c>
     </row>
     <row r="76">
@@ -4446,40 +4446,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44986</v>
+        <v>45139</v>
       </c>
       <c r="C76" t="n">
-        <v>44440.34100724313</v>
+        <v>46790.20062846977</v>
       </c>
       <c r="D76" t="n">
-        <v>38885.33182397507</v>
+        <v>43991.82359508376</v>
       </c>
       <c r="E76" t="n">
-        <v>44441.60791453104</v>
+        <v>53024.1460412486</v>
       </c>
       <c r="F76" t="n">
-        <v>44358.56489155638</v>
+        <v>46594.52615608535</v>
       </c>
       <c r="G76" t="n">
-        <v>44522.22168825722</v>
+        <v>46997.25331245329</v>
       </c>
       <c r="H76" t="n">
-        <v>-2861.156373657976</v>
+        <v>1480.722396732918</v>
       </c>
       <c r="I76" t="n">
-        <v>-2861.156373657976</v>
+        <v>1480.722396732918</v>
       </c>
       <c r="J76" t="n">
-        <v>-2861.156373657976</v>
+        <v>1480.722396732918</v>
       </c>
       <c r="K76" t="n">
-        <v>-2861.156373657976</v>
+        <v>1480.722396732918</v>
       </c>
       <c r="L76" t="n">
-        <v>-2861.156373657976</v>
+        <v>1480.722396732918</v>
       </c>
       <c r="M76" t="n">
-        <v>-2861.156373657976</v>
+        <v>1480.722396732918</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>41579.18463358515</v>
+        <v>48270.92302520269</v>
       </c>
     </row>
     <row r="77">
@@ -4499,40 +4499,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45017</v>
+        <v>45170</v>
       </c>
       <c r="C77" t="n">
-        <v>44532.46359525641</v>
+        <v>46932.93562573387</v>
       </c>
       <c r="D77" t="n">
-        <v>38978.26325102157</v>
+        <v>40623.78672065528</v>
       </c>
       <c r="E77" t="n">
-        <v>44696.70772097803</v>
+        <v>49537.110566904</v>
       </c>
       <c r="F77" t="n">
-        <v>44437.25136445194</v>
+        <v>46714.97660489606</v>
       </c>
       <c r="G77" t="n">
-        <v>44627.64271776515</v>
+        <v>47157.87144106625</v>
       </c>
       <c r="H77" t="n">
-        <v>-2675.026213871307</v>
+        <v>-1943.275543269463</v>
       </c>
       <c r="I77" t="n">
-        <v>-2675.026213871307</v>
+        <v>-1943.275543269463</v>
       </c>
       <c r="J77" t="n">
-        <v>-2675.026213871307</v>
+        <v>-1943.275543269463</v>
       </c>
       <c r="K77" t="n">
-        <v>-2675.026213871307</v>
+        <v>-1943.275543269463</v>
       </c>
       <c r="L77" t="n">
-        <v>-2675.026213871307</v>
+        <v>-1943.275543269463</v>
       </c>
       <c r="M77" t="n">
-        <v>-2675.026213871307</v>
+        <v>-1943.275543269463</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>41857.4373813851</v>
+        <v>44989.66008246441</v>
       </c>
     </row>
     <row r="78">
@@ -4552,40 +4552,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45047</v>
+        <v>45200</v>
       </c>
       <c r="C78" t="n">
-        <v>44621.61448688216</v>
+        <v>47071.06626824751</v>
       </c>
       <c r="D78" t="n">
-        <v>37146.7226293682</v>
+        <v>45526.25533625456</v>
       </c>
       <c r="E78" t="n">
-        <v>42463.02026025905</v>
+        <v>54579.13965100773</v>
       </c>
       <c r="F78" t="n">
-        <v>44513.98439713924</v>
+        <v>46830.89812528926</v>
       </c>
       <c r="G78" t="n">
-        <v>44729.86252432976</v>
+        <v>47315.41951829992</v>
       </c>
       <c r="H78" t="n">
-        <v>-4717.724447429683</v>
+        <v>3001.435875361883</v>
       </c>
       <c r="I78" t="n">
-        <v>-4717.724447429683</v>
+        <v>3001.435875361883</v>
       </c>
       <c r="J78" t="n">
-        <v>-4717.724447429683</v>
+        <v>3001.435875361883</v>
       </c>
       <c r="K78" t="n">
-        <v>-4717.724447429683</v>
+        <v>3001.435875361883</v>
       </c>
       <c r="L78" t="n">
-        <v>-4717.724447429683</v>
+        <v>3001.435875361883</v>
       </c>
       <c r="M78" t="n">
-        <v>-4717.724447429683</v>
+        <v>3001.435875361883</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,219 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>39903.89003945248</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C79" t="n">
-        <v>44713.73707489543</v>
-      </c>
-      <c r="D79" t="n">
-        <v>35928.79295572825</v>
-      </c>
-      <c r="E79" t="n">
-        <v>41490.74039939852</v>
-      </c>
-      <c r="F79" t="n">
-        <v>44592.9442618398</v>
-      </c>
-      <c r="G79" t="n">
-        <v>44835.46790289642</v>
-      </c>
-      <c r="H79" t="n">
-        <v>-5914.036515272073</v>
-      </c>
-      <c r="I79" t="n">
-        <v>-5914.036515272073</v>
-      </c>
-      <c r="J79" t="n">
-        <v>-5914.036515272073</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-5914.036515272073</v>
-      </c>
-      <c r="L79" t="n">
-        <v>-5914.036515272073</v>
-      </c>
-      <c r="M79" t="n">
-        <v>-5914.036515272073</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>38799.70055962336</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C80" t="n">
-        <v>44802.88796652119</v>
-      </c>
-      <c r="D80" t="n">
-        <v>47350.21146970496</v>
-      </c>
-      <c r="E80" t="n">
-        <v>52908.10885735693</v>
-      </c>
-      <c r="F80" t="n">
-        <v>44667.9732732453</v>
-      </c>
-      <c r="G80" t="n">
-        <v>44935.87856509507</v>
-      </c>
-      <c r="H80" t="n">
-        <v>5483.571437254037</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5483.571437254037</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5483.571437254037</v>
-      </c>
-      <c r="K80" t="n">
-        <v>5483.571437254037</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5483.571437254037</v>
-      </c>
-      <c r="M80" t="n">
-        <v>5483.571437254037</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>50286.45940377522</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C81" t="n">
-        <v>44895.01055453446</v>
-      </c>
-      <c r="D81" t="n">
-        <v>43774.67072762555</v>
-      </c>
-      <c r="E81" t="n">
-        <v>49567.43049433561</v>
-      </c>
-      <c r="F81" t="n">
-        <v>44745.28762509541</v>
-      </c>
-      <c r="G81" t="n">
-        <v>45042.79900842847</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1952.691645385843</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1952.691645385843</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1952.691645385843</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1952.691645385843</v>
-      </c>
-      <c r="L81" t="n">
-        <v>1952.691645385843</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1952.691645385843</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>46847.7021999203</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C82" t="n">
-        <v>44987.13314254773</v>
-      </c>
-      <c r="D82" t="n">
-        <v>39753.90439668682</v>
-      </c>
-      <c r="E82" t="n">
-        <v>45357.53665666368</v>
-      </c>
-      <c r="F82" t="n">
-        <v>44823.31189052339</v>
-      </c>
-      <c r="G82" t="n">
-        <v>45149.50391062588</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-2451.705055521577</v>
-      </c>
-      <c r="I82" t="n">
-        <v>-2451.705055521577</v>
-      </c>
-      <c r="J82" t="n">
-        <v>-2451.705055521577</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-2451.705055521577</v>
-      </c>
-      <c r="L82" t="n">
-        <v>-2451.705055521577</v>
-      </c>
-      <c r="M82" t="n">
-        <v>-2451.705055521577</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>42535.42808702616</v>
+        <v>50072.50214360939</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/fs_res_monthly.xlsx
+++ b/outputs/fs_res_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42887</v>
       </c>
       <c r="C2" t="n">
-        <v>32913.43537797867</v>
+        <v>33889.65417312516</v>
       </c>
       <c r="D2" t="n">
-        <v>19554.01249459535</v>
+        <v>21232.9447742229</v>
       </c>
       <c r="E2" t="n">
-        <v>28391.74027148538</v>
+        <v>30718.04428984147</v>
       </c>
       <c r="F2" t="n">
-        <v>32913.43537797867</v>
+        <v>33889.65417312516</v>
       </c>
       <c r="G2" t="n">
-        <v>32913.43537797867</v>
+        <v>33889.65417312516</v>
       </c>
       <c r="H2" t="n">
-        <v>-8799.601281629548</v>
+        <v>-7978.268176672159</v>
       </c>
       <c r="I2" t="n">
-        <v>-8799.601281629548</v>
+        <v>-7978.268176672159</v>
       </c>
       <c r="J2" t="n">
-        <v>-8799.601281629548</v>
+        <v>-7978.268176672159</v>
       </c>
       <c r="K2" t="n">
-        <v>-8799.601281629548</v>
+        <v>-7978.268176672159</v>
       </c>
       <c r="L2" t="n">
-        <v>-8799.601281629548</v>
+        <v>-7978.268176672159</v>
       </c>
       <c r="M2" t="n">
-        <v>-8799.601281629548</v>
+        <v>-7978.268176672159</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>24113.83409634912</v>
+        <v>25911.385996453</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42917</v>
       </c>
       <c r="C3" t="n">
-        <v>33184.59042238387</v>
+        <v>34099.26668605672</v>
       </c>
       <c r="D3" t="n">
-        <v>31870.69767342323</v>
+        <v>32033.02144510803</v>
       </c>
       <c r="E3" t="n">
-        <v>40502.8722813028</v>
+        <v>41785.86098729552</v>
       </c>
       <c r="F3" t="n">
-        <v>33184.59042238387</v>
+        <v>34099.26668605672</v>
       </c>
       <c r="G3" t="n">
-        <v>33184.59042238387</v>
+        <v>34099.26668605672</v>
       </c>
       <c r="H3" t="n">
-        <v>3048.511484639221</v>
+        <v>2795.429055725515</v>
       </c>
       <c r="I3" t="n">
-        <v>3048.511484639221</v>
+        <v>2795.429055725515</v>
       </c>
       <c r="J3" t="n">
-        <v>3048.511484639221</v>
+        <v>2795.429055725515</v>
       </c>
       <c r="K3" t="n">
-        <v>3048.511484639221</v>
+        <v>2795.429055725515</v>
       </c>
       <c r="L3" t="n">
-        <v>3048.511484639221</v>
+        <v>2795.429055725515</v>
       </c>
       <c r="M3" t="n">
-        <v>3048.511484639221</v>
+        <v>2795.429055725515</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>36233.1019070231</v>
+        <v>36894.69574178223</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42948</v>
       </c>
       <c r="C4" t="n">
-        <v>33464.78396826925</v>
+        <v>34315.86628275266</v>
       </c>
       <c r="D4" t="n">
-        <v>31101.18256924743</v>
+        <v>31368.91177447968</v>
       </c>
       <c r="E4" t="n">
-        <v>40378.83557221911</v>
+        <v>41127.78123856358</v>
       </c>
       <c r="F4" t="n">
-        <v>33464.78396826925</v>
+        <v>34315.86628275266</v>
       </c>
       <c r="G4" t="n">
-        <v>33464.78396826925</v>
+        <v>34315.86628275266</v>
       </c>
       <c r="H4" t="n">
-        <v>2196.598069324536</v>
+        <v>1941.095448404778</v>
       </c>
       <c r="I4" t="n">
-        <v>2196.598069324536</v>
+        <v>1941.095448404778</v>
       </c>
       <c r="J4" t="n">
-        <v>2196.598069324536</v>
+        <v>1941.095448404778</v>
       </c>
       <c r="K4" t="n">
-        <v>2196.598069324536</v>
+        <v>1941.095448404778</v>
       </c>
       <c r="L4" t="n">
-        <v>2196.598069324536</v>
+        <v>1941.095448404778</v>
       </c>
       <c r="M4" t="n">
-        <v>2196.598069324536</v>
+        <v>1941.095448404778</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>35661.38203759379</v>
+        <v>36256.96173115744</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42979</v>
       </c>
       <c r="C5" t="n">
-        <v>33744.97751478499</v>
+        <v>34532.46588422387</v>
       </c>
       <c r="D5" t="n">
-        <v>29576.80769858966</v>
+        <v>29690.95764561606</v>
       </c>
       <c r="E5" t="n">
-        <v>38128.81502712494</v>
+        <v>39301.08971518438</v>
       </c>
       <c r="F5" t="n">
-        <v>33744.97751478499</v>
+        <v>34532.46588422387</v>
       </c>
       <c r="G5" t="n">
-        <v>33744.97751478499</v>
+        <v>34532.46588422387</v>
       </c>
       <c r="H5" t="n">
-        <v>410.7613042139643</v>
+        <v>146.8679678444348</v>
       </c>
       <c r="I5" t="n">
-        <v>410.7613042139643</v>
+        <v>146.8679678444348</v>
       </c>
       <c r="J5" t="n">
-        <v>410.7613042139643</v>
+        <v>146.8679678444348</v>
       </c>
       <c r="K5" t="n">
-        <v>410.7613042139643</v>
+        <v>146.8679678444348</v>
       </c>
       <c r="L5" t="n">
-        <v>410.7613042139643</v>
+        <v>146.8679678444348</v>
       </c>
       <c r="M5" t="n">
-        <v>410.7613042139643</v>
+        <v>146.8679678444348</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>34155.73881899896</v>
+        <v>34679.3338520683</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>43009</v>
       </c>
       <c r="C6" t="n">
-        <v>34016.13255980022</v>
+        <v>34742.07840177666</v>
       </c>
       <c r="D6" t="n">
-        <v>30901.53056014764</v>
+        <v>30666.09113031391</v>
       </c>
       <c r="E6" t="n">
-        <v>39706.77079286514</v>
+        <v>40663.79842635369</v>
       </c>
       <c r="F6" t="n">
-        <v>34016.13255980022</v>
+        <v>34742.07840177666</v>
       </c>
       <c r="G6" t="n">
-        <v>34016.13255980022</v>
+        <v>34742.07840177666</v>
       </c>
       <c r="H6" t="n">
-        <v>1165.7093210695</v>
+        <v>870.016146361184</v>
       </c>
       <c r="I6" t="n">
-        <v>1165.7093210695</v>
+        <v>870.016146361184</v>
       </c>
       <c r="J6" t="n">
-        <v>1165.7093210695</v>
+        <v>870.016146361184</v>
       </c>
       <c r="K6" t="n">
-        <v>1165.7093210695</v>
+        <v>870.016146361184</v>
       </c>
       <c r="L6" t="n">
-        <v>1165.7093210695</v>
+        <v>870.016146361184</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.7093210695</v>
+        <v>870.016146361184</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>35181.84188086972</v>
+        <v>35612.09454813784</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>43040</v>
       </c>
       <c r="C7" t="n">
-        <v>34296.32610675659</v>
+        <v>34958.67800504578</v>
       </c>
       <c r="D7" t="n">
-        <v>29222.24547725853</v>
+        <v>29276.67286474432</v>
       </c>
       <c r="E7" t="n">
-        <v>37816.52666820688</v>
+        <v>39222.48535445196</v>
       </c>
       <c r="F7" t="n">
-        <v>34296.32610675659</v>
+        <v>34958.67800504578</v>
       </c>
       <c r="G7" t="n">
-        <v>34296.32610675659</v>
+        <v>34958.67800504578</v>
       </c>
       <c r="H7" t="n">
-        <v>-493.2805461140345</v>
+        <v>-834.6792227795856</v>
       </c>
       <c r="I7" t="n">
-        <v>-493.2805461140345</v>
+        <v>-834.6792227795856</v>
       </c>
       <c r="J7" t="n">
-        <v>-493.2805461140345</v>
+        <v>-834.6792227795856</v>
       </c>
       <c r="K7" t="n">
-        <v>-493.2805461140345</v>
+        <v>-834.6792227795856</v>
       </c>
       <c r="L7" t="n">
-        <v>-493.2805461140345</v>
+        <v>-834.6792227795856</v>
       </c>
       <c r="M7" t="n">
-        <v>-493.2805461140345</v>
+        <v>-834.6792227795856</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33803.04556064255</v>
+        <v>34123.99878226619</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>43070</v>
       </c>
       <c r="C8" t="n">
-        <v>34567.48115219824</v>
+        <v>35168.29052433849</v>
       </c>
       <c r="D8" t="n">
-        <v>31425.20095970439</v>
+        <v>31305.85594443979</v>
       </c>
       <c r="E8" t="n">
-        <v>40558.16948312509</v>
+        <v>41295.68460602409</v>
       </c>
       <c r="F8" t="n">
-        <v>34567.48115219824</v>
+        <v>35168.29052433849</v>
       </c>
       <c r="G8" t="n">
-        <v>34567.48115219824</v>
+        <v>35168.29052433849</v>
       </c>
       <c r="H8" t="n">
-        <v>1525.732470191613</v>
+        <v>1132.292711128293</v>
       </c>
       <c r="I8" t="n">
-        <v>1525.732470191613</v>
+        <v>1132.292711128293</v>
       </c>
       <c r="J8" t="n">
-        <v>1525.732470191613</v>
+        <v>1132.292711128293</v>
       </c>
       <c r="K8" t="n">
-        <v>1525.732470191613</v>
+        <v>1132.292711128293</v>
       </c>
       <c r="L8" t="n">
-        <v>1525.732470191613</v>
+        <v>1132.292711128293</v>
       </c>
       <c r="M8" t="n">
-        <v>1525.732470191613</v>
+        <v>1132.292711128293</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>36093.21362238986</v>
+        <v>36300.58323546678</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>43101</v>
       </c>
       <c r="C9" t="n">
-        <v>34847.67469756969</v>
+        <v>35384.89013206795</v>
       </c>
       <c r="D9" t="n">
-        <v>34167.45304610986</v>
+        <v>33995.33267644711</v>
       </c>
       <c r="E9" t="n">
-        <v>43316.65995990255</v>
+        <v>43551.61226613932</v>
       </c>
       <c r="F9" t="n">
-        <v>34847.67469756969</v>
+        <v>35384.89013206795</v>
       </c>
       <c r="G9" t="n">
-        <v>34847.67469756969</v>
+        <v>35384.89013206795</v>
       </c>
       <c r="H9" t="n">
-        <v>3877.13124871274</v>
+        <v>3432.614276971213</v>
       </c>
       <c r="I9" t="n">
-        <v>3877.13124871274</v>
+        <v>3432.614276971213</v>
       </c>
       <c r="J9" t="n">
-        <v>3877.13124871274</v>
+        <v>3432.614276971213</v>
       </c>
       <c r="K9" t="n">
-        <v>3877.13124871274</v>
+        <v>3432.614276971213</v>
       </c>
       <c r="L9" t="n">
-        <v>3877.13124871274</v>
+        <v>3432.614276971213</v>
       </c>
       <c r="M9" t="n">
-        <v>3877.13124871274</v>
+        <v>3432.614276971213</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>38724.80594628243</v>
+        <v>38817.50440903916</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>43132</v>
       </c>
       <c r="C10" t="n">
-        <v>35127.86824294113</v>
+        <v>35601.48973979741</v>
       </c>
       <c r="D10" t="n">
-        <v>28814.68789523229</v>
+        <v>28151.99471019348</v>
       </c>
       <c r="E10" t="n">
-        <v>37683.52726567107</v>
+        <v>38196.26637530798</v>
       </c>
       <c r="F10" t="n">
-        <v>35127.86824294113</v>
+        <v>35601.48973979741</v>
       </c>
       <c r="G10" t="n">
-        <v>35127.86824294113</v>
+        <v>35601.48973979741</v>
       </c>
       <c r="H10" t="n">
-        <v>-1973.744131081181</v>
+        <v>-2440.012329161717</v>
       </c>
       <c r="I10" t="n">
-        <v>-1973.744131081181</v>
+        <v>-2440.012329161717</v>
       </c>
       <c r="J10" t="n">
-        <v>-1973.744131081181</v>
+        <v>-2440.012329161717</v>
       </c>
       <c r="K10" t="n">
-        <v>-1973.744131081181</v>
+        <v>-2440.012329161717</v>
       </c>
       <c r="L10" t="n">
-        <v>-1973.744131081181</v>
+        <v>-2440.012329161717</v>
       </c>
       <c r="M10" t="n">
-        <v>-1973.744131081181</v>
+        <v>-2440.012329161717</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>33154.12411185994</v>
+        <v>33161.47741063569</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43160</v>
       </c>
       <c r="C11" t="n">
-        <v>35380.94628389022</v>
+        <v>35797.12809582705</v>
       </c>
       <c r="D11" t="n">
-        <v>30560.07449055243</v>
+        <v>29535.0241976098</v>
       </c>
       <c r="E11" t="n">
-        <v>38989.23446108493</v>
+        <v>39580.80586621851</v>
       </c>
       <c r="F11" t="n">
-        <v>35380.94628389022</v>
+        <v>35797.12809582705</v>
       </c>
       <c r="G11" t="n">
-        <v>35380.94628389022</v>
+        <v>35797.12809582705</v>
       </c>
       <c r="H11" t="n">
-        <v>-650.5079001734332</v>
+        <v>-1157.806471852058</v>
       </c>
       <c r="I11" t="n">
-        <v>-650.5079001734332</v>
+        <v>-1157.806471852058</v>
       </c>
       <c r="J11" t="n">
-        <v>-650.5079001734332</v>
+        <v>-1157.806471852058</v>
       </c>
       <c r="K11" t="n">
-        <v>-650.5079001734332</v>
+        <v>-1157.806471852058</v>
       </c>
       <c r="L11" t="n">
-        <v>-650.5079001734332</v>
+        <v>-1157.806471852058</v>
       </c>
       <c r="M11" t="n">
-        <v>-650.5079001734332</v>
+        <v>-1157.806471852058</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>34730.43838371678</v>
+        <v>34639.32162397499</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43191</v>
       </c>
       <c r="C12" t="n">
-        <v>35661.01691940747</v>
+        <v>36013.72770285676</v>
       </c>
       <c r="D12" t="n">
-        <v>26643.14254080382</v>
+        <v>26036.22609834862</v>
       </c>
       <c r="E12" t="n">
-        <v>35661.90896658562</v>
+        <v>35542.33227681912</v>
       </c>
       <c r="F12" t="n">
-        <v>35661.01691940747</v>
+        <v>36013.72770285676</v>
       </c>
       <c r="G12" t="n">
-        <v>35661.01691940747</v>
+        <v>36013.72770285676</v>
       </c>
       <c r="H12" t="n">
-        <v>-4574.039547897926</v>
+        <v>-5085.930071675272</v>
       </c>
       <c r="I12" t="n">
-        <v>-4574.039547897926</v>
+        <v>-5085.930071675272</v>
       </c>
       <c r="J12" t="n">
-        <v>-4574.039547897926</v>
+        <v>-5085.930071675272</v>
       </c>
       <c r="K12" t="n">
-        <v>-4574.039547897926</v>
+        <v>-5085.930071675272</v>
       </c>
       <c r="L12" t="n">
-        <v>-4574.039547897926</v>
+        <v>-5085.930071675272</v>
       </c>
       <c r="M12" t="n">
-        <v>-4574.039547897926</v>
+        <v>-5085.930071675272</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>31086.97737150954</v>
+        <v>30927.79763118148</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43221</v>
       </c>
       <c r="C13" t="n">
-        <v>35932.05301829513</v>
+        <v>36223.34022578873</v>
       </c>
       <c r="D13" t="n">
-        <v>27081.67097865045</v>
+        <v>26575.57663046965</v>
       </c>
       <c r="E13" t="n">
-        <v>36252.32518221989</v>
+        <v>36331.10848986404</v>
       </c>
       <c r="F13" t="n">
-        <v>35932.05301829513</v>
+        <v>36223.34022578873</v>
       </c>
       <c r="G13" t="n">
-        <v>35932.05301829513</v>
+        <v>36223.34022578873</v>
       </c>
       <c r="H13" t="n">
-        <v>-4123.586721616314</v>
+        <v>-4661.520751877349</v>
       </c>
       <c r="I13" t="n">
-        <v>-4123.586721616314</v>
+        <v>-4661.520751877349</v>
       </c>
       <c r="J13" t="n">
-        <v>-4123.586721616314</v>
+        <v>-4661.520751877349</v>
       </c>
       <c r="K13" t="n">
-        <v>-4123.586721616314</v>
+        <v>-4661.520751877349</v>
       </c>
       <c r="L13" t="n">
-        <v>-4123.586721616314</v>
+        <v>-4661.520751877349</v>
       </c>
       <c r="M13" t="n">
-        <v>-4123.586721616314</v>
+        <v>-4661.520751877349</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>31808.46629667882</v>
+        <v>31561.81947391138</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43252</v>
       </c>
       <c r="C14" t="n">
-        <v>36212.12363274954</v>
+        <v>36439.93467980252</v>
       </c>
       <c r="D14" t="n">
-        <v>24067.71197316052</v>
+        <v>24810.63622495216</v>
       </c>
       <c r="E14" t="n">
-        <v>32918.2286035779</v>
+        <v>35289.76005885751</v>
       </c>
       <c r="F14" t="n">
-        <v>36212.12363274954</v>
+        <v>36439.93467980252</v>
       </c>
       <c r="G14" t="n">
-        <v>36212.12363274954</v>
+        <v>36439.93467980252</v>
       </c>
       <c r="H14" t="n">
-        <v>-7793.840279918002</v>
+        <v>-6238.547969462039</v>
       </c>
       <c r="I14" t="n">
-        <v>-7793.840279918002</v>
+        <v>-6238.547969462039</v>
       </c>
       <c r="J14" t="n">
-        <v>-7793.840279918002</v>
+        <v>-6238.547969462039</v>
       </c>
       <c r="K14" t="n">
-        <v>-7793.840279918002</v>
+        <v>-6238.547969462039</v>
       </c>
       <c r="L14" t="n">
-        <v>-7793.840279918002</v>
+        <v>-6238.547969462039</v>
       </c>
       <c r="M14" t="n">
-        <v>-7793.840279918002</v>
+        <v>-6238.547969462039</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>28418.28335283154</v>
+        <v>30201.38671034048</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43282</v>
       </c>
       <c r="C15" t="n">
-        <v>36483.1597112538</v>
+        <v>36649.54221594491</v>
       </c>
       <c r="D15" t="n">
-        <v>34648.15923494627</v>
+        <v>33581.04492441146</v>
       </c>
       <c r="E15" t="n">
-        <v>43309.56758896371</v>
+        <v>43337.93311986136</v>
       </c>
       <c r="F15" t="n">
-        <v>36483.1597112538</v>
+        <v>36649.54221594491</v>
       </c>
       <c r="G15" t="n">
-        <v>36483.1597112538</v>
+        <v>36649.54221594491</v>
       </c>
       <c r="H15" t="n">
-        <v>2306.208574754657</v>
+        <v>1928.896934853506</v>
       </c>
       <c r="I15" t="n">
-        <v>2306.208574754657</v>
+        <v>1928.896934853506</v>
       </c>
       <c r="J15" t="n">
-        <v>2306.208574754657</v>
+        <v>1928.896934853506</v>
       </c>
       <c r="K15" t="n">
-        <v>2306.208574754657</v>
+        <v>1928.896934853506</v>
       </c>
       <c r="L15" t="n">
-        <v>2306.208574754657</v>
+        <v>1928.896934853506</v>
       </c>
       <c r="M15" t="n">
-        <v>2306.208574754657</v>
+        <v>1928.896934853506</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>38789.36828600846</v>
+        <v>38578.43915079841</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43313</v>
       </c>
       <c r="C16" t="n">
-        <v>36763.2303250867</v>
+        <v>36866.12093092974</v>
       </c>
       <c r="D16" t="n">
-        <v>34513.25682687575</v>
+        <v>33304.20777646014</v>
       </c>
       <c r="E16" t="n">
-        <v>43361.37587975126</v>
+        <v>43283.35923876172</v>
       </c>
       <c r="F16" t="n">
-        <v>36763.2303250867</v>
+        <v>36866.12093092974</v>
       </c>
       <c r="G16" t="n">
-        <v>36763.2303250867</v>
+        <v>36866.12093092974</v>
       </c>
       <c r="H16" t="n">
-        <v>1843.986752686592</v>
+        <v>1489.353568863695</v>
       </c>
       <c r="I16" t="n">
-        <v>1843.986752686592</v>
+        <v>1489.353568863695</v>
       </c>
       <c r="J16" t="n">
-        <v>1843.986752686592</v>
+        <v>1489.353568863695</v>
       </c>
       <c r="K16" t="n">
-        <v>1843.986752686592</v>
+        <v>1489.353568863695</v>
       </c>
       <c r="L16" t="n">
-        <v>1843.986752686592</v>
+        <v>1489.353568863695</v>
       </c>
       <c r="M16" t="n">
-        <v>1843.986752686592</v>
+        <v>1489.353568863695</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38607.2170777733</v>
+        <v>38355.47449979343</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43344</v>
       </c>
       <c r="C17" t="n">
-        <v>37043.30093891961</v>
+        <v>37082.69964591457</v>
       </c>
       <c r="D17" t="n">
-        <v>31860.83763086581</v>
+        <v>30856.55637714831</v>
       </c>
       <c r="E17" t="n">
-        <v>40553.45212705306</v>
+        <v>40380.37992397867</v>
       </c>
       <c r="F17" t="n">
-        <v>37043.30093891961</v>
+        <v>37082.69964591457</v>
       </c>
       <c r="G17" t="n">
-        <v>37043.30093891961</v>
+        <v>37082.69964591457</v>
       </c>
       <c r="H17" t="n">
-        <v>-776.1842972629152</v>
+        <v>-1161.843371618742</v>
       </c>
       <c r="I17" t="n">
-        <v>-776.1842972629152</v>
+        <v>-1161.843371618742</v>
       </c>
       <c r="J17" t="n">
-        <v>-776.1842972629152</v>
+        <v>-1161.843371618742</v>
       </c>
       <c r="K17" t="n">
-        <v>-776.1842972629152</v>
+        <v>-1161.843371618742</v>
       </c>
       <c r="L17" t="n">
-        <v>-776.1842972629152</v>
+        <v>-1161.843371618742</v>
       </c>
       <c r="M17" t="n">
-        <v>-776.1842972629152</v>
+        <v>-1161.843371618742</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>36267.11664165669</v>
+        <v>35920.85627429582</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43374</v>
       </c>
       <c r="C18" t="n">
-        <v>37314.33690028026</v>
+        <v>37291.97084600772</v>
       </c>
       <c r="D18" t="n">
-        <v>34821.06066115213</v>
+        <v>34113.82767418154</v>
       </c>
       <c r="E18" t="n">
-        <v>43921.93596466473</v>
+        <v>43761.459562319</v>
       </c>
       <c r="F18" t="n">
-        <v>37314.33690028026</v>
+        <v>37291.97084600772</v>
       </c>
       <c r="G18" t="n">
-        <v>37314.33690028026</v>
+        <v>37291.97084600772</v>
       </c>
       <c r="H18" t="n">
-        <v>2073.318748698025</v>
+        <v>1689.392280076013</v>
       </c>
       <c r="I18" t="n">
-        <v>2073.318748698025</v>
+        <v>1689.392280076013</v>
       </c>
       <c r="J18" t="n">
-        <v>2073.318748698025</v>
+        <v>1689.392280076013</v>
       </c>
       <c r="K18" t="n">
-        <v>2073.318748698025</v>
+        <v>1689.392280076013</v>
       </c>
       <c r="L18" t="n">
-        <v>2073.318748698025</v>
+        <v>1689.392280076013</v>
       </c>
       <c r="M18" t="n">
-        <v>2073.318748698025</v>
+        <v>1689.392280076013</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>39387.65564897829</v>
+        <v>38981.36312608373</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43405</v>
       </c>
       <c r="C19" t="n">
-        <v>37594.40739368628</v>
+        <v>37508.21775277064</v>
       </c>
       <c r="D19" t="n">
-        <v>32643.05647734468</v>
+        <v>31474.42226487817</v>
       </c>
       <c r="E19" t="n">
-        <v>41733.19098104513</v>
+        <v>41407.62759174857</v>
       </c>
       <c r="F19" t="n">
-        <v>37594.40739368628</v>
+        <v>37508.21775277064</v>
       </c>
       <c r="G19" t="n">
-        <v>37594.40739368628</v>
+        <v>37508.21775277064</v>
       </c>
       <c r="H19" t="n">
-        <v>-462.0751586094813</v>
+        <v>-818.7276115195357</v>
       </c>
       <c r="I19" t="n">
-        <v>-462.0751586094813</v>
+        <v>-818.7276115195357</v>
       </c>
       <c r="J19" t="n">
-        <v>-462.0751586094813</v>
+        <v>-818.7276115195357</v>
       </c>
       <c r="K19" t="n">
-        <v>-462.0751586094813</v>
+        <v>-818.7276115195357</v>
       </c>
       <c r="L19" t="n">
-        <v>-462.0751586094813</v>
+        <v>-818.7276115195357</v>
       </c>
       <c r="M19" t="n">
-        <v>-462.0751586094813</v>
+        <v>-818.7276115195357</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37132.33223507679</v>
+        <v>36689.4901412511</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43435</v>
       </c>
       <c r="C20" t="n">
-        <v>37865.4397859075</v>
+        <v>37717.48892384907</v>
       </c>
       <c r="D20" t="n">
-        <v>34615.78422261951</v>
+        <v>33355.59708619996</v>
       </c>
       <c r="E20" t="n">
-        <v>43588.66910352003</v>
+        <v>43345.43403853089</v>
       </c>
       <c r="F20" t="n">
-        <v>37865.4397859075</v>
+        <v>37717.48892384907</v>
       </c>
       <c r="G20" t="n">
-        <v>37865.4397859075</v>
+        <v>37717.48892384907</v>
       </c>
       <c r="H20" t="n">
-        <v>1191.858048326493</v>
+        <v>872.618099900568</v>
       </c>
       <c r="I20" t="n">
-        <v>1191.858048326493</v>
+        <v>872.618099900568</v>
       </c>
       <c r="J20" t="n">
-        <v>1191.858048326493</v>
+        <v>872.618099900568</v>
       </c>
       <c r="K20" t="n">
-        <v>1191.858048326493</v>
+        <v>872.618099900568</v>
       </c>
       <c r="L20" t="n">
-        <v>1191.858048326493</v>
+        <v>872.618099900568</v>
       </c>
       <c r="M20" t="n">
-        <v>1191.858048326493</v>
+        <v>872.618099900568</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>39057.297834234</v>
+        <v>38590.10702374963</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43466</v>
       </c>
       <c r="C21" t="n">
-        <v>38145.50659120277</v>
+        <v>37933.7358006301</v>
       </c>
       <c r="D21" t="n">
-        <v>39125.41601561391</v>
+        <v>38760.10589089913</v>
       </c>
       <c r="E21" t="n">
-        <v>48341.10921362932</v>
+        <v>48017.02700747228</v>
       </c>
       <c r="F21" t="n">
-        <v>38145.50659120277</v>
+        <v>37933.7358006301</v>
       </c>
       <c r="G21" t="n">
-        <v>38145.50659120277</v>
+        <v>37933.7358006301</v>
       </c>
       <c r="H21" t="n">
-        <v>5592.877166073502</v>
+        <v>5313.048556648553</v>
       </c>
       <c r="I21" t="n">
-        <v>5592.877166073502</v>
+        <v>5313.048556648553</v>
       </c>
       <c r="J21" t="n">
-        <v>5592.877166073502</v>
+        <v>5313.048556648553</v>
       </c>
       <c r="K21" t="n">
-        <v>5592.877166073502</v>
+        <v>5313.048556648553</v>
       </c>
       <c r="L21" t="n">
-        <v>5592.877166073502</v>
+        <v>5313.048556648553</v>
       </c>
       <c r="M21" t="n">
-        <v>5592.877166073502</v>
+        <v>5313.048556648553</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>43738.38375727627</v>
+        <v>43246.78435727865</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43497</v>
       </c>
       <c r="C22" t="n">
-        <v>38425.56550241461</v>
+        <v>38149.57364949801</v>
       </c>
       <c r="D22" t="n">
-        <v>32156.21369997812</v>
+        <v>31049.76355719965</v>
       </c>
       <c r="E22" t="n">
-        <v>41070.7591610988</v>
+        <v>40631.07073318822</v>
       </c>
       <c r="F22" t="n">
-        <v>38425.56550241461</v>
+        <v>38149.57364949801</v>
       </c>
       <c r="G22" t="n">
-        <v>38425.56550241461</v>
+        <v>38149.57364949801</v>
       </c>
       <c r="H22" t="n">
-        <v>-2002.842976140612</v>
+        <v>-2281.315235442289</v>
       </c>
       <c r="I22" t="n">
-        <v>-2002.842976140612</v>
+        <v>-2281.315235442289</v>
       </c>
       <c r="J22" t="n">
-        <v>-2002.842976140612</v>
+        <v>-2281.315235442289</v>
       </c>
       <c r="K22" t="n">
-        <v>-2002.842976140612</v>
+        <v>-2281.315235442289</v>
       </c>
       <c r="L22" t="n">
-        <v>-2002.842976140612</v>
+        <v>-2281.315235442289</v>
       </c>
       <c r="M22" t="n">
-        <v>-2002.842976140612</v>
+        <v>-2281.315235442289</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>36422.722526274</v>
+        <v>35868.25841405572</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43525</v>
       </c>
       <c r="C23" t="n">
-        <v>38678.52193834788</v>
+        <v>38344.52396460452</v>
       </c>
       <c r="D23" t="n">
-        <v>31259.97380263331</v>
+        <v>29699.2397745373</v>
       </c>
       <c r="E23" t="n">
-        <v>40238.84927026415</v>
+        <v>39440.09584100168</v>
       </c>
       <c r="F23" t="n">
-        <v>38678.52193834788</v>
+        <v>38344.52396460452</v>
       </c>
       <c r="G23" t="n">
-        <v>38678.52193834788</v>
+        <v>38344.52396460452</v>
       </c>
       <c r="H23" t="n">
-        <v>-3026.665452232791</v>
+        <v>-3788.084060239071</v>
       </c>
       <c r="I23" t="n">
-        <v>-3026.665452232791</v>
+        <v>-3788.084060239071</v>
       </c>
       <c r="J23" t="n">
-        <v>-3026.665452232791</v>
+        <v>-3788.084060239071</v>
       </c>
       <c r="K23" t="n">
-        <v>-3026.665452232791</v>
+        <v>-3788.084060239071</v>
       </c>
       <c r="L23" t="n">
-        <v>-3026.665452232791</v>
+        <v>-3788.084060239071</v>
       </c>
       <c r="M23" t="n">
-        <v>-3026.665452232791</v>
+        <v>-3788.084060239071</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>35651.8564861151</v>
+        <v>34556.43990436544</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43556</v>
       </c>
       <c r="C24" t="n">
-        <v>38958.31625034331</v>
+        <v>38560.26779940311</v>
       </c>
       <c r="D24" t="n">
-        <v>30493.79133137271</v>
+        <v>29430.41086719592</v>
       </c>
       <c r="E24" t="n">
-        <v>39603.927539684</v>
+        <v>39144.77251996825</v>
       </c>
       <c r="F24" t="n">
-        <v>38958.31625034331</v>
+        <v>38560.26779940311</v>
       </c>
       <c r="G24" t="n">
-        <v>38958.31625034331</v>
+        <v>38560.26779940311</v>
       </c>
       <c r="H24" t="n">
-        <v>-3923.466590726328</v>
+        <v>-4646.499586400363</v>
       </c>
       <c r="I24" t="n">
-        <v>-3923.466590726328</v>
+        <v>-4646.499586400363</v>
       </c>
       <c r="J24" t="n">
-        <v>-3923.466590726328</v>
+        <v>-4646.499586400363</v>
       </c>
       <c r="K24" t="n">
-        <v>-3923.466590726328</v>
+        <v>-4646.499586400363</v>
       </c>
       <c r="L24" t="n">
-        <v>-3923.466590726328</v>
+        <v>-4646.499586400363</v>
       </c>
       <c r="M24" t="n">
-        <v>-3923.466590726328</v>
+        <v>-4646.499586400363</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>35034.84965961698</v>
+        <v>33913.76821300275</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43586</v>
       </c>
       <c r="C25" t="n">
-        <v>39229.08493937113</v>
+        <v>38769.05215565981</v>
       </c>
       <c r="D25" t="n">
-        <v>32209.39133305661</v>
+        <v>30172.97975860942</v>
       </c>
       <c r="E25" t="n">
-        <v>40532.68415684508</v>
+        <v>40060.9924118252</v>
       </c>
       <c r="F25" t="n">
-        <v>39229.08493937113</v>
+        <v>38769.05215565981</v>
       </c>
       <c r="G25" t="n">
-        <v>39229.08493937113</v>
+        <v>38769.05215565981</v>
       </c>
       <c r="H25" t="n">
-        <v>-3012.837841109334</v>
+        <v>-3763.031308101307</v>
       </c>
       <c r="I25" t="n">
-        <v>-3012.837841109334</v>
+        <v>-3763.031308101307</v>
       </c>
       <c r="J25" t="n">
-        <v>-3012.837841109334</v>
+        <v>-3763.031308101307</v>
       </c>
       <c r="K25" t="n">
-        <v>-3012.837841109334</v>
+        <v>-3763.031308101307</v>
       </c>
       <c r="L25" t="n">
-        <v>-3012.837841109334</v>
+        <v>-3763.031308101307</v>
       </c>
       <c r="M25" t="n">
-        <v>-3012.837841109334</v>
+        <v>-3763.031308101307</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>36216.24709826179</v>
+        <v>35006.0208475585</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43617</v>
       </c>
       <c r="C26" t="n">
-        <v>39508.14656454391</v>
+        <v>38984.35143901283</v>
       </c>
       <c r="D26" t="n">
-        <v>27899.47396063406</v>
+        <v>29665.44468248896</v>
       </c>
       <c r="E26" t="n">
-        <v>37022.93911342058</v>
+        <v>39425.00440834403</v>
       </c>
       <c r="F26" t="n">
-        <v>39508.14656454391</v>
+        <v>38984.35143901283</v>
       </c>
       <c r="G26" t="n">
-        <v>39508.14656454391</v>
+        <v>38984.35143901283</v>
       </c>
       <c r="H26" t="n">
-        <v>-6813.685767214152</v>
+        <v>-4522.336398049345</v>
       </c>
       <c r="I26" t="n">
-        <v>-6813.685767214152</v>
+        <v>-4522.336398049345</v>
       </c>
       <c r="J26" t="n">
-        <v>-6813.685767214152</v>
+        <v>-4522.336398049345</v>
       </c>
       <c r="K26" t="n">
-        <v>-6813.685767214152</v>
+        <v>-4522.336398049345</v>
       </c>
       <c r="L26" t="n">
-        <v>-6813.685767214152</v>
+        <v>-4522.336398049345</v>
       </c>
       <c r="M26" t="n">
-        <v>-6813.685767214152</v>
+        <v>-4522.336398049345</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>32694.46079732976</v>
+        <v>34462.01504096348</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43647</v>
       </c>
       <c r="C27" t="n">
-        <v>39777.93369411411</v>
+        <v>39192.1524895964</v>
       </c>
       <c r="D27" t="n">
-        <v>36698.40889598886</v>
+        <v>35005.34537262358</v>
       </c>
       <c r="E27" t="n">
-        <v>45853.57283722515</v>
+        <v>45074.87380964701</v>
       </c>
       <c r="F27" t="n">
-        <v>39777.93369411411</v>
+        <v>39192.1524895964</v>
       </c>
       <c r="G27" t="n">
-        <v>39777.93369411411</v>
+        <v>39192.1524895964</v>
       </c>
       <c r="H27" t="n">
-        <v>1531.870714891623</v>
+        <v>1019.068102994809</v>
       </c>
       <c r="I27" t="n">
-        <v>1531.870714891623</v>
+        <v>1019.068102994809</v>
       </c>
       <c r="J27" t="n">
-        <v>1531.870714891623</v>
+        <v>1019.068102994809</v>
       </c>
       <c r="K27" t="n">
-        <v>1531.870714891623</v>
+        <v>1019.068102994809</v>
       </c>
       <c r="L27" t="n">
-        <v>1531.870714891623</v>
+        <v>1019.068102994809</v>
       </c>
       <c r="M27" t="n">
-        <v>1531.870714891623</v>
+        <v>1019.068102994809</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>41309.80440900573</v>
+        <v>40211.22059259121</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43678</v>
       </c>
       <c r="C28" t="n">
-        <v>40056.71372800331</v>
+        <v>39406.88024186611</v>
       </c>
       <c r="D28" t="n">
-        <v>36978.64031939102</v>
+        <v>35653.5344314127</v>
       </c>
       <c r="E28" t="n">
-        <v>46007.09221095882</v>
+        <v>45005.7098575053</v>
       </c>
       <c r="F28" t="n">
-        <v>40056.71372800331</v>
+        <v>39406.88024186611</v>
       </c>
       <c r="G28" t="n">
-        <v>40056.71372800331</v>
+        <v>39406.88024186611</v>
       </c>
       <c r="H28" t="n">
-        <v>1480.722396737498</v>
+        <v>1022.941225192168</v>
       </c>
       <c r="I28" t="n">
-        <v>1480.722396737498</v>
+        <v>1022.941225192168</v>
       </c>
       <c r="J28" t="n">
-        <v>1480.722396737498</v>
+        <v>1022.941225192168</v>
       </c>
       <c r="K28" t="n">
-        <v>1480.722396737498</v>
+        <v>1022.941225192168</v>
       </c>
       <c r="L28" t="n">
-        <v>1480.722396737498</v>
+        <v>1022.941225192168</v>
       </c>
       <c r="M28" t="n">
-        <v>1480.722396737498</v>
+        <v>1022.941225192168</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>41537.43612474081</v>
+        <v>40429.82146705827</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43709</v>
       </c>
       <c r="C29" t="n">
-        <v>40201.1900889559</v>
+        <v>39620.92759484715</v>
       </c>
       <c r="D29" t="n">
-        <v>33625.97757184761</v>
+        <v>32257.36602166174</v>
       </c>
       <c r="E29" t="n">
-        <v>42518.80107238044</v>
+        <v>42108.29266477275</v>
       </c>
       <c r="F29" t="n">
-        <v>40201.1900889559</v>
+        <v>39620.92759484715</v>
       </c>
       <c r="G29" t="n">
-        <v>40201.1900889559</v>
+        <v>39620.92759484715</v>
       </c>
       <c r="H29" t="n">
-        <v>-1943.275543279378</v>
+        <v>-2451.321651209599</v>
       </c>
       <c r="I29" t="n">
-        <v>-1943.275543279378</v>
+        <v>-2451.321651209599</v>
       </c>
       <c r="J29" t="n">
-        <v>-1943.275543279378</v>
+        <v>-2451.321651209599</v>
       </c>
       <c r="K29" t="n">
-        <v>-1943.275543279378</v>
+        <v>-2451.321651209599</v>
       </c>
       <c r="L29" t="n">
-        <v>-1943.275543279378</v>
+        <v>-2451.321651209599</v>
       </c>
       <c r="M29" t="n">
-        <v>-1943.275543279378</v>
+        <v>-2451.321651209599</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>38257.91454567653</v>
+        <v>37169.60594363756</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43739</v>
       </c>
       <c r="C30" t="n">
-        <v>40341.00592213583</v>
+        <v>39828.07019450624</v>
       </c>
       <c r="D30" t="n">
-        <v>38630.17207995662</v>
+        <v>37562.78524305171</v>
       </c>
       <c r="E30" t="n">
-        <v>47475.96036074663</v>
+        <v>47432.33848409239</v>
       </c>
       <c r="F30" t="n">
-        <v>40341.00592213583</v>
+        <v>39828.07019450624</v>
       </c>
       <c r="G30" t="n">
-        <v>40341.00592213583</v>
+        <v>39828.07019450624</v>
       </c>
       <c r="H30" t="n">
-        <v>3001.435875358839</v>
+        <v>2532.279715754643</v>
       </c>
       <c r="I30" t="n">
-        <v>3001.435875358839</v>
+        <v>2532.279715754643</v>
       </c>
       <c r="J30" t="n">
-        <v>3001.435875358839</v>
+        <v>2532.279715754643</v>
       </c>
       <c r="K30" t="n">
-        <v>3001.435875358839</v>
+        <v>2532.279715754643</v>
       </c>
       <c r="L30" t="n">
-        <v>3001.435875358839</v>
+        <v>2532.279715754643</v>
       </c>
       <c r="M30" t="n">
-        <v>3001.435875358839</v>
+        <v>2532.279715754643</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>43342.44179749467</v>
+        <v>42360.34991026088</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43770</v>
       </c>
       <c r="C31" t="n">
-        <v>40484.76907534535</v>
+        <v>40041.5776276259</v>
       </c>
       <c r="D31" t="n">
-        <v>35729.76342323636</v>
+        <v>34167.2745152947</v>
       </c>
       <c r="E31" t="n">
-        <v>44550.74104890107</v>
+        <v>43918.66256679061</v>
       </c>
       <c r="F31" t="n">
-        <v>40484.76907534535</v>
+        <v>40041.5776276259</v>
       </c>
       <c r="G31" t="n">
-        <v>40484.76907534535</v>
+        <v>40041.5776276259</v>
       </c>
       <c r="H31" t="n">
-        <v>-433.1442413677823</v>
+        <v>-800.5789641507625</v>
       </c>
       <c r="I31" t="n">
-        <v>-433.1442413677823</v>
+        <v>-800.5789641507625</v>
       </c>
       <c r="J31" t="n">
-        <v>-433.1442413677823</v>
+        <v>-800.5789641507625</v>
       </c>
       <c r="K31" t="n">
-        <v>-433.1442413677823</v>
+        <v>-800.5789641507625</v>
       </c>
       <c r="L31" t="n">
-        <v>-433.1442413677823</v>
+        <v>-800.5789641507625</v>
       </c>
       <c r="M31" t="n">
-        <v>-433.1442413677823</v>
+        <v>-800.5789641507625</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40051.62483397757</v>
+        <v>39240.99866347513</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43800</v>
       </c>
       <c r="C32" t="n">
-        <v>40623.8947074836</v>
+        <v>40248.19772419331</v>
       </c>
       <c r="D32" t="n">
-        <v>37248.13081141139</v>
+        <v>35843.61984924608</v>
       </c>
       <c r="E32" t="n">
-        <v>45983.7170219043</v>
+        <v>45715.1920506388</v>
       </c>
       <c r="F32" t="n">
-        <v>40623.8947074836</v>
+        <v>40248.19772419331</v>
       </c>
       <c r="G32" t="n">
-        <v>40623.8947074836</v>
+        <v>40248.19772419331</v>
       </c>
       <c r="H32" t="n">
-        <v>874.7724860703112</v>
+        <v>633.4043536121576</v>
       </c>
       <c r="I32" t="n">
-        <v>874.7724860703112</v>
+        <v>633.4043536121576</v>
       </c>
       <c r="J32" t="n">
-        <v>874.7724860703112</v>
+        <v>633.4043536121576</v>
       </c>
       <c r="K32" t="n">
-        <v>874.7724860703112</v>
+        <v>633.4043536121576</v>
       </c>
       <c r="L32" t="n">
-        <v>874.7724860703112</v>
+        <v>633.4043536121576</v>
       </c>
       <c r="M32" t="n">
-        <v>874.7724860703112</v>
+        <v>633.4043536121576</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>41498.66719355391</v>
+        <v>40881.60207780547</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43831</v>
       </c>
       <c r="C33" t="n">
-        <v>40767.00219914072</v>
+        <v>40461.41591545379</v>
       </c>
       <c r="D33" t="n">
-        <v>43825.196625381</v>
+        <v>42410.98435576158</v>
       </c>
       <c r="E33" t="n">
-        <v>52880.11927989458</v>
+        <v>52474.2677468367</v>
       </c>
       <c r="F33" t="n">
-        <v>40767.00219914072</v>
+        <v>40461.41591545379</v>
       </c>
       <c r="G33" t="n">
-        <v>40767.00219914072</v>
+        <v>40461.41591545379</v>
       </c>
       <c r="H33" t="n">
-        <v>7296.042300601345</v>
+        <v>7181.110383862378</v>
       </c>
       <c r="I33" t="n">
-        <v>7296.042300601345</v>
+        <v>7181.110383862378</v>
       </c>
       <c r="J33" t="n">
-        <v>7296.042300601345</v>
+        <v>7181.110383862378</v>
       </c>
       <c r="K33" t="n">
-        <v>7296.042300601345</v>
+        <v>7181.110383862378</v>
       </c>
       <c r="L33" t="n">
-        <v>7296.042300601345</v>
+        <v>7181.110383862378</v>
       </c>
       <c r="M33" t="n">
-        <v>7296.042300601345</v>
+        <v>7181.110383862378</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>48063.04449974206</v>
+        <v>47642.52629931617</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43862</v>
       </c>
       <c r="C34" t="n">
-        <v>40910.10969079783</v>
+        <v>40674.63410671427</v>
       </c>
       <c r="D34" t="n">
-        <v>34237.23730538387</v>
+        <v>33912.65143392493</v>
       </c>
       <c r="E34" t="n">
-        <v>43249.13486973077</v>
+        <v>43045.33463222427</v>
       </c>
       <c r="F34" t="n">
-        <v>40910.10969079783</v>
+        <v>40674.63410671427</v>
       </c>
       <c r="G34" t="n">
-        <v>40910.10969079783</v>
+        <v>40674.63410671427</v>
       </c>
       <c r="H34" t="n">
-        <v>-2084.797910568559</v>
+        <v>-2182.27398398576</v>
       </c>
       <c r="I34" t="n">
-        <v>-2084.797910568559</v>
+        <v>-2182.27398398576</v>
       </c>
       <c r="J34" t="n">
-        <v>-2084.797910568559</v>
+        <v>-2182.27398398576</v>
       </c>
       <c r="K34" t="n">
-        <v>-2084.797910568559</v>
+        <v>-2182.27398398576</v>
       </c>
       <c r="L34" t="n">
-        <v>-2084.797910568559</v>
+        <v>-2182.27398398576</v>
       </c>
       <c r="M34" t="n">
-        <v>-2084.797910568559</v>
+        <v>-2182.27398398576</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38825.31178022927</v>
+        <v>38492.36012272851</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43891</v>
       </c>
       <c r="C35" t="n">
-        <v>41043.71581165269</v>
+        <v>40874.00761688525</v>
       </c>
       <c r="D35" t="n">
-        <v>40709.27863034531</v>
+        <v>39774.32320598976</v>
       </c>
       <c r="E35" t="n">
-        <v>49504.04052733823</v>
+        <v>49684.52747223336</v>
       </c>
       <c r="F35" t="n">
-        <v>41043.71581165269</v>
+        <v>40874.00761688525</v>
       </c>
       <c r="G35" t="n">
-        <v>41043.71581165269</v>
+        <v>40874.00761688525</v>
       </c>
       <c r="H35" t="n">
-        <v>4151.723982301818</v>
+        <v>4136.316052744097</v>
       </c>
       <c r="I35" t="n">
-        <v>4151.723982301818</v>
+        <v>4136.316052744097</v>
       </c>
       <c r="J35" t="n">
-        <v>4151.723982301818</v>
+        <v>4136.316052744097</v>
       </c>
       <c r="K35" t="n">
-        <v>4151.723982301818</v>
+        <v>4136.316052744097</v>
       </c>
       <c r="L35" t="n">
-        <v>4151.723982301818</v>
+        <v>4136.316052744097</v>
       </c>
       <c r="M35" t="n">
-        <v>4151.723982301818</v>
+        <v>4136.316052744097</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>45195.43979395451</v>
+        <v>45010.32366962935</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43922</v>
       </c>
       <c r="C36" t="n">
-        <v>41186.53614773892</v>
+        <v>41087.1310243094</v>
       </c>
       <c r="D36" t="n">
-        <v>31226.31355034015</v>
+        <v>30415.22928101647</v>
       </c>
       <c r="E36" t="n">
-        <v>39722.23147381243</v>
+        <v>39859.25017790416</v>
       </c>
       <c r="F36" t="n">
-        <v>41186.53614773892</v>
+        <v>41087.1310243094</v>
       </c>
       <c r="G36" t="n">
-        <v>41186.53614773892</v>
+        <v>41087.1310243094</v>
       </c>
       <c r="H36" t="n">
-        <v>-5705.430806707765</v>
+        <v>-5786.894700444771</v>
       </c>
       <c r="I36" t="n">
-        <v>-5705.430806707765</v>
+        <v>-5786.894700444771</v>
       </c>
       <c r="J36" t="n">
-        <v>-5705.430806707765</v>
+        <v>-5786.894700444771</v>
       </c>
       <c r="K36" t="n">
-        <v>-5705.430806707765</v>
+        <v>-5786.894700444771</v>
       </c>
       <c r="L36" t="n">
-        <v>-5705.430806707765</v>
+        <v>-5786.894700444771</v>
       </c>
       <c r="M36" t="n">
-        <v>-5705.430806707765</v>
+        <v>-5786.894700444771</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>35481.10534103115</v>
+        <v>35300.23632386464</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43952</v>
       </c>
       <c r="C37" t="n">
-        <v>41324.74748200346</v>
+        <v>41293.12575362571</v>
       </c>
       <c r="D37" t="n">
-        <v>30689.47666912844</v>
+        <v>29764.6402588235</v>
       </c>
       <c r="E37" t="n">
-        <v>39548.98338025319</v>
+        <v>40034.61007101471</v>
       </c>
       <c r="F37" t="n">
-        <v>41324.74748200346</v>
+        <v>41293.12575362571</v>
       </c>
       <c r="G37" t="n">
-        <v>41324.74748200346</v>
+        <v>41293.12575362571</v>
       </c>
       <c r="H37" t="n">
-        <v>-6309.005540395756</v>
+        <v>-6378.625677023609</v>
       </c>
       <c r="I37" t="n">
-        <v>-6309.005540395756</v>
+        <v>-6378.625677023609</v>
       </c>
       <c r="J37" t="n">
-        <v>-6309.005540395756</v>
+        <v>-6378.625677023609</v>
       </c>
       <c r="K37" t="n">
-        <v>-6309.005540395756</v>
+        <v>-6378.625677023609</v>
       </c>
       <c r="L37" t="n">
-        <v>-6309.005540395756</v>
+        <v>-6378.625677023609</v>
       </c>
       <c r="M37" t="n">
-        <v>-6309.005540395756</v>
+        <v>-6378.625677023609</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>35015.7419416077</v>
+        <v>34914.5000766021</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43983</v>
       </c>
       <c r="C38" t="n">
-        <v>41467.56586074349</v>
+        <v>41505.98697391922</v>
       </c>
       <c r="D38" t="n">
-        <v>27227.98556435573</v>
+        <v>26886.03309696955</v>
       </c>
       <c r="E38" t="n">
-        <v>36194.5808713093</v>
+        <v>36791.34997843486</v>
       </c>
       <c r="F38" t="n">
-        <v>41467.56586074349</v>
+        <v>41505.98697391922</v>
       </c>
       <c r="G38" t="n">
-        <v>41467.56586074349</v>
+        <v>41505.98697391922</v>
       </c>
       <c r="H38" t="n">
-        <v>-9829.49627877196</v>
+        <v>-9739.238738875705</v>
       </c>
       <c r="I38" t="n">
-        <v>-9829.49627877196</v>
+        <v>-9739.238738875705</v>
       </c>
       <c r="J38" t="n">
-        <v>-9829.49627877196</v>
+        <v>-9739.238738875705</v>
       </c>
       <c r="K38" t="n">
-        <v>-9829.49627877196</v>
+        <v>-9739.238738875705</v>
       </c>
       <c r="L38" t="n">
-        <v>-9829.49627877196</v>
+        <v>-9739.238738875705</v>
       </c>
       <c r="M38" t="n">
-        <v>-9829.49627877196</v>
+        <v>-9739.238738875705</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>31638.06958197153</v>
+        <v>31766.74823504352</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>44013</v>
       </c>
       <c r="C39" t="n">
-        <v>41605.69672902854</v>
+        <v>41711.97215193023</v>
       </c>
       <c r="D39" t="n">
-        <v>40999.97235522358</v>
+        <v>40504.33861597742</v>
       </c>
       <c r="E39" t="n">
-        <v>49658.60417569629</v>
+        <v>50370.08598012872</v>
       </c>
       <c r="F39" t="n">
-        <v>41605.69672902854</v>
+        <v>41711.97215193023</v>
       </c>
       <c r="G39" t="n">
-        <v>41605.69672902854</v>
+        <v>41711.97215193023</v>
       </c>
       <c r="H39" t="n">
-        <v>3758.10624778883</v>
+        <v>3618.011204725492</v>
       </c>
       <c r="I39" t="n">
-        <v>3758.10624778883</v>
+        <v>3618.011204725492</v>
       </c>
       <c r="J39" t="n">
-        <v>3758.10624778883</v>
+        <v>3618.011204725492</v>
       </c>
       <c r="K39" t="n">
-        <v>3758.10624778883</v>
+        <v>3618.011204725492</v>
       </c>
       <c r="L39" t="n">
-        <v>3758.10624778883</v>
+        <v>3618.011204725492</v>
       </c>
       <c r="M39" t="n">
-        <v>3758.10624778883</v>
+        <v>3618.011204725492</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>45363.80297681737</v>
+        <v>45329.98335665572</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>44044</v>
       </c>
       <c r="C40" t="n">
-        <v>41748.43195958975</v>
+        <v>41924.82350254161</v>
       </c>
       <c r="D40" t="n">
-        <v>39857.97440350004</v>
+        <v>39211.88765223257</v>
       </c>
       <c r="E40" t="n">
-        <v>48785.95734058335</v>
+        <v>49163.61423227405</v>
       </c>
       <c r="F40" t="n">
-        <v>41748.43195958975</v>
+        <v>41924.82350254161</v>
       </c>
       <c r="G40" t="n">
-        <v>41748.43195958975</v>
+        <v>41924.82350254161</v>
       </c>
       <c r="H40" t="n">
-        <v>2537.550835020545</v>
+        <v>2376.985618235169</v>
       </c>
       <c r="I40" t="n">
-        <v>2537.550835020545</v>
+        <v>2376.985618235169</v>
       </c>
       <c r="J40" t="n">
-        <v>2537.550835020545</v>
+        <v>2376.985618235169</v>
       </c>
       <c r="K40" t="n">
-        <v>2537.550835020545</v>
+        <v>2376.985618235169</v>
       </c>
       <c r="L40" t="n">
-        <v>2537.550835020545</v>
+        <v>2376.985618235169</v>
       </c>
       <c r="M40" t="n">
-        <v>2537.550835020545</v>
+        <v>2376.985618235169</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>44285.9827946103</v>
+        <v>44301.80912077678</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>44075</v>
       </c>
       <c r="C41" t="n">
-        <v>41891.16718195387</v>
+        <v>42137.40182294105</v>
       </c>
       <c r="D41" t="n">
-        <v>38935.1739528584</v>
+        <v>38865.64425202957</v>
       </c>
       <c r="E41" t="n">
-        <v>47768.26895919998</v>
+        <v>48624.08184339765</v>
       </c>
       <c r="F41" t="n">
-        <v>41891.16718195387</v>
+        <v>42137.40182294105</v>
       </c>
       <c r="G41" t="n">
-        <v>41891.16718195387</v>
+        <v>42137.40182294105</v>
       </c>
       <c r="H41" t="n">
-        <v>1616.193612606897</v>
+        <v>1473.226725136025</v>
       </c>
       <c r="I41" t="n">
-        <v>1616.193612606897</v>
+        <v>1473.226725136025</v>
       </c>
       <c r="J41" t="n">
-        <v>1616.193612606897</v>
+        <v>1473.226725136025</v>
       </c>
       <c r="K41" t="n">
-        <v>1616.193612606897</v>
+        <v>1473.226725136025</v>
       </c>
       <c r="L41" t="n">
-        <v>1616.193612606897</v>
+        <v>1473.226725136025</v>
       </c>
       <c r="M41" t="n">
-        <v>1616.193612606897</v>
+        <v>1473.226725136025</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>43507.36079456077</v>
+        <v>43610.62854807707</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>44105</v>
       </c>
       <c r="C42" t="n">
-        <v>42029.29782357116</v>
+        <v>42343.04891389806</v>
       </c>
       <c r="D42" t="n">
-        <v>37642.89549585453</v>
+        <v>37245.24454576869</v>
       </c>
       <c r="E42" t="n">
-        <v>46563.28690587959</v>
+        <v>47096.54513572119</v>
       </c>
       <c r="F42" t="n">
-        <v>42029.29782357116</v>
+        <v>42343.04891389806</v>
       </c>
       <c r="G42" t="n">
-        <v>42029.29782357116</v>
+        <v>42343.04891389806</v>
       </c>
       <c r="H42" t="n">
-        <v>279.3546235848791</v>
+        <v>74.74157594123417</v>
       </c>
       <c r="I42" t="n">
-        <v>279.3546235848791</v>
+        <v>74.74157594123417</v>
       </c>
       <c r="J42" t="n">
-        <v>279.3546235848791</v>
+        <v>74.74157594123417</v>
       </c>
       <c r="K42" t="n">
-        <v>279.3546235848791</v>
+        <v>74.74157594123417</v>
       </c>
       <c r="L42" t="n">
-        <v>279.3546235848791</v>
+        <v>74.74157594123417</v>
       </c>
       <c r="M42" t="n">
-        <v>279.3546235848791</v>
+        <v>74.74157594123417</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>42308.65244715603</v>
+        <v>42417.79048983929</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>44136</v>
       </c>
       <c r="C43" t="n">
-        <v>42172.03281990903</v>
+        <v>42555.55090788697</v>
       </c>
       <c r="D43" t="n">
-        <v>37012.69891632014</v>
+        <v>36579.91448699701</v>
       </c>
       <c r="E43" t="n">
-        <v>46181.7446046913</v>
+        <v>46668.85544770124</v>
       </c>
       <c r="F43" t="n">
-        <v>42172.03281990903</v>
+        <v>42555.55090788697</v>
       </c>
       <c r="G43" t="n">
-        <v>42172.03281990903</v>
+        <v>42555.55090788697</v>
       </c>
       <c r="H43" t="n">
-        <v>-526.5045050696364</v>
+        <v>-848.2062052529712</v>
       </c>
       <c r="I43" t="n">
-        <v>-526.5045050696364</v>
+        <v>-848.2062052529712</v>
       </c>
       <c r="J43" t="n">
-        <v>-526.5045050696364</v>
+        <v>-848.2062052529712</v>
       </c>
       <c r="K43" t="n">
-        <v>-526.5045050696364</v>
+        <v>-848.2062052529712</v>
       </c>
       <c r="L43" t="n">
-        <v>-526.5045050696364</v>
+        <v>-848.2062052529712</v>
       </c>
       <c r="M43" t="n">
-        <v>-526.5045050696364</v>
+        <v>-848.2062052529712</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>41645.52831483939</v>
+        <v>41707.34470263399</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44166</v>
       </c>
       <c r="C44" t="n">
-        <v>42310.16346133199</v>
+        <v>42761.19799326926</v>
       </c>
       <c r="D44" t="n">
-        <v>39835.11807862898</v>
+        <v>39276.18739248228</v>
       </c>
       <c r="E44" t="n">
-        <v>48820.43235727572</v>
+        <v>49113.37479004232</v>
       </c>
       <c r="F44" t="n">
-        <v>42310.16346133199</v>
+        <v>42761.19799326926</v>
       </c>
       <c r="G44" t="n">
-        <v>42310.16346133199</v>
+        <v>42761.19799326926</v>
       </c>
       <c r="H44" t="n">
-        <v>1876.631997661443</v>
+        <v>1412.818314808999</v>
       </c>
       <c r="I44" t="n">
-        <v>1876.631997661443</v>
+        <v>1412.818314808999</v>
       </c>
       <c r="J44" t="n">
-        <v>1876.631997661443</v>
+        <v>1412.818314808999</v>
       </c>
       <c r="K44" t="n">
-        <v>1876.631997661443</v>
+        <v>1412.818314808999</v>
       </c>
       <c r="L44" t="n">
-        <v>1876.631997661443</v>
+        <v>1412.818314808999</v>
       </c>
       <c r="M44" t="n">
-        <v>1876.631997661443</v>
+        <v>1412.818314808999</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>44186.79545899344</v>
+        <v>44174.01630807826</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44197</v>
       </c>
       <c r="C45" t="n">
-        <v>42452.89845746905</v>
+        <v>42973.69998149764</v>
       </c>
       <c r="D45" t="n">
-        <v>40192.02926329806</v>
+        <v>39885.81024031397</v>
       </c>
       <c r="E45" t="n">
-        <v>49108.01581649779</v>
+        <v>49448.62095517427</v>
       </c>
       <c r="F45" t="n">
-        <v>42452.89845746905</v>
+        <v>42973.69998149764</v>
       </c>
       <c r="G45" t="n">
-        <v>42452.89845746905</v>
+        <v>42973.69998149764</v>
       </c>
       <c r="H45" t="n">
-        <v>2150.671035841026</v>
+        <v>1541.956965095451</v>
       </c>
       <c r="I45" t="n">
-        <v>2150.671035841026</v>
+        <v>1541.956965095451</v>
       </c>
       <c r="J45" t="n">
-        <v>2150.671035841026</v>
+        <v>1541.956965095451</v>
       </c>
       <c r="K45" t="n">
-        <v>2150.671035841026</v>
+        <v>1541.956965095451</v>
       </c>
       <c r="L45" t="n">
-        <v>2150.671035841026</v>
+        <v>1541.956965095451</v>
       </c>
       <c r="M45" t="n">
-        <v>2150.671035841026</v>
+        <v>1541.956965095451</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>44603.56949331008</v>
+        <v>44515.65694659309</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44228</v>
       </c>
       <c r="C46" t="n">
-        <v>42595.63345333966</v>
+        <v>43186.20197138362</v>
       </c>
       <c r="D46" t="n">
-        <v>36286.09454682796</v>
+        <v>35858.32064419478</v>
       </c>
       <c r="E46" t="n">
-        <v>44989.4091799639</v>
+        <v>45653.72270164714</v>
       </c>
       <c r="F46" t="n">
-        <v>42595.63345333966</v>
+        <v>43186.20197138362</v>
       </c>
       <c r="G46" t="n">
-        <v>42595.63345333966</v>
+        <v>43186.20197138362</v>
       </c>
       <c r="H46" t="n">
-        <v>-1997.652903798572</v>
+        <v>-2658.281970793221</v>
       </c>
       <c r="I46" t="n">
-        <v>-1997.652903798572</v>
+        <v>-2658.281970793221</v>
       </c>
       <c r="J46" t="n">
-        <v>-1997.652903798572</v>
+        <v>-2658.281970793221</v>
       </c>
       <c r="K46" t="n">
-        <v>-1997.652903798572</v>
+        <v>-2658.281970793221</v>
       </c>
       <c r="L46" t="n">
-        <v>-1997.652903798572</v>
+        <v>-2658.281970793221</v>
       </c>
       <c r="M46" t="n">
-        <v>-1997.652903798572</v>
+        <v>-2658.281970793221</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40597.98054954108</v>
+        <v>40527.9200005904</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44256</v>
       </c>
       <c r="C47" t="n">
-        <v>42724.55538509375</v>
+        <v>43378.13925257096</v>
       </c>
       <c r="D47" t="n">
-        <v>40068.53663052846</v>
+        <v>39932.84478912697</v>
       </c>
       <c r="E47" t="n">
-        <v>49146.19847963446</v>
+        <v>49934.77301356811</v>
       </c>
       <c r="F47" t="n">
-        <v>42724.55538509375</v>
+        <v>43378.13925257096</v>
       </c>
       <c r="G47" t="n">
-        <v>42724.55538509375</v>
+        <v>43378.13925257096</v>
       </c>
       <c r="H47" t="n">
-        <v>1743.229426786808</v>
+        <v>1484.719657035659</v>
       </c>
       <c r="I47" t="n">
-        <v>1743.229426786808</v>
+        <v>1484.719657035659</v>
       </c>
       <c r="J47" t="n">
-        <v>1743.229426786808</v>
+        <v>1484.719657035659</v>
       </c>
       <c r="K47" t="n">
-        <v>1743.229426786808</v>
+        <v>1484.719657035659</v>
       </c>
       <c r="L47" t="n">
-        <v>1743.229426786808</v>
+        <v>1484.719657035659</v>
       </c>
       <c r="M47" t="n">
-        <v>1743.229426786808</v>
+        <v>1484.719657035659</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>44467.78481188056</v>
+        <v>44862.85890960662</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44287</v>
       </c>
       <c r="C48" t="n">
-        <v>42867.29038170962</v>
+        <v>43590.64123240362</v>
       </c>
       <c r="D48" t="n">
-        <v>33168.89612234166</v>
+        <v>33391.59055505827</v>
       </c>
       <c r="E48" t="n">
-        <v>42062.31476702512</v>
+        <v>43081.43347872621</v>
       </c>
       <c r="F48" t="n">
-        <v>42867.29038170962</v>
+        <v>43590.64123240362</v>
       </c>
       <c r="G48" t="n">
-        <v>42867.29038170962</v>
+        <v>43590.64123240362</v>
       </c>
       <c r="H48" t="n">
-        <v>-5168.107737385113</v>
+        <v>-5466.009860674668</v>
       </c>
       <c r="I48" t="n">
-        <v>-5168.107737385113</v>
+        <v>-5466.009860674668</v>
       </c>
       <c r="J48" t="n">
-        <v>-5168.107737385113</v>
+        <v>-5466.009860674668</v>
       </c>
       <c r="K48" t="n">
-        <v>-5168.107737385113</v>
+        <v>-5466.009860674668</v>
       </c>
       <c r="L48" t="n">
-        <v>-5168.107737385113</v>
+        <v>-5466.009860674668</v>
       </c>
       <c r="M48" t="n">
-        <v>-5168.107737385113</v>
+        <v>-5466.009860674668</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>37699.18264432451</v>
+        <v>38124.63137172895</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44317</v>
       </c>
       <c r="C49" t="n">
-        <v>43005.42102359595</v>
+        <v>43796.28830966103</v>
       </c>
       <c r="D49" t="n">
-        <v>33183.6912073614</v>
+        <v>33593.0088007505</v>
       </c>
       <c r="E49" t="n">
-        <v>42149.51482362949</v>
+        <v>43022.76566694753</v>
       </c>
       <c r="F49" t="n">
-        <v>43005.42102359595</v>
+        <v>43796.28830966103</v>
       </c>
       <c r="G49" t="n">
-        <v>43005.42102359595</v>
+        <v>43796.28830966103</v>
       </c>
       <c r="H49" t="n">
-        <v>-5222.90302553878</v>
+        <v>-5533.945737669338</v>
       </c>
       <c r="I49" t="n">
-        <v>-5222.90302553878</v>
+        <v>-5533.945737669338</v>
       </c>
       <c r="J49" t="n">
-        <v>-5222.90302553878</v>
+        <v>-5533.945737669338</v>
       </c>
       <c r="K49" t="n">
-        <v>-5222.90302553878</v>
+        <v>-5533.945737669338</v>
       </c>
       <c r="L49" t="n">
-        <v>-5222.90302553878</v>
+        <v>-5533.945737669338</v>
       </c>
       <c r="M49" t="n">
-        <v>-5222.90302553878</v>
+        <v>-5533.945737669338</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>37782.51799805717</v>
+        <v>38262.34257199169</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44348</v>
       </c>
       <c r="C50" t="n">
-        <v>43148.15602086005</v>
+        <v>44008.79029800864</v>
       </c>
       <c r="D50" t="n">
-        <v>30322.10270677646</v>
+        <v>31391.34004859403</v>
       </c>
       <c r="E50" t="n">
-        <v>38885.58763486571</v>
+        <v>41183.39417364435</v>
       </c>
       <c r="F50" t="n">
-        <v>43148.15602086005</v>
+        <v>44008.79029800864</v>
       </c>
       <c r="G50" t="n">
-        <v>43148.15602086005</v>
+        <v>44008.79029800864</v>
       </c>
       <c r="H50" t="n">
-        <v>-8799.601281643549</v>
+        <v>-7978.268176687521</v>
       </c>
       <c r="I50" t="n">
-        <v>-8799.601281643549</v>
+        <v>-7978.268176687521</v>
       </c>
       <c r="J50" t="n">
-        <v>-8799.601281643549</v>
+        <v>-7978.268176687521</v>
       </c>
       <c r="K50" t="n">
-        <v>-8799.601281643549</v>
+        <v>-7978.268176687521</v>
       </c>
       <c r="L50" t="n">
-        <v>-8799.601281643549</v>
+        <v>-7978.268176687521</v>
       </c>
       <c r="M50" t="n">
-        <v>-8799.601281643549</v>
+        <v>-7978.268176687521</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>34348.5547392165</v>
+        <v>36030.52212132112</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44378</v>
       </c>
       <c r="C51" t="n">
-        <v>43286.28666337369</v>
+        <v>44214.43738350635</v>
       </c>
       <c r="D51" t="n">
-        <v>41698.82452708705</v>
+        <v>42098.88962239908</v>
       </c>
       <c r="E51" t="n">
-        <v>50498.46874295477</v>
+        <v>52092.29343244821</v>
       </c>
       <c r="F51" t="n">
-        <v>43286.28666337369</v>
+        <v>44214.43738350635</v>
       </c>
       <c r="G51" t="n">
-        <v>43286.28666337369</v>
+        <v>44214.43738350635</v>
       </c>
       <c r="H51" t="n">
-        <v>3048.511484641016</v>
+        <v>2795.429055728234</v>
       </c>
       <c r="I51" t="n">
-        <v>3048.511484641016</v>
+        <v>2795.429055728234</v>
       </c>
       <c r="J51" t="n">
-        <v>3048.511484641016</v>
+        <v>2795.429055728234</v>
       </c>
       <c r="K51" t="n">
-        <v>3048.511484641016</v>
+        <v>2795.429055728234</v>
       </c>
       <c r="L51" t="n">
-        <v>3048.511484641016</v>
+        <v>2795.429055728234</v>
       </c>
       <c r="M51" t="n">
-        <v>3048.511484641016</v>
+        <v>2795.429055728234</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>46334.79814801471</v>
+        <v>47009.86643923458</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44409</v>
       </c>
       <c r="C52" t="n">
-        <v>43429.02166063779</v>
+        <v>44426.93937185396</v>
       </c>
       <c r="D52" t="n">
-        <v>41219.14273861425</v>
+        <v>41107.95914710741</v>
       </c>
       <c r="E52" t="n">
-        <v>50258.32029282583</v>
+        <v>51250.79751215986</v>
       </c>
       <c r="F52" t="n">
-        <v>43429.02166063779</v>
+        <v>44426.93937185396</v>
       </c>
       <c r="G52" t="n">
-        <v>43429.02166063779</v>
+        <v>44426.93937185396</v>
       </c>
       <c r="H52" t="n">
-        <v>2196.598069324007</v>
+        <v>1941.095448403038</v>
       </c>
       <c r="I52" t="n">
-        <v>2196.598069324007</v>
+        <v>1941.095448403038</v>
       </c>
       <c r="J52" t="n">
-        <v>2196.598069324007</v>
+        <v>1941.095448403038</v>
       </c>
       <c r="K52" t="n">
-        <v>2196.598069324007</v>
+        <v>1941.095448403038</v>
       </c>
       <c r="L52" t="n">
-        <v>2196.598069324007</v>
+        <v>1941.095448403038</v>
       </c>
       <c r="M52" t="n">
-        <v>2196.598069324007</v>
+        <v>1941.095448403038</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>45625.61972996179</v>
+        <v>46368.03482025699</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44440</v>
       </c>
       <c r="C53" t="n">
-        <v>43571.75665790188</v>
+        <v>44639.44136020158</v>
       </c>
       <c r="D53" t="n">
-        <v>39536.82493543405</v>
+        <v>39643.86231190593</v>
       </c>
       <c r="E53" t="n">
-        <v>48473.47244182939</v>
+        <v>49650.75878922224</v>
       </c>
       <c r="F53" t="n">
-        <v>43571.75665790188</v>
+        <v>44639.44136020158</v>
       </c>
       <c r="G53" t="n">
-        <v>43571.75665790188</v>
+        <v>44639.44136020158</v>
       </c>
       <c r="H53" t="n">
-        <v>410.7613042050643</v>
+        <v>146.8679678354553</v>
       </c>
       <c r="I53" t="n">
-        <v>410.7613042050643</v>
+        <v>146.8679678354553</v>
       </c>
       <c r="J53" t="n">
-        <v>410.7613042050643</v>
+        <v>146.8679678354553</v>
       </c>
       <c r="K53" t="n">
-        <v>410.7613042050643</v>
+        <v>146.8679678354553</v>
       </c>
       <c r="L53" t="n">
-        <v>410.7613042050643</v>
+        <v>146.8679678354553</v>
       </c>
       <c r="M53" t="n">
-        <v>410.7613042050643</v>
+        <v>146.8679678354553</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>43982.51796210695</v>
+        <v>44786.30932803703</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44470</v>
       </c>
       <c r="C54" t="n">
-        <v>43709.88730041552</v>
+        <v>44845.08844569927</v>
       </c>
       <c r="D54" t="n">
-        <v>40568.17480952631</v>
+        <v>40850.6365592287</v>
       </c>
       <c r="E54" t="n">
-        <v>49317.68182721447</v>
+        <v>50690.26978687818</v>
       </c>
       <c r="F54" t="n">
-        <v>43709.88730041552</v>
+        <v>44845.08844569927</v>
       </c>
       <c r="G54" t="n">
-        <v>43709.88730041552</v>
+        <v>44845.08844569927</v>
       </c>
       <c r="H54" t="n">
-        <v>1165.709321066118</v>
+        <v>870.0161463591163</v>
       </c>
       <c r="I54" t="n">
-        <v>1165.709321066118</v>
+        <v>870.0161463591163</v>
       </c>
       <c r="J54" t="n">
-        <v>1165.709321066118</v>
+        <v>870.0161463591163</v>
       </c>
       <c r="K54" t="n">
-        <v>1165.709321066118</v>
+        <v>870.0161463591163</v>
       </c>
       <c r="L54" t="n">
-        <v>1165.709321066118</v>
+        <v>870.0161463591163</v>
       </c>
       <c r="M54" t="n">
-        <v>1165.709321066118</v>
+        <v>870.0161463591163</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>44875.59662148164</v>
+        <v>45715.10459205839</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44501</v>
       </c>
       <c r="C55" t="n">
-        <v>43852.62229767963</v>
+        <v>45057.59043404688</v>
       </c>
       <c r="D55" t="n">
-        <v>38867.85252328311</v>
+        <v>39581.83831863587</v>
       </c>
       <c r="E55" t="n">
-        <v>47978.8567407736</v>
+        <v>48982.31333596764</v>
       </c>
       <c r="F55" t="n">
-        <v>43852.62229767963</v>
+        <v>45057.59043404688</v>
       </c>
       <c r="G55" t="n">
-        <v>43852.62229767963</v>
+        <v>45057.59043404688</v>
       </c>
       <c r="H55" t="n">
-        <v>-493.28054611314</v>
+        <v>-834.6792227797662</v>
       </c>
       <c r="I55" t="n">
-        <v>-493.28054611314</v>
+        <v>-834.6792227797662</v>
       </c>
       <c r="J55" t="n">
-        <v>-493.28054611314</v>
+        <v>-834.6792227797662</v>
       </c>
       <c r="K55" t="n">
-        <v>-493.28054611314</v>
+        <v>-834.6792227797662</v>
       </c>
       <c r="L55" t="n">
-        <v>-493.28054611314</v>
+        <v>-834.6792227797662</v>
       </c>
       <c r="M55" t="n">
-        <v>-493.28054611314</v>
+        <v>-834.6792227797662</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>43359.34175156648</v>
+        <v>44222.91121126712</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44531</v>
       </c>
       <c r="C56" t="n">
-        <v>43990.75294019327</v>
+        <v>45263.23751954459</v>
       </c>
       <c r="D56" t="n">
-        <v>41440.13897473003</v>
+        <v>41467.81949830367</v>
       </c>
       <c r="E56" t="n">
-        <v>50353.02915209002</v>
+        <v>51557.66896574803</v>
       </c>
       <c r="F56" t="n">
-        <v>43990.75294019327</v>
+        <v>45263.23751954459</v>
       </c>
       <c r="G56" t="n">
-        <v>43990.75294019327</v>
+        <v>45263.23751954459</v>
       </c>
       <c r="H56" t="n">
-        <v>1525.732470196116</v>
+        <v>1132.292711130942</v>
       </c>
       <c r="I56" t="n">
-        <v>1525.732470196116</v>
+        <v>1132.292711130942</v>
       </c>
       <c r="J56" t="n">
-        <v>1525.732470196116</v>
+        <v>1132.292711130942</v>
       </c>
       <c r="K56" t="n">
-        <v>1525.732470196116</v>
+        <v>1132.292711130942</v>
       </c>
       <c r="L56" t="n">
-        <v>1525.732470196116</v>
+        <v>1132.292711130942</v>
       </c>
       <c r="M56" t="n">
-        <v>1525.732470196116</v>
+        <v>1132.292711130942</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>45516.48541038939</v>
+        <v>46395.53023067553</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44562</v>
       </c>
       <c r="C57" t="n">
-        <v>44133.48793745737</v>
+        <v>45475.7395078922</v>
       </c>
       <c r="D57" t="n">
-        <v>43760.35005202516</v>
+        <v>44246.78544243739</v>
       </c>
       <c r="E57" t="n">
-        <v>52309.30205140333</v>
+        <v>53879.69441160519</v>
       </c>
       <c r="F57" t="n">
-        <v>44133.48793745737</v>
+        <v>45475.7395078922</v>
       </c>
       <c r="G57" t="n">
-        <v>44133.48793745737</v>
+        <v>45475.7395078922</v>
       </c>
       <c r="H57" t="n">
-        <v>3877.131248714124</v>
+        <v>3432.614276975424</v>
       </c>
       <c r="I57" t="n">
-        <v>3877.131248714124</v>
+        <v>3432.614276975424</v>
       </c>
       <c r="J57" t="n">
-        <v>3877.131248714124</v>
+        <v>3432.614276975424</v>
       </c>
       <c r="K57" t="n">
-        <v>3877.131248714124</v>
+        <v>3432.614276975424</v>
       </c>
       <c r="L57" t="n">
-        <v>3877.131248714124</v>
+        <v>3432.614276975424</v>
       </c>
       <c r="M57" t="n">
-        <v>3877.131248714124</v>
+        <v>3432.614276975424</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>48010.6191861715</v>
+        <v>48908.35378486762</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44593</v>
       </c>
       <c r="C58" t="n">
-        <v>44276.22293472147</v>
+        <v>45688.24149623982</v>
       </c>
       <c r="D58" t="n">
-        <v>38053.12636337039</v>
+        <v>38678.41281169304</v>
       </c>
       <c r="E58" t="n">
-        <v>46989.77998367472</v>
+        <v>47829.52096959456</v>
       </c>
       <c r="F58" t="n">
-        <v>44276.22293472147</v>
+        <v>45688.24149623982</v>
       </c>
       <c r="G58" t="n">
-        <v>44276.22293472147</v>
+        <v>45688.24149623982</v>
       </c>
       <c r="H58" t="n">
-        <v>-1973.744131070669</v>
+        <v>-2440.012329150436</v>
       </c>
       <c r="I58" t="n">
-        <v>-1973.744131070669</v>
+        <v>-2440.012329150436</v>
       </c>
       <c r="J58" t="n">
-        <v>-1973.744131070669</v>
+        <v>-2440.012329150436</v>
       </c>
       <c r="K58" t="n">
-        <v>-1973.744131070669</v>
+        <v>-2440.012329150436</v>
       </c>
       <c r="L58" t="n">
-        <v>-1973.744131070669</v>
+        <v>-2440.012329150436</v>
       </c>
       <c r="M58" t="n">
-        <v>-1973.744131070669</v>
+        <v>-2440.012329150436</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>42302.4788036508</v>
+        <v>43248.22916708938</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44621</v>
       </c>
       <c r="C59" t="n">
-        <v>44405.1448677342</v>
+        <v>45880.17877603767</v>
       </c>
       <c r="D59" t="n">
-        <v>38940.00366900529</v>
+        <v>39657.85175747403</v>
       </c>
       <c r="E59" t="n">
-        <v>48141.24821040736</v>
+        <v>49498.11501437009</v>
       </c>
       <c r="F59" t="n">
-        <v>44405.1448677342</v>
+        <v>45880.17877603767</v>
       </c>
       <c r="G59" t="n">
-        <v>44405.1448677342</v>
+        <v>45880.17877603767</v>
       </c>
       <c r="H59" t="n">
-        <v>-650.5079001689463</v>
+        <v>-1157.806471849304</v>
       </c>
       <c r="I59" t="n">
-        <v>-650.5079001689463</v>
+        <v>-1157.806471849304</v>
       </c>
       <c r="J59" t="n">
-        <v>-650.5079001689463</v>
+        <v>-1157.806471849304</v>
       </c>
       <c r="K59" t="n">
-        <v>-650.5079001689463</v>
+        <v>-1157.806471849304</v>
       </c>
       <c r="L59" t="n">
-        <v>-650.5079001689463</v>
+        <v>-1157.806471849304</v>
       </c>
       <c r="M59" t="n">
-        <v>-650.5079001689463</v>
+        <v>-1157.806471849304</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>43754.63696756525</v>
+        <v>44722.37230418836</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44652</v>
       </c>
       <c r="C60" t="n">
-        <v>44547.8798649983</v>
+        <v>46092.68076438528</v>
       </c>
       <c r="D60" t="n">
-        <v>35779.38360994506</v>
+        <v>36059.73218488271</v>
       </c>
       <c r="E60" t="n">
-        <v>44538.42752165562</v>
+        <v>45785.20210245591</v>
       </c>
       <c r="F60" t="n">
-        <v>44547.8798649983</v>
+        <v>46092.68076438528</v>
       </c>
       <c r="G60" t="n">
-        <v>44547.8798649983</v>
+        <v>46092.68076438528</v>
       </c>
       <c r="H60" t="n">
-        <v>-4574.039547902887</v>
+        <v>-5085.930071679151</v>
       </c>
       <c r="I60" t="n">
-        <v>-4574.039547902887</v>
+        <v>-5085.930071679151</v>
       </c>
       <c r="J60" t="n">
-        <v>-4574.039547902887</v>
+        <v>-5085.930071679151</v>
       </c>
       <c r="K60" t="n">
-        <v>-4574.039547902887</v>
+        <v>-5085.930071679151</v>
       </c>
       <c r="L60" t="n">
-        <v>-4574.039547902887</v>
+        <v>-5085.930071679151</v>
       </c>
       <c r="M60" t="n">
-        <v>-4574.039547902887</v>
+        <v>-5085.930071679151</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>39973.84031709541</v>
+        <v>41006.75069270613</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44682</v>
       </c>
       <c r="C61" t="n">
-        <v>44686.01050751194</v>
+        <v>46298.32784988298</v>
       </c>
       <c r="D61" t="n">
-        <v>36185.29769268525</v>
+        <v>36783.72441908554</v>
       </c>
       <c r="E61" t="n">
-        <v>44843.83427732957</v>
+        <v>46743.5586260657</v>
       </c>
       <c r="F61" t="n">
-        <v>44686.01050751194</v>
+        <v>46298.32784988298</v>
       </c>
       <c r="G61" t="n">
-        <v>44686.01050751194</v>
+        <v>46298.32784988298</v>
       </c>
       <c r="H61" t="n">
-        <v>-4123.586721620265</v>
+        <v>-4661.520751882294</v>
       </c>
       <c r="I61" t="n">
-        <v>-4123.586721620265</v>
+        <v>-4661.520751882294</v>
       </c>
       <c r="J61" t="n">
-        <v>-4123.586721620265</v>
+        <v>-4661.520751882294</v>
       </c>
       <c r="K61" t="n">
-        <v>-4123.586721620265</v>
+        <v>-4661.520751882294</v>
       </c>
       <c r="L61" t="n">
-        <v>-4123.586721620265</v>
+        <v>-4661.520751882294</v>
       </c>
       <c r="M61" t="n">
-        <v>-4123.586721620265</v>
+        <v>-4661.520751882294</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>40562.42378589167</v>
+        <v>41636.80709800069</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44713</v>
       </c>
       <c r="C62" t="n">
-        <v>44828.74550477604</v>
+        <v>46510.82983823059</v>
       </c>
       <c r="D62" t="n">
-        <v>32633.06442514744</v>
+        <v>35000.55071707484</v>
       </c>
       <c r="E62" t="n">
-        <v>41524.83697077874</v>
+        <v>45158.49969869362</v>
       </c>
       <c r="F62" t="n">
-        <v>44827.48841036861</v>
+        <v>46510.82983823059</v>
       </c>
       <c r="G62" t="n">
-        <v>44830.23757383389</v>
+        <v>46510.82983823059</v>
       </c>
       <c r="H62" t="n">
-        <v>-7793.840279919728</v>
+        <v>-6238.547969466867</v>
       </c>
       <c r="I62" t="n">
-        <v>-7793.840279919728</v>
+        <v>-6238.547969466867</v>
       </c>
       <c r="J62" t="n">
-        <v>-7793.840279919728</v>
+        <v>-6238.547969466867</v>
       </c>
       <c r="K62" t="n">
-        <v>-7793.840279919728</v>
+        <v>-6238.547969466867</v>
       </c>
       <c r="L62" t="n">
-        <v>-7793.840279919728</v>
+        <v>-6238.547969466867</v>
       </c>
       <c r="M62" t="n">
-        <v>-7793.840279919728</v>
+        <v>-6238.547969466867</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>37034.90522485631</v>
+        <v>40272.28186876373</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44743</v>
       </c>
       <c r="C63" t="n">
-        <v>44966.87614728969</v>
+        <v>46716.4769237283</v>
       </c>
       <c r="D63" t="n">
-        <v>42870.63655662574</v>
+        <v>44066.62159162611</v>
       </c>
       <c r="E63" t="n">
-        <v>51263.00357452888</v>
+        <v>53830.25096503983</v>
       </c>
       <c r="F63" t="n">
-        <v>44960.02584452985</v>
+        <v>46716.44893797392</v>
       </c>
       <c r="G63" t="n">
-        <v>44974.19198990599</v>
+        <v>46716.51696556791</v>
       </c>
       <c r="H63" t="n">
-        <v>2306.208574750836</v>
+        <v>1928.896934849302</v>
       </c>
       <c r="I63" t="n">
-        <v>2306.208574750836</v>
+        <v>1928.896934849302</v>
       </c>
       <c r="J63" t="n">
-        <v>2306.208574750836</v>
+        <v>1928.896934849302</v>
       </c>
       <c r="K63" t="n">
-        <v>2306.208574750836</v>
+        <v>1928.896934849302</v>
       </c>
       <c r="L63" t="n">
-        <v>2306.208574750836</v>
+        <v>1928.896934849302</v>
       </c>
       <c r="M63" t="n">
-        <v>2306.208574750836</v>
+        <v>1928.896934849302</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>47273.08472204053</v>
+        <v>48645.3738585776</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44774</v>
       </c>
       <c r="C64" t="n">
-        <v>45109.61114455378</v>
+        <v>46928.97891207591</v>
       </c>
       <c r="D64" t="n">
-        <v>42339.74117663708</v>
+        <v>43434.80713326493</v>
       </c>
       <c r="E64" t="n">
-        <v>51370.18900880491</v>
+        <v>53024.97742726779</v>
       </c>
       <c r="F64" t="n">
-        <v>45095.78772078965</v>
+        <v>46928.82118573998</v>
       </c>
       <c r="G64" t="n">
-        <v>45124.20553636689</v>
+        <v>46929.18526715357</v>
       </c>
       <c r="H64" t="n">
-        <v>1843.98675268228</v>
+        <v>1489.353568860014</v>
       </c>
       <c r="I64" t="n">
-        <v>1843.98675268228</v>
+        <v>1489.353568860014</v>
       </c>
       <c r="J64" t="n">
-        <v>1843.98675268228</v>
+        <v>1489.353568860014</v>
       </c>
       <c r="K64" t="n">
-        <v>1843.98675268228</v>
+        <v>1489.353568860014</v>
       </c>
       <c r="L64" t="n">
-        <v>1843.98675268228</v>
+        <v>1489.353568860014</v>
       </c>
       <c r="M64" t="n">
-        <v>1843.98675268228</v>
+        <v>1489.353568860014</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>46953.59789723605</v>
+        <v>48418.33248093593</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44805</v>
       </c>
       <c r="C65" t="n">
-        <v>45252.34614181788</v>
+        <v>47141.48090042353</v>
       </c>
       <c r="D65" t="n">
-        <v>40104.82340834734</v>
+        <v>41022.33475393688</v>
       </c>
       <c r="E65" t="n">
-        <v>49090.51891088304</v>
+        <v>51168.16262974667</v>
       </c>
       <c r="F65" t="n">
-        <v>45230.2570651316</v>
+        <v>47141.07282309272</v>
       </c>
       <c r="G65" t="n">
-        <v>45276.99265713171</v>
+        <v>47141.93868330994</v>
       </c>
       <c r="H65" t="n">
-        <v>-776.1842972701767</v>
+        <v>-1161.843371625397</v>
       </c>
       <c r="I65" t="n">
-        <v>-776.1842972701767</v>
+        <v>-1161.843371625397</v>
       </c>
       <c r="J65" t="n">
-        <v>-776.1842972701767</v>
+        <v>-1161.843371625397</v>
       </c>
       <c r="K65" t="n">
-        <v>-776.1842972701767</v>
+        <v>-1161.843371625397</v>
       </c>
       <c r="L65" t="n">
-        <v>-776.1842972701767</v>
+        <v>-1161.843371625397</v>
       </c>
       <c r="M65" t="n">
-        <v>-776.1842972701767</v>
+        <v>-1161.843371625397</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>44476.1618445477</v>
+        <v>45979.63752879813</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44835</v>
       </c>
       <c r="C66" t="n">
-        <v>45390.47678433152</v>
+        <v>47347.12798592122</v>
       </c>
       <c r="D66" t="n">
-        <v>43024.60962021497</v>
+        <v>43982.86551723293</v>
       </c>
       <c r="E66" t="n">
-        <v>52158.98224631815</v>
+        <v>53776.1159484507</v>
       </c>
       <c r="F66" t="n">
-        <v>45358.13565889306</v>
+        <v>47346.45300822437</v>
       </c>
       <c r="G66" t="n">
-        <v>45426.38646450063</v>
+        <v>47347.85380757106</v>
       </c>
       <c r="H66" t="n">
-        <v>2073.318748692578</v>
+        <v>1689.392280069754</v>
       </c>
       <c r="I66" t="n">
-        <v>2073.318748692578</v>
+        <v>1689.392280069754</v>
       </c>
       <c r="J66" t="n">
-        <v>2073.318748692578</v>
+        <v>1689.392280069754</v>
       </c>
       <c r="K66" t="n">
-        <v>2073.318748692578</v>
+        <v>1689.392280069754</v>
       </c>
       <c r="L66" t="n">
-        <v>2073.318748692578</v>
+        <v>1689.392280069754</v>
       </c>
       <c r="M66" t="n">
-        <v>2073.318748692578</v>
+        <v>1689.392280069754</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>47463.79553302409</v>
+        <v>49036.52026599098</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44866</v>
       </c>
       <c r="C67" t="n">
-        <v>45533.21178159562</v>
+        <v>47559.62997426884</v>
       </c>
       <c r="D67" t="n">
-        <v>40831.66038855862</v>
+        <v>42038.46412742202</v>
       </c>
       <c r="E67" t="n">
-        <v>49379.26634782449</v>
+        <v>51548.79234914018</v>
       </c>
       <c r="F67" t="n">
-        <v>45486.49108224369</v>
+        <v>47558.62998486323</v>
       </c>
       <c r="G67" t="n">
-        <v>45580.57151245701</v>
+        <v>47560.6506353622</v>
       </c>
       <c r="H67" t="n">
-        <v>-462.0751586136469</v>
+        <v>-818.7276115240006</v>
       </c>
       <c r="I67" t="n">
-        <v>-462.0751586136469</v>
+        <v>-818.7276115240006</v>
       </c>
       <c r="J67" t="n">
-        <v>-462.0751586136469</v>
+        <v>-818.7276115240006</v>
       </c>
       <c r="K67" t="n">
-        <v>-462.0751586136469</v>
+        <v>-818.7276115240006</v>
       </c>
       <c r="L67" t="n">
-        <v>-462.0751586136469</v>
+        <v>-818.7276115240006</v>
       </c>
       <c r="M67" t="n">
-        <v>-462.0751586136469</v>
+        <v>-818.7276115240006</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>45071.13662298198</v>
+        <v>46740.90236274484</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44896</v>
       </c>
       <c r="C68" t="n">
-        <v>45671.34242410926</v>
+        <v>47765.27705976654</v>
       </c>
       <c r="D68" t="n">
-        <v>42367.98194432977</v>
+        <v>43811.6135444912</v>
       </c>
       <c r="E68" t="n">
-        <v>51236.08897460188</v>
+        <v>53435.7018312734</v>
       </c>
       <c r="F68" t="n">
-        <v>45611.36029452654</v>
+        <v>47763.93635254818</v>
       </c>
       <c r="G68" t="n">
-        <v>45733.71556999731</v>
+        <v>47766.69589289071</v>
       </c>
       <c r="H68" t="n">
-        <v>1191.858048330285</v>
+        <v>872.6180999034635</v>
       </c>
       <c r="I68" t="n">
-        <v>1191.858048330285</v>
+        <v>872.6180999034635</v>
       </c>
       <c r="J68" t="n">
-        <v>1191.858048330285</v>
+        <v>872.6180999034635</v>
       </c>
       <c r="K68" t="n">
-        <v>1191.858048330285</v>
+        <v>872.6180999034635</v>
       </c>
       <c r="L68" t="n">
-        <v>1191.858048330285</v>
+        <v>872.6180999034635</v>
       </c>
       <c r="M68" t="n">
-        <v>1191.858048330285</v>
+        <v>872.6180999034635</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>46863.20047243954</v>
+        <v>48637.89515967</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44927</v>
       </c>
       <c r="C69" t="n">
-        <v>45814.07742137336</v>
+        <v>47977.77904811415</v>
       </c>
       <c r="D69" t="n">
-        <v>46772.53180645704</v>
+        <v>48473.80651847099</v>
       </c>
       <c r="E69" t="n">
-        <v>55702.40221853409</v>
+        <v>58353.84554863845</v>
       </c>
       <c r="F69" t="n">
-        <v>45739.67706104865</v>
+        <v>47976.06882404551</v>
       </c>
       <c r="G69" t="n">
-        <v>45894.19522220329</v>
+        <v>47979.61626148244</v>
       </c>
       <c r="H69" t="n">
-        <v>5592.877166071641</v>
+        <v>5313.048556644078</v>
       </c>
       <c r="I69" t="n">
-        <v>5592.877166071641</v>
+        <v>5313.048556644078</v>
       </c>
       <c r="J69" t="n">
-        <v>5592.877166071641</v>
+        <v>5313.048556644078</v>
       </c>
       <c r="K69" t="n">
-        <v>5592.877166071641</v>
+        <v>5313.048556644078</v>
       </c>
       <c r="L69" t="n">
-        <v>5592.877166071641</v>
+        <v>5313.048556644078</v>
       </c>
       <c r="M69" t="n">
-        <v>5592.877166071641</v>
+        <v>5313.048556644078</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>51406.954587445</v>
+        <v>53290.82760475823</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44958</v>
       </c>
       <c r="C70" t="n">
-        <v>45956.81241863746</v>
+        <v>48190.28103646177</v>
       </c>
       <c r="D70" t="n">
-        <v>39570.78213521015</v>
+        <v>41362.84473333737</v>
       </c>
       <c r="E70" t="n">
-        <v>48333.02116527173</v>
+        <v>50996.38636611324</v>
       </c>
       <c r="F70" t="n">
-        <v>45868.37386707741</v>
+        <v>48188.12010531175</v>
       </c>
       <c r="G70" t="n">
-        <v>46051.95220757242</v>
+        <v>48192.57901433114</v>
       </c>
       <c r="H70" t="n">
-        <v>-2002.842976137978</v>
+        <v>-2281.315235436139</v>
       </c>
       <c r="I70" t="n">
-        <v>-2002.842976137978</v>
+        <v>-2281.315235436139</v>
       </c>
       <c r="J70" t="n">
-        <v>-2002.842976137978</v>
+        <v>-2281.315235436139</v>
       </c>
       <c r="K70" t="n">
-        <v>-2002.842976137978</v>
+        <v>-2281.315235436139</v>
       </c>
       <c r="L70" t="n">
-        <v>-2002.842976137978</v>
+        <v>-2281.315235436139</v>
       </c>
       <c r="M70" t="n">
-        <v>-2002.842976137978</v>
+        <v>-2281.315235436139</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>43953.96944249947</v>
+        <v>45908.96580102563</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44986</v>
       </c>
       <c r="C71" t="n">
-        <v>46085.73435165019</v>
+        <v>48382.21831625961</v>
       </c>
       <c r="D71" t="n">
-        <v>38882.95255703512</v>
+        <v>39868.32646985218</v>
       </c>
       <c r="E71" t="n">
-        <v>47601.8248025493</v>
+        <v>49684.84570489857</v>
       </c>
       <c r="F71" t="n">
-        <v>45980.16044105226</v>
+        <v>48379.60788288587</v>
       </c>
       <c r="G71" t="n">
-        <v>46195.82915426156</v>
+        <v>48384.886370739</v>
       </c>
       <c r="H71" t="n">
-        <v>-3026.665452229515</v>
+        <v>-3788.084060233013</v>
       </c>
       <c r="I71" t="n">
-        <v>-3026.665452229515</v>
+        <v>-3788.084060233013</v>
       </c>
       <c r="J71" t="n">
-        <v>-3026.665452229515</v>
+        <v>-3788.084060233013</v>
       </c>
       <c r="K71" t="n">
-        <v>-3026.665452229515</v>
+        <v>-3788.084060233013</v>
       </c>
       <c r="L71" t="n">
-        <v>-3026.665452229515</v>
+        <v>-3788.084060233013</v>
       </c>
       <c r="M71" t="n">
-        <v>-3026.665452229515</v>
+        <v>-3788.084060233013</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>43059.06889942068</v>
+        <v>44594.1342560266</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>45017</v>
       </c>
       <c r="C72" t="n">
-        <v>46228.46934891429</v>
+        <v>48594.72030460723</v>
       </c>
       <c r="D72" t="n">
-        <v>37707.88883798372</v>
+        <v>39162.25351992621</v>
       </c>
       <c r="E72" t="n">
-        <v>46640.67372947829</v>
+        <v>48929.51526343504</v>
       </c>
       <c r="F72" t="n">
-        <v>46106.32005701812</v>
+        <v>48591.72245697966</v>
       </c>
       <c r="G72" t="n">
-        <v>46356.34692230335</v>
+        <v>48597.89062107114</v>
       </c>
       <c r="H72" t="n">
-        <v>-3923.466590721038</v>
+        <v>-4646.499586395625</v>
       </c>
       <c r="I72" t="n">
-        <v>-3923.466590721038</v>
+        <v>-4646.499586395625</v>
       </c>
       <c r="J72" t="n">
-        <v>-3923.466590721038</v>
+        <v>-4646.499586395625</v>
       </c>
       <c r="K72" t="n">
-        <v>-3923.466590721038</v>
+        <v>-4646.499586395625</v>
       </c>
       <c r="L72" t="n">
-        <v>-3923.466590721038</v>
+        <v>-4646.499586395625</v>
       </c>
       <c r="M72" t="n">
-        <v>-3923.466590721038</v>
+        <v>-4646.499586395625</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>42305.00275819325</v>
+        <v>43948.22071821161</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>45047</v>
       </c>
       <c r="C73" t="n">
-        <v>46366.59999142794</v>
+        <v>48800.36739010493</v>
       </c>
       <c r="D73" t="n">
-        <v>38920.41176943646</v>
+        <v>40044.66355835304</v>
       </c>
       <c r="E73" t="n">
-        <v>47924.80011644556</v>
+        <v>50058.45612303066</v>
       </c>
       <c r="F73" t="n">
-        <v>46227.24769894504</v>
+        <v>48796.91491663442</v>
       </c>
       <c r="G73" t="n">
-        <v>46514.83474299488</v>
+        <v>48803.99216042611</v>
       </c>
       <c r="H73" t="n">
-        <v>-3012.837841117009</v>
+        <v>-3763.031308109232</v>
       </c>
       <c r="I73" t="n">
-        <v>-3012.837841117009</v>
+        <v>-3763.031308109232</v>
       </c>
       <c r="J73" t="n">
-        <v>-3012.837841117009</v>
+        <v>-3763.031308109232</v>
       </c>
       <c r="K73" t="n">
-        <v>-3012.837841117009</v>
+        <v>-3763.031308109232</v>
       </c>
       <c r="L73" t="n">
-        <v>-3012.837841117009</v>
+        <v>-3763.031308109232</v>
       </c>
       <c r="M73" t="n">
-        <v>-3012.837841117009</v>
+        <v>-3763.031308109232</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>43353.76215031093</v>
+        <v>45037.33608199569</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>45078</v>
       </c>
       <c r="C74" t="n">
-        <v>46509.33498869203</v>
+        <v>49012.86937845255</v>
       </c>
       <c r="D74" t="n">
-        <v>35461.80858863618</v>
+        <v>39596.1268066782</v>
       </c>
       <c r="E74" t="n">
-        <v>43733.99142004517</v>
+        <v>49347.64611745589</v>
       </c>
       <c r="F74" t="n">
-        <v>46351.55012402348</v>
+        <v>49008.90701278151</v>
       </c>
       <c r="G74" t="n">
-        <v>46677.66396716235</v>
+        <v>49017.05788368292</v>
       </c>
       <c r="H74" t="n">
-        <v>-6813.685767201307</v>
+        <v>-4522.336398034711</v>
       </c>
       <c r="I74" t="n">
-        <v>-6813.685767201307</v>
+        <v>-4522.336398034711</v>
       </c>
       <c r="J74" t="n">
-        <v>-6813.685767201307</v>
+        <v>-4522.336398034711</v>
       </c>
       <c r="K74" t="n">
-        <v>-6813.685767201307</v>
+        <v>-4522.336398034711</v>
       </c>
       <c r="L74" t="n">
-        <v>-6813.685767201307</v>
+        <v>-4522.336398034711</v>
       </c>
       <c r="M74" t="n">
-        <v>-6813.685767201307</v>
+        <v>-4522.336398034711</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>39695.64922149072</v>
+        <v>44490.53298041783</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>45108</v>
       </c>
       <c r="C75" t="n">
-        <v>46647.46563120568</v>
+        <v>49218.51646395024</v>
       </c>
       <c r="D75" t="n">
-        <v>43677.05611659732</v>
+        <v>45408.89376740792</v>
       </c>
       <c r="E75" t="n">
-        <v>52739.00717702071</v>
+        <v>55359.24658779705</v>
       </c>
       <c r="F75" t="n">
-        <v>46473.08043031244</v>
+        <v>49214.17899296174</v>
       </c>
       <c r="G75" t="n">
-        <v>46833.25079544824</v>
+        <v>49223.29752767448</v>
       </c>
       <c r="H75" t="n">
-        <v>1531.870714891959</v>
+        <v>1019.068102995071</v>
       </c>
       <c r="I75" t="n">
-        <v>1531.870714891959</v>
+        <v>1019.068102995071</v>
       </c>
       <c r="J75" t="n">
-        <v>1531.870714891959</v>
+        <v>1019.068102995071</v>
       </c>
       <c r="K75" t="n">
-        <v>1531.870714891959</v>
+        <v>1019.068102995071</v>
       </c>
       <c r="L75" t="n">
-        <v>1531.870714891959</v>
+        <v>1019.068102995071</v>
       </c>
       <c r="M75" t="n">
-        <v>1531.870714891959</v>
+        <v>1019.068102995071</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>48179.33634609763</v>
+        <v>50237.58456694531</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>45139</v>
       </c>
       <c r="C76" t="n">
-        <v>46790.20062846977</v>
+        <v>49431.01845229785</v>
       </c>
       <c r="D76" t="n">
-        <v>43991.82359508376</v>
+        <v>45590.1925207801</v>
       </c>
       <c r="E76" t="n">
-        <v>53024.1460412486</v>
+        <v>55439.68115275077</v>
       </c>
       <c r="F76" t="n">
-        <v>46594.52615608535</v>
+        <v>49426.1699438989</v>
       </c>
       <c r="G76" t="n">
-        <v>46997.25331245329</v>
+        <v>49436.43706761271</v>
       </c>
       <c r="H76" t="n">
-        <v>1480.722396732918</v>
+        <v>1022.941225188093</v>
       </c>
       <c r="I76" t="n">
-        <v>1480.722396732918</v>
+        <v>1022.941225188093</v>
       </c>
       <c r="J76" t="n">
-        <v>1480.722396732918</v>
+        <v>1022.941225188093</v>
       </c>
       <c r="K76" t="n">
-        <v>1480.722396732918</v>
+        <v>1022.941225188093</v>
       </c>
       <c r="L76" t="n">
-        <v>1480.722396732918</v>
+        <v>1022.941225188093</v>
       </c>
       <c r="M76" t="n">
-        <v>1480.722396732918</v>
+        <v>1022.941225188093</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>48270.92302520269</v>
+        <v>50453.95967748595</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45170</v>
       </c>
       <c r="C77" t="n">
-        <v>46932.93562573387</v>
+        <v>49643.52044064547</v>
       </c>
       <c r="D77" t="n">
-        <v>40623.78672065528</v>
+        <v>42500.3976826497</v>
       </c>
       <c r="E77" t="n">
-        <v>49537.110566904</v>
+        <v>51975.68242427685</v>
       </c>
       <c r="F77" t="n">
-        <v>46714.97660489606</v>
+        <v>49638.09369619691</v>
       </c>
       <c r="G77" t="n">
-        <v>47157.87144106625</v>
+        <v>49649.68330551804</v>
       </c>
       <c r="H77" t="n">
-        <v>-1943.275543269463</v>
+        <v>-2451.321651198947</v>
       </c>
       <c r="I77" t="n">
-        <v>-1943.275543269463</v>
+        <v>-2451.321651198947</v>
       </c>
       <c r="J77" t="n">
-        <v>-1943.275543269463</v>
+        <v>-2451.321651198947</v>
       </c>
       <c r="K77" t="n">
-        <v>-1943.275543269463</v>
+        <v>-2451.321651198947</v>
       </c>
       <c r="L77" t="n">
-        <v>-1943.275543269463</v>
+        <v>-2451.321651198947</v>
       </c>
       <c r="M77" t="n">
-        <v>-1943.275543269463</v>
+        <v>-2451.321651198947</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>44989.66008246441</v>
+        <v>47192.19878944653</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45200</v>
       </c>
       <c r="C78" t="n">
-        <v>47071.06626824751</v>
+        <v>49849.16752614317</v>
       </c>
       <c r="D78" t="n">
-        <v>45526.25533625456</v>
+        <v>47538.78913299662</v>
       </c>
       <c r="E78" t="n">
-        <v>54579.13965100773</v>
+        <v>57379.50174767876</v>
       </c>
       <c r="F78" t="n">
-        <v>46830.89812528926</v>
+        <v>49843.08526638483</v>
       </c>
       <c r="G78" t="n">
-        <v>47315.41951829992</v>
+        <v>49855.99132986884</v>
       </c>
       <c r="H78" t="n">
-        <v>3001.435875361883</v>
+        <v>2532.279715763185</v>
       </c>
       <c r="I78" t="n">
-        <v>3001.435875361883</v>
+        <v>2532.279715763185</v>
       </c>
       <c r="J78" t="n">
-        <v>3001.435875361883</v>
+        <v>2532.279715763185</v>
       </c>
       <c r="K78" t="n">
-        <v>3001.435875361883</v>
+        <v>2532.279715763185</v>
       </c>
       <c r="L78" t="n">
-        <v>3001.435875361883</v>
+        <v>2532.279715763185</v>
       </c>
       <c r="M78" t="n">
-        <v>3001.435875361883</v>
+        <v>2532.279715763185</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,60 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>50072.50214360939</v>
+        <v>52381.44724190635</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C79" t="n">
+        <v>50061.66951449079</v>
+      </c>
+      <c r="D79" t="n">
+        <v>44593.20097841632</v>
+      </c>
+      <c r="E79" t="n">
+        <v>54093.09693323249</v>
+      </c>
+      <c r="F79" t="n">
+        <v>50054.95210941973</v>
+      </c>
+      <c r="G79" t="n">
+        <v>50069.14186187138</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-800.5789641501916</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-800.5789641501916</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-800.5789641501916</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-800.5789641501916</v>
+      </c>
+      <c r="L79" t="n">
+        <v>-800.5789641501916</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-800.5789641501916</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>49261.0905503406</v>
       </c>
     </row>
   </sheetData>
